--- a/Dashboards/Clan Leaderboard.xlsx
+++ b/Dashboards/Clan Leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peterB\repositories\hobby projecten\BlockTanksStats\Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E2EEA9-EB32-4AB1-A0CE-AE322B8236BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720DFBBC-BC4A-4C21-9FCE-C163BE8A3067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="7365" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Totals</t>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -135,619 +135,320 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
+        <row r="2">
+          <cell r="A2" t="str">
             <v>Timestamp</v>
           </cell>
-          <cell r="B1" t="str">
+          <cell r="B2" t="str">
             <v>RIOT</v>
           </cell>
-          <cell r="C1" t="str">
+          <cell r="C2" t="str">
+            <v>MERC</v>
+          </cell>
+          <cell r="D2" t="str">
             <v>ZR</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="E2" t="str">
+            <v>DRONE</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>FOLDIN</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>GFB</v>
+          </cell>
+          <cell r="H2" t="str">
             <v>CAVERA</v>
           </cell>
-          <cell r="E1" t="str">
-            <v>MERC</v>
-          </cell>
-          <cell r="F1" t="str">
+          <cell r="I2" t="str">
+            <v>NOOBVN</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>INQ</v>
+          </cell>
+          <cell r="K2" t="str">
             <v>SENTRY</v>
           </cell>
-          <cell r="G1" t="str">
-            <v>DRONE</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>FOLDIN</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>NOOBVN</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>INQ</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>GFB</v>
-          </cell>
-          <cell r="L1" t="str">
+          <cell r="L2" t="str">
+            <v>KHAN</v>
+          </cell>
+          <cell r="M2" t="str">
+            <v>UDUZAL</v>
+          </cell>
+          <cell r="N2" t="str">
             <v>TS12</v>
           </cell>
-          <cell r="M1" t="str">
+          <cell r="O2" t="str">
+            <v>KRYPTO</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>SPEEDY</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>GHOSTS</v>
+          </cell>
+          <cell r="R2" t="str">
+            <v>WAR</v>
+          </cell>
+          <cell r="S2" t="str">
+            <v>6B</v>
+          </cell>
+          <cell r="T2" t="str">
             <v>PRO</v>
           </cell>
-          <cell r="N1" t="str">
-            <v>GHOSTS</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>KRYPTO</v>
-          </cell>
-          <cell r="P1" t="str">
-            <v>SPEEDY</v>
-          </cell>
-          <cell r="Q1" t="str">
-            <v>KHAN</v>
-          </cell>
-          <cell r="R1" t="str">
-            <v>WAR</v>
-          </cell>
-          <cell r="S1" t="str">
-            <v>6B</v>
-          </cell>
-          <cell r="T1" t="str">
+          <cell r="U2" t="str">
+            <v>COYOTE</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>WHAMMM</v>
+          </cell>
+          <cell r="W2" t="str">
+            <v>JID</v>
+          </cell>
+          <cell r="X2" t="str">
+            <v>BLESS</v>
+          </cell>
+          <cell r="Y2" t="str">
+            <v>MTR</v>
+          </cell>
+          <cell r="Z2" t="str">
             <v>E8</v>
           </cell>
-          <cell r="U1" t="str">
+          <cell r="AA2" t="str">
+            <v>ELITES</v>
+          </cell>
+          <cell r="AB2" t="str">
             <v>SONG</v>
           </cell>
-          <cell r="V1" t="str">
+          <cell r="AC2" t="str">
+            <v>TOXIC</v>
+          </cell>
+          <cell r="AD2" t="str">
+            <v>PEACE</v>
+          </cell>
+          <cell r="AE2" t="str">
+            <v>ANGELS</v>
+          </cell>
+          <cell r="AF2" t="str">
+            <v>CORONA</v>
+          </cell>
+          <cell r="AG2" t="str">
+            <v>SPARK</v>
+          </cell>
+          <cell r="AH2" t="str">
+            <v>WARIOR</v>
+          </cell>
+          <cell r="AI2" t="str">
+            <v>HALLO</v>
+          </cell>
+          <cell r="AJ2" t="str">
+            <v>TDK</v>
+          </cell>
+          <cell r="AK2" t="str">
             <v>IMPRO</v>
           </cell>
-          <cell r="W1" t="str">
-            <v>ELITES</v>
-          </cell>
-          <cell r="X1" t="str">
-            <v>WHAMMM</v>
-          </cell>
-          <cell r="Y1" t="str">
-            <v>BLESS</v>
-          </cell>
-          <cell r="Z1" t="str">
+          <cell r="AL2" t="str">
+            <v>NOVA</v>
+          </cell>
+          <cell r="AM2" t="str">
             <v>GOLD</v>
           </cell>
-          <cell r="AA1" t="str">
-            <v>MTR</v>
-          </cell>
-          <cell r="AB1" t="str">
-            <v>PEACE</v>
-          </cell>
-          <cell r="AC1" t="str">
-            <v>ANGELS</v>
-          </cell>
-          <cell r="AD1" t="str">
+          <cell r="AN2" t="str">
+            <v>MC</v>
+          </cell>
+          <cell r="AO2" t="str">
+            <v>ROKETS</v>
+          </cell>
+          <cell r="AP2" t="str">
+            <v>KOA</v>
+          </cell>
+          <cell r="AQ2" t="str">
             <v>PRIME</v>
           </cell>
-          <cell r="AE1" t="str">
-            <v>COYOTE</v>
-          </cell>
-          <cell r="AF1" t="str">
-            <v>CORONA</v>
-          </cell>
-          <cell r="AG1" t="str">
-            <v>JID</v>
-          </cell>
-          <cell r="AH1" t="str">
+          <cell r="AR2" t="str">
+            <v>POG</v>
+          </cell>
+          <cell r="AS2" t="str">
+            <v>POTATO</v>
+          </cell>
+          <cell r="AT2" t="str">
+            <v>PIXEL</v>
+          </cell>
+          <cell r="AU2" t="str">
+            <v>ANG7</v>
+          </cell>
+          <cell r="AV2" t="str">
+            <v>GUNDAM</v>
+          </cell>
+          <cell r="AW2" t="str">
             <v>PBTG</v>
           </cell>
-          <cell r="AI1" t="str">
-            <v>TDK</v>
-          </cell>
-          <cell r="AJ1" t="str">
-            <v>SPARK</v>
-          </cell>
-          <cell r="AK1" t="str">
-            <v>HALLO</v>
-          </cell>
-          <cell r="AL1" t="str">
-            <v>POTATO</v>
-          </cell>
-          <cell r="AM1" t="str">
-            <v>UDUZAL</v>
-          </cell>
-          <cell r="AN1" t="str">
+          <cell r="AX2" t="str">
+            <v>THEPRO</v>
+          </cell>
+          <cell r="AY2" t="str">
             <v>BOOM</v>
           </cell>
-          <cell r="AO1" t="str">
-            <v>NOVA</v>
-          </cell>
-          <cell r="AP1" t="str">
-            <v>ROKETS</v>
-          </cell>
-          <cell r="AQ1" t="str">
-            <v>KOA</v>
-          </cell>
-          <cell r="AR1" t="str">
-            <v>PIXEL</v>
-          </cell>
-          <cell r="AS1" t="str">
-            <v>GUNDAM</v>
-          </cell>
-          <cell r="AT1" t="str">
+          <cell r="AZ2" t="str">
             <v>BHM</v>
           </cell>
-          <cell r="AU1" t="str">
-            <v>THEPRO</v>
-          </cell>
-          <cell r="AV1" t="str">
+          <cell r="BA2" t="str">
+            <v>GANG</v>
+          </cell>
+          <cell r="BB2" t="str">
+            <v>CRAZED</v>
+          </cell>
+          <cell r="BC2" t="str">
+            <v>VENOM</v>
+          </cell>
+          <cell r="BD2" t="str">
+            <v>DARK</v>
+          </cell>
+          <cell r="BE2" t="str">
+            <v>IQ</v>
+          </cell>
+          <cell r="BF2" t="str">
+            <v>MERC2</v>
+          </cell>
+          <cell r="BG2" t="str">
             <v>BM</v>
           </cell>
-          <cell r="AW1" t="str">
-            <v>MC</v>
-          </cell>
-          <cell r="AX1" t="str">
-            <v>ANG7</v>
-          </cell>
-          <cell r="AY1" t="str">
-            <v>GANG</v>
-          </cell>
-          <cell r="AZ1" t="str">
+          <cell r="BH2" t="str">
+            <v>OWO</v>
+          </cell>
+          <cell r="BI2" t="str">
+            <v>GANG3</v>
+          </cell>
+          <cell r="BJ2" t="str">
             <v>NOMS</v>
           </cell>
-          <cell r="BA1" t="str">
-            <v>VENOM</v>
-          </cell>
-          <cell r="BB1" t="str">
+          <cell r="BK2" t="str">
+            <v>DR0NE</v>
+          </cell>
+          <cell r="BL2" t="str">
+            <v>DODGE</v>
+          </cell>
+          <cell r="BM2" t="str">
+            <v>LOKERS</v>
+          </cell>
+          <cell r="BN2" t="str">
             <v>CROWN</v>
           </cell>
-          <cell r="BC1" t="str">
-            <v>IQ</v>
-          </cell>
-          <cell r="BD1" t="str">
-            <v>WARIOR</v>
-          </cell>
-          <cell r="BE1" t="str">
-            <v>OWO</v>
-          </cell>
-          <cell r="BF1" t="str">
-            <v>CRAZED</v>
-          </cell>
-          <cell r="BG1" t="str">
+          <cell r="BO2" t="str">
             <v>ICYYY</v>
           </cell>
-          <cell r="BH1" t="str">
-            <v>MERC2</v>
-          </cell>
-          <cell r="BI1" t="str">
+          <cell r="BP2" t="str">
             <v>GQ</v>
           </cell>
-          <cell r="BJ1" t="str">
-            <v>POG</v>
-          </cell>
-          <cell r="BK1" t="str">
+          <cell r="BQ2" t="str">
+            <v>GOLDEN</v>
+          </cell>
+          <cell r="BR2" t="str">
             <v>RAN</v>
           </cell>
-          <cell r="BL1" t="str">
-            <v>DARK</v>
-          </cell>
-          <cell r="BM1" t="str">
-            <v>DODGE</v>
-          </cell>
-          <cell r="BN1" t="str">
+          <cell r="BS2" t="str">
             <v>LUC43R</v>
           </cell>
-          <cell r="BO1" t="str">
-            <v>GANG3</v>
-          </cell>
-          <cell r="BP1" t="str">
+          <cell r="BT2" t="str">
+            <v>CLUTCH</v>
+          </cell>
+          <cell r="BU2" t="str">
             <v>NARUTO</v>
           </cell>
-          <cell r="BQ1" t="str">
+          <cell r="BV2" t="str">
+            <v>BROCKY</v>
+          </cell>
+          <cell r="BW2" t="str">
+            <v>OWLC</v>
+          </cell>
+          <cell r="BX2" t="str">
+            <v>23WINS</v>
+          </cell>
+          <cell r="BY2" t="str">
+            <v>WOOGS</v>
+          </cell>
+          <cell r="BZ2" t="str">
             <v>LEADER</v>
           </cell>
-          <cell r="BR1" t="str">
+          <cell r="CA2" t="str">
+            <v>SUSHIZ</v>
+          </cell>
+          <cell r="CB2" t="str">
+            <v>ZERO</v>
+          </cell>
+          <cell r="CC2" t="str">
+            <v>STC</v>
+          </cell>
+          <cell r="CD2" t="str">
+            <v>RAGEN</v>
+          </cell>
+          <cell r="CE2" t="str">
+            <v>SWEATS</v>
+          </cell>
+          <cell r="CF2" t="str">
+            <v>DRAGON</v>
+          </cell>
+          <cell r="CG2" t="str">
+            <v>GOD</v>
+          </cell>
+          <cell r="CH2" t="str">
+            <v>ML</v>
+          </cell>
+          <cell r="CI2" t="str">
+            <v>INQ2</v>
+          </cell>
+          <cell r="CJ2" t="str">
+            <v>TDK2</v>
+          </cell>
+          <cell r="CK2" t="str">
+            <v>COSMIC</v>
+          </cell>
+          <cell r="CL2" t="str">
             <v>TANK</v>
           </cell>
-          <cell r="BS1" t="str">
-            <v>LOKERS</v>
-          </cell>
-          <cell r="BT1" t="str">
-            <v>INQ2</v>
-          </cell>
-          <cell r="BU1" t="str">
-            <v>GOLDEN</v>
-          </cell>
-          <cell r="BV1" t="str">
+          <cell r="CM2" t="str">
+            <v>ARCTIC</v>
+          </cell>
+          <cell r="CN2" t="str">
             <v>OPCLAN</v>
           </cell>
-          <cell r="BW1" t="str">
-            <v>SWEATS</v>
-          </cell>
-          <cell r="BX1" t="str">
-            <v>ZERO</v>
-          </cell>
-          <cell r="BY1" t="str">
-            <v>DR0NE</v>
-          </cell>
-          <cell r="BZ1" t="str">
-            <v>RAGEN</v>
-          </cell>
-          <cell r="CA1" t="str">
-            <v>WOOGS</v>
-          </cell>
-          <cell r="CB1" t="str">
-            <v>ARCTIC</v>
-          </cell>
-          <cell r="CC1" t="str">
-            <v>COSMIC</v>
-          </cell>
-          <cell r="CD1" t="str">
-            <v>GOD</v>
-          </cell>
-          <cell r="CE1" t="str">
-            <v>OWLC</v>
-          </cell>
-          <cell r="CF1" t="str">
-            <v>CLUTCH</v>
-          </cell>
-          <cell r="CG1" t="str">
-            <v>23WINS</v>
-          </cell>
-          <cell r="CH1" t="str">
+          <cell r="CO2" t="str">
+            <v>TANKER</v>
+          </cell>
+          <cell r="CP2" t="str">
             <v>GINGER</v>
           </cell>
-          <cell r="CI1" t="str">
-            <v>STC</v>
-          </cell>
-          <cell r="CJ1" t="str">
-            <v>DRAGON</v>
-          </cell>
-          <cell r="CK1" t="str">
-            <v>BROCKY</v>
-          </cell>
-          <cell r="CL1" t="str">
-            <v>MORT</v>
-          </cell>
-          <cell r="CM1" t="str">
-            <v>ML</v>
-          </cell>
-          <cell r="CN1" t="str">
+          <cell r="CQ2" t="str">
+            <v>wsssss</v>
+          </cell>
+          <cell r="CR2" t="str">
             <v>USMC</v>
           </cell>
-          <cell r="CO1" t="str">
-            <v>TDK2</v>
-          </cell>
-          <cell r="CP1" t="str">
+          <cell r="CS2" t="str">
             <v>CGANG</v>
           </cell>
-          <cell r="CQ1" t="str">
+          <cell r="CT2" t="str">
             <v>FBI</v>
           </cell>
-          <cell r="CR1" t="str">
+          <cell r="CU2" t="str">
             <v>NIGHT</v>
           </cell>
-          <cell r="CS1" t="str">
+          <cell r="CV2" t="str">
             <v>RIP</v>
           </cell>
-          <cell r="CT1" t="str">
+          <cell r="CW2" t="str">
             <v>DEFAUL</v>
           </cell>
-          <cell r="CU1" t="str">
-            <v>TANKER</v>
-          </cell>
-          <cell r="CV1" t="str">
-            <v>SUSHIZ</v>
-          </cell>
-          <cell r="CW1" t="str">
+          <cell r="CX2" t="str">
             <v>ELITE2</v>
           </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>44265</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="I2">
-            <v>0</v>
-          </cell>
-          <cell r="J2">
-            <v>0</v>
-          </cell>
-          <cell r="K2">
-            <v>0</v>
-          </cell>
-          <cell r="L2">
-            <v>0</v>
-          </cell>
-          <cell r="M2">
-            <v>0</v>
-          </cell>
-          <cell r="N2">
-            <v>0</v>
-          </cell>
-          <cell r="O2">
-            <v>0</v>
-          </cell>
-          <cell r="P2">
-            <v>0</v>
-          </cell>
-          <cell r="Q2">
-            <v>0</v>
-          </cell>
-          <cell r="R2">
-            <v>0</v>
-          </cell>
-          <cell r="S2">
-            <v>0</v>
-          </cell>
-          <cell r="T2">
-            <v>0</v>
-          </cell>
-          <cell r="U2">
-            <v>0</v>
-          </cell>
-          <cell r="V2">
-            <v>0</v>
-          </cell>
-          <cell r="W2">
-            <v>0</v>
-          </cell>
-          <cell r="X2">
-            <v>0</v>
-          </cell>
-          <cell r="Y2">
-            <v>0</v>
-          </cell>
-          <cell r="Z2">
-            <v>0</v>
-          </cell>
-          <cell r="AA2">
-            <v>0</v>
-          </cell>
-          <cell r="AB2">
-            <v>0</v>
-          </cell>
-          <cell r="AC2">
-            <v>0</v>
-          </cell>
-          <cell r="AD2">
-            <v>0</v>
-          </cell>
-          <cell r="AE2">
-            <v>0</v>
-          </cell>
-          <cell r="AF2">
-            <v>0</v>
-          </cell>
-          <cell r="AG2">
-            <v>0</v>
-          </cell>
-          <cell r="AH2">
-            <v>0</v>
-          </cell>
-          <cell r="AI2">
-            <v>0</v>
-          </cell>
-          <cell r="AJ2">
-            <v>0</v>
-          </cell>
-          <cell r="AK2">
-            <v>0</v>
-          </cell>
-          <cell r="AL2">
-            <v>0</v>
-          </cell>
-          <cell r="AM2">
-            <v>0</v>
-          </cell>
-          <cell r="AN2">
-            <v>0</v>
-          </cell>
-          <cell r="AO2">
-            <v>0</v>
-          </cell>
-          <cell r="AP2">
-            <v>0</v>
-          </cell>
-          <cell r="AQ2">
-            <v>0</v>
-          </cell>
-          <cell r="AR2">
-            <v>0</v>
-          </cell>
-          <cell r="AS2">
-            <v>0</v>
-          </cell>
-          <cell r="AT2">
-            <v>0</v>
-          </cell>
-          <cell r="AU2">
-            <v>0</v>
-          </cell>
-          <cell r="AV2">
-            <v>0</v>
-          </cell>
-          <cell r="AW2">
-            <v>0</v>
-          </cell>
-          <cell r="AX2">
-            <v>0</v>
-          </cell>
-          <cell r="AY2">
-            <v>0</v>
-          </cell>
-          <cell r="AZ2">
-            <v>0</v>
-          </cell>
-          <cell r="BA2">
-            <v>0</v>
-          </cell>
-          <cell r="BB2">
-            <v>0</v>
-          </cell>
-          <cell r="BC2">
-            <v>0</v>
-          </cell>
-          <cell r="BD2">
-            <v>0</v>
-          </cell>
-          <cell r="BE2">
-            <v>0</v>
-          </cell>
-          <cell r="BF2">
-            <v>0</v>
-          </cell>
-          <cell r="BG2">
-            <v>0</v>
-          </cell>
-          <cell r="BH2">
-            <v>0</v>
-          </cell>
-          <cell r="BI2">
-            <v>0</v>
-          </cell>
-          <cell r="BJ2">
-            <v>0</v>
-          </cell>
-          <cell r="BK2">
-            <v>0</v>
-          </cell>
-          <cell r="BL2">
-            <v>0</v>
-          </cell>
-          <cell r="BM2">
-            <v>0</v>
-          </cell>
-          <cell r="BN2">
-            <v>0</v>
-          </cell>
-          <cell r="BO2">
-            <v>0</v>
-          </cell>
-          <cell r="BP2">
-            <v>0</v>
-          </cell>
-          <cell r="BQ2">
-            <v>0</v>
-          </cell>
-          <cell r="BR2">
-            <v>0</v>
-          </cell>
-          <cell r="BS2">
-            <v>0</v>
-          </cell>
-          <cell r="BT2">
-            <v>0</v>
-          </cell>
-          <cell r="BU2">
-            <v>0</v>
-          </cell>
-          <cell r="BV2">
-            <v>0</v>
-          </cell>
-          <cell r="BW2">
-            <v>0</v>
-          </cell>
-          <cell r="BX2">
-            <v>0</v>
-          </cell>
-          <cell r="BY2">
-            <v>0</v>
-          </cell>
-          <cell r="BZ2">
-            <v>0</v>
-          </cell>
-          <cell r="CA2">
-            <v>0</v>
-          </cell>
-          <cell r="CB2">
-            <v>0</v>
-          </cell>
-          <cell r="CC2">
-            <v>0</v>
-          </cell>
-          <cell r="CD2">
-            <v>0</v>
-          </cell>
-          <cell r="CE2">
-            <v>0</v>
-          </cell>
-          <cell r="CF2">
-            <v>0</v>
-          </cell>
-          <cell r="CG2">
-            <v>0</v>
-          </cell>
-          <cell r="CH2">
-            <v>0</v>
-          </cell>
-          <cell r="CI2">
-            <v>0</v>
-          </cell>
-          <cell r="CJ2">
-            <v>0</v>
-          </cell>
-          <cell r="CK2">
-            <v>0</v>
-          </cell>
-          <cell r="CL2">
-            <v>0</v>
-          </cell>
-          <cell r="CM2">
-            <v>0</v>
-          </cell>
-          <cell r="CN2">
-            <v>0</v>
-          </cell>
-          <cell r="CO2">
-            <v>0</v>
-          </cell>
-          <cell r="CP2">
-            <v>0</v>
-          </cell>
-          <cell r="CQ2">
-            <v>0</v>
-          </cell>
-          <cell r="CR2">
-            <v>0</v>
-          </cell>
-          <cell r="CS2">
-            <v>0</v>
-          </cell>
-          <cell r="CT2">
-            <v>0</v>
-          </cell>
-          <cell r="CU2">
-            <v>0</v>
-          </cell>
-          <cell r="CV2">
-            <v>0</v>
-          </cell>
-          <cell r="CW2">
-            <v>0</v>
+          <cell r="CY2" t="str">
+            <v>CHIEF</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44266</v>
+            <v>44269</v>
           </cell>
           <cell r="B3">
             <v>0</v>
@@ -1047,12 +748,18 @@
             <v>0</v>
           </cell>
           <cell r="CW3">
+            <v>0</v>
+          </cell>
+          <cell r="CX3">
+            <v>0</v>
+          </cell>
+          <cell r="CY3">
             <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44267</v>
+            <v>44270</v>
           </cell>
           <cell r="B4">
             <v>0</v>
@@ -1352,12 +1059,18 @@
             <v>0</v>
           </cell>
           <cell r="CW4">
+            <v>0</v>
+          </cell>
+          <cell r="CX4">
+            <v>0</v>
+          </cell>
+          <cell r="CY4">
             <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44268</v>
+            <v>44271</v>
           </cell>
           <cell r="B5">
             <v>0</v>
@@ -1657,12 +1370,18 @@
             <v>0</v>
           </cell>
           <cell r="CW5">
+            <v>0</v>
+          </cell>
+          <cell r="CX5">
+            <v>0</v>
+          </cell>
+          <cell r="CY5">
             <v>0</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44269</v>
+            <v>44272</v>
           </cell>
           <cell r="B6">
             <v>0</v>
@@ -1962,12 +1681,18 @@
             <v>0</v>
           </cell>
           <cell r="CW6">
+            <v>0</v>
+          </cell>
+          <cell r="CX6">
+            <v>0</v>
+          </cell>
+          <cell r="CY6">
             <v>0</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44270</v>
+            <v>44273</v>
           </cell>
           <cell r="B7">
             <v>0</v>
@@ -2267,12 +1992,18 @@
             <v>0</v>
           </cell>
           <cell r="CW7">
+            <v>0</v>
+          </cell>
+          <cell r="CX7">
+            <v>0</v>
+          </cell>
+          <cell r="CY7">
             <v>0</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44271</v>
+            <v>44274</v>
           </cell>
           <cell r="B8">
             <v>0</v>
@@ -2572,12 +2303,18 @@
             <v>0</v>
           </cell>
           <cell r="CW8">
+            <v>0</v>
+          </cell>
+          <cell r="CX8">
+            <v>0</v>
+          </cell>
+          <cell r="CY8">
             <v>0</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44272</v>
+            <v>44275</v>
           </cell>
           <cell r="B9">
             <v>0</v>
@@ -2877,216 +2614,222 @@
             <v>0</v>
           </cell>
           <cell r="CW9">
+            <v>0</v>
+          </cell>
+          <cell r="CX9">
+            <v>0</v>
+          </cell>
+          <cell r="CY9">
             <v>0</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44273</v>
+            <v>44276</v>
           </cell>
           <cell r="B10">
-            <v>0</v>
+            <v>37873.394708333602</v>
           </cell>
           <cell r="C10">
-            <v>0</v>
+            <v>12881.061833334101</v>
           </cell>
           <cell r="D10">
-            <v>0</v>
+            <v>18157.3198333336</v>
           </cell>
           <cell r="E10">
-            <v>0</v>
+            <v>12056.919583332899</v>
           </cell>
           <cell r="F10">
-            <v>0</v>
+            <v>14766.6431666682</v>
           </cell>
           <cell r="G10">
-            <v>0</v>
+            <v>20104.056041666699</v>
           </cell>
           <cell r="H10">
-            <v>0</v>
+            <v>26706.375625000299</v>
           </cell>
           <cell r="I10">
-            <v>0</v>
+            <v>22905.839000000298</v>
           </cell>
           <cell r="J10">
-            <v>0</v>
+            <v>14681.413500001599</v>
           </cell>
           <cell r="K10">
-            <v>0</v>
+            <v>21564.589833337301</v>
           </cell>
           <cell r="L10">
-            <v>0</v>
+            <v>5141.0767500000002</v>
           </cell>
           <cell r="M10">
-            <v>0</v>
+            <v>1513.9888333333599</v>
           </cell>
           <cell r="N10">
-            <v>0</v>
+            <v>12499.2520833339</v>
           </cell>
           <cell r="O10">
-            <v>0</v>
+            <v>9281.9406250007396</v>
           </cell>
           <cell r="P10">
-            <v>0</v>
+            <v>5061.6539166666298</v>
           </cell>
           <cell r="Q10">
-            <v>0</v>
+            <v>1168.46741666668</v>
           </cell>
           <cell r="R10">
-            <v>0</v>
+            <v>6385.1477500002302</v>
           </cell>
           <cell r="S10">
-            <v>0</v>
+            <v>6681.7464999999502</v>
           </cell>
           <cell r="T10">
-            <v>0</v>
+            <v>11316.177583332101</v>
           </cell>
           <cell r="U10">
-            <v>0</v>
+            <v>7275.9641250003997</v>
           </cell>
           <cell r="V10">
-            <v>0</v>
+            <v>2024.9287499997299</v>
           </cell>
           <cell r="W10">
-            <v>0</v>
+            <v>4745.9350000001104</v>
           </cell>
           <cell r="X10">
-            <v>0</v>
+            <v>8876.5737083333606</v>
           </cell>
           <cell r="Y10">
-            <v>0</v>
+            <v>8656.3850000001803</v>
           </cell>
           <cell r="Z10">
-            <v>0</v>
+            <v>7527.9286666663802</v>
           </cell>
           <cell r="AA10">
-            <v>0</v>
+            <v>4554.0888333334497</v>
           </cell>
           <cell r="AB10">
-            <v>0</v>
+            <v>5574.3505833331701</v>
           </cell>
           <cell r="AC10">
             <v>0</v>
           </cell>
           <cell r="AD10">
-            <v>0</v>
+            <v>5056.9416666666502</v>
           </cell>
           <cell r="AE10">
-            <v>0</v>
+            <v>3384.4261666666398</v>
           </cell>
           <cell r="AF10">
-            <v>0</v>
+            <v>8960.9775000002701</v>
           </cell>
           <cell r="AG10">
-            <v>0</v>
+            <v>1817.4911666666401</v>
           </cell>
           <cell r="AH10">
-            <v>0</v>
+            <v>889.39700000011305</v>
           </cell>
           <cell r="AI10">
-            <v>0</v>
+            <v>1554.41133333329</v>
           </cell>
           <cell r="AJ10">
-            <v>0</v>
+            <v>8707.0500000000393</v>
           </cell>
           <cell r="AK10">
-            <v>0</v>
+            <v>7165.9712500001697</v>
           </cell>
           <cell r="AL10">
-            <v>0</v>
+            <v>691.353000000002</v>
           </cell>
           <cell r="AM10">
-            <v>0</v>
+            <v>12920.4055833333</v>
           </cell>
           <cell r="AN10">
-            <v>0</v>
+            <v>444.07641666667701</v>
           </cell>
           <cell r="AO10">
-            <v>0</v>
+            <v>1162.3101666667401</v>
           </cell>
           <cell r="AP10">
-            <v>0</v>
+            <v>2350.78379166778</v>
           </cell>
           <cell r="AQ10">
-            <v>0</v>
+            <v>8245.4192083333892</v>
           </cell>
           <cell r="AR10">
-            <v>0</v>
+            <v>2576.4274166666401</v>
           </cell>
           <cell r="AS10">
-            <v>0</v>
+            <v>3560.7674999999499</v>
           </cell>
           <cell r="AT10">
-            <v>0</v>
+            <v>1951.6608333332599</v>
           </cell>
           <cell r="AU10">
-            <v>0</v>
+            <v>201.12741666659699</v>
           </cell>
           <cell r="AV10">
-            <v>0</v>
+            <v>4873.6473333332897</v>
           </cell>
           <cell r="AW10">
-            <v>0</v>
+            <v>8935.3363749993696</v>
           </cell>
           <cell r="AX10">
             <v>0</v>
           </cell>
           <cell r="AY10">
-            <v>0</v>
+            <v>6108.6891666664696</v>
           </cell>
           <cell r="AZ10">
-            <v>0</v>
+            <v>3923.0678333332698</v>
           </cell>
           <cell r="BA10">
-            <v>0</v>
+            <v>2330.7169999999701</v>
           </cell>
           <cell r="BB10">
-            <v>0</v>
+            <v>1077.1712499999801</v>
           </cell>
           <cell r="BC10">
-            <v>0</v>
+            <v>653.94983333325899</v>
           </cell>
           <cell r="BD10">
             <v>0</v>
           </cell>
           <cell r="BE10">
-            <v>0</v>
+            <v>1405.0066666667699</v>
           </cell>
           <cell r="BF10">
-            <v>0</v>
+            <v>589.39325000002202</v>
           </cell>
           <cell r="BG10">
             <v>0</v>
           </cell>
           <cell r="BH10">
-            <v>0</v>
+            <v>1060.43783333327</v>
           </cell>
           <cell r="BI10">
-            <v>0</v>
+            <v>1589.73124999995</v>
           </cell>
           <cell r="BJ10">
-            <v>0</v>
+            <v>861.05187500000397</v>
           </cell>
           <cell r="BK10">
             <v>0</v>
           </cell>
           <cell r="BL10">
-            <v>0</v>
+            <v>1923.6121250000399</v>
           </cell>
           <cell r="BM10">
             <v>0</v>
           </cell>
           <cell r="BN10">
-            <v>0</v>
+            <v>2404.4963333332498</v>
           </cell>
           <cell r="BO10">
-            <v>0</v>
+            <v>49.055499999987603</v>
           </cell>
           <cell r="BP10">
-            <v>0</v>
+            <v>302.49316666665197</v>
           </cell>
           <cell r="BQ10">
-            <v>0</v>
+            <v>1027.9227083334099</v>
           </cell>
           <cell r="BR10">
             <v>0</v>
@@ -3098,7 +2841,7 @@
             <v>0</v>
           </cell>
           <cell r="BU10">
-            <v>0</v>
+            <v>1990.8704166667301</v>
           </cell>
           <cell r="BV10">
             <v>0</v>
@@ -3110,10 +2853,10 @@
             <v>0</v>
           </cell>
           <cell r="BY10">
-            <v>0</v>
+            <v>104.01650000002699</v>
           </cell>
           <cell r="BZ10">
-            <v>0</v>
+            <v>367.53775000001701</v>
           </cell>
           <cell r="CA10">
             <v>0</v>
@@ -3122,22 +2865,22 @@
             <v>0</v>
           </cell>
           <cell r="CC10">
-            <v>0</v>
+            <v>12.674750000005499</v>
           </cell>
           <cell r="CD10">
-            <v>0</v>
+            <v>379.81091666669801</v>
           </cell>
           <cell r="CE10">
-            <v>0</v>
+            <v>986.88091666664695</v>
           </cell>
           <cell r="CF10">
-            <v>0</v>
+            <v>21.8462500000023</v>
           </cell>
           <cell r="CG10">
-            <v>0</v>
+            <v>121.270666666678</v>
           </cell>
           <cell r="CH10">
-            <v>0</v>
+            <v>5.7264999999897501</v>
           </cell>
           <cell r="CI10">
             <v>0</v>
@@ -3149,19 +2892,19 @@
             <v>0</v>
           </cell>
           <cell r="CL10">
-            <v>0</v>
+            <v>2098.4344166667101</v>
           </cell>
           <cell r="CM10">
-            <v>0</v>
+            <v>228.68616666668001</v>
           </cell>
           <cell r="CN10">
-            <v>0</v>
+            <v>863.79699999996205</v>
           </cell>
           <cell r="CO10">
             <v>0</v>
           </cell>
           <cell r="CP10">
-            <v>0</v>
+            <v>148.27558333333499</v>
           </cell>
           <cell r="CQ10">
             <v>0</v>
@@ -3182,285 +2925,291 @@
             <v>0</v>
           </cell>
           <cell r="CW10">
+            <v>0</v>
+          </cell>
+          <cell r="CX10">
+            <v>0</v>
+          </cell>
+          <cell r="CY10">
             <v>0</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44274</v>
+            <v>44277</v>
           </cell>
           <cell r="B11">
-            <v>0</v>
+            <v>61085.008833330998</v>
           </cell>
           <cell r="C11">
-            <v>0</v>
+            <v>32810.372625001</v>
           </cell>
           <cell r="D11">
-            <v>0</v>
+            <v>43285.042416663797</v>
           </cell>
           <cell r="E11">
-            <v>0</v>
+            <v>36267.998916667602</v>
           </cell>
           <cell r="F11">
-            <v>0</v>
+            <v>30235.770875002199</v>
           </cell>
           <cell r="G11">
-            <v>0</v>
+            <v>25227.122250000401</v>
           </cell>
           <cell r="H11">
-            <v>0</v>
+            <v>24379.713583330598</v>
           </cell>
           <cell r="I11">
-            <v>0</v>
+            <v>20316.293458334101</v>
           </cell>
           <cell r="J11">
-            <v>0</v>
+            <v>28963.6409166669</v>
           </cell>
           <cell r="K11">
-            <v>0</v>
+            <v>29056.325083334901</v>
           </cell>
           <cell r="L11">
-            <v>0</v>
+            <v>19251.677583334</v>
           </cell>
           <cell r="M11">
-            <v>0</v>
+            <v>8927.0539166668295</v>
           </cell>
           <cell r="N11">
-            <v>0</v>
+            <v>17256.937541666601</v>
           </cell>
           <cell r="O11">
-            <v>0</v>
+            <v>12166.7192500028</v>
           </cell>
           <cell r="P11">
-            <v>0</v>
+            <v>12827.865375000099</v>
           </cell>
           <cell r="Q11">
-            <v>0</v>
+            <v>25708.218499999901</v>
           </cell>
           <cell r="R11">
-            <v>0</v>
+            <v>16595.9295833332</v>
           </cell>
           <cell r="S11">
-            <v>0</v>
+            <v>14327.203666666601</v>
           </cell>
           <cell r="T11">
-            <v>0</v>
+            <v>20531.863458334199</v>
           </cell>
           <cell r="U11">
-            <v>0</v>
+            <v>6735.7432916667303</v>
           </cell>
           <cell r="V11">
-            <v>0</v>
+            <v>13104.470791666001</v>
           </cell>
           <cell r="W11">
-            <v>0</v>
+            <v>8460.3797916664007</v>
           </cell>
           <cell r="X11">
-            <v>0</v>
+            <v>8564.2557083330994</v>
           </cell>
           <cell r="Y11">
-            <v>0</v>
+            <v>4986.8347083333601</v>
           </cell>
           <cell r="Z11">
-            <v>0</v>
+            <v>11146.7843333333</v>
           </cell>
           <cell r="AA11">
-            <v>0</v>
+            <v>12608.1021250009</v>
           </cell>
           <cell r="AB11">
-            <v>0</v>
+            <v>10257.8915000003</v>
           </cell>
           <cell r="AC11">
             <v>0</v>
           </cell>
           <cell r="AD11">
-            <v>0</v>
+            <v>10113.091916666801</v>
           </cell>
           <cell r="AE11">
-            <v>0</v>
+            <v>11019.671333333299</v>
           </cell>
           <cell r="AF11">
-            <v>0</v>
+            <v>5058.6659166668496</v>
           </cell>
           <cell r="AG11">
-            <v>0</v>
+            <v>9759.3481666666303</v>
           </cell>
           <cell r="AH11">
-            <v>0</v>
+            <v>1319.35916666669</v>
           </cell>
           <cell r="AI11">
-            <v>0</v>
+            <v>6208.3639999998804</v>
           </cell>
           <cell r="AJ11">
-            <v>0</v>
+            <v>3888.1359999999399</v>
           </cell>
           <cell r="AK11">
-            <v>0</v>
+            <v>6216.9634166667201</v>
           </cell>
           <cell r="AL11">
-            <v>0</v>
+            <v>8941.8284583331497</v>
           </cell>
           <cell r="AM11">
-            <v>0</v>
+            <v>3573.7411666661501</v>
           </cell>
           <cell r="AN11">
-            <v>0</v>
+            <v>4449.5796250001004</v>
           </cell>
           <cell r="AO11">
-            <v>0</v>
+            <v>6636.5594999997402</v>
           </cell>
           <cell r="AP11">
-            <v>0</v>
+            <v>6862.2510833332699</v>
           </cell>
           <cell r="AQ11">
-            <v>0</v>
+            <v>6555.9071666666396</v>
           </cell>
           <cell r="AR11">
-            <v>0</v>
+            <v>1140.67258333321</v>
           </cell>
           <cell r="AS11">
-            <v>0</v>
+            <v>7752.5921666671002</v>
           </cell>
           <cell r="AT11">
-            <v>0</v>
+            <v>7312.1516666667303</v>
           </cell>
           <cell r="AU11">
-            <v>0</v>
+            <v>6635.4685416657003</v>
           </cell>
           <cell r="AV11">
-            <v>0</v>
+            <v>3678.3782499999502</v>
           </cell>
           <cell r="AW11">
-            <v>0</v>
+            <v>4551.8728333335603</v>
           </cell>
           <cell r="AX11">
-            <v>0</v>
+            <v>7755.7297500001096</v>
           </cell>
           <cell r="AY11">
-            <v>0</v>
+            <v>4805.15625000005</v>
           </cell>
           <cell r="AZ11">
-            <v>0</v>
+            <v>4198.2814166666003</v>
           </cell>
           <cell r="BA11">
-            <v>0</v>
+            <v>4051.82758333333</v>
           </cell>
           <cell r="BB11">
-            <v>0</v>
+            <v>3246.1810416666499</v>
           </cell>
           <cell r="BC11">
-            <v>0</v>
+            <v>5481.4508333331896</v>
           </cell>
           <cell r="BD11">
-            <v>0</v>
+            <v>1491.6365000000201</v>
           </cell>
           <cell r="BE11">
-            <v>0</v>
+            <v>3995.0419999999499</v>
           </cell>
           <cell r="BF11">
-            <v>0</v>
+            <v>4074.1119999999601</v>
           </cell>
           <cell r="BG11">
             <v>0</v>
           </cell>
           <cell r="BH11">
-            <v>0</v>
+            <v>3691.6816666662899</v>
           </cell>
           <cell r="BI11">
-            <v>0</v>
+            <v>939.12900000001503</v>
           </cell>
           <cell r="BJ11">
-            <v>0</v>
+            <v>5169.8490833333299</v>
           </cell>
           <cell r="BK11">
-            <v>0</v>
+            <v>648.38916666668899</v>
           </cell>
           <cell r="BL11">
-            <v>0</v>
+            <v>949.47083333326702</v>
           </cell>
           <cell r="BM11">
             <v>0</v>
           </cell>
           <cell r="BN11">
-            <v>0</v>
+            <v>3497.39974999998</v>
           </cell>
           <cell r="BO11">
-            <v>0</v>
+            <v>4726.5109999999904</v>
           </cell>
           <cell r="BP11">
-            <v>0</v>
+            <v>4015.1719166666699</v>
           </cell>
           <cell r="BQ11">
-            <v>0</v>
+            <v>509.07541666674598</v>
           </cell>
           <cell r="BR11">
-            <v>0</v>
+            <v>3417.54449999998</v>
           </cell>
           <cell r="BS11">
-            <v>0</v>
+            <v>2551.6657916665999</v>
           </cell>
           <cell r="BT11">
-            <v>0</v>
+            <v>289.39300000000998</v>
           </cell>
           <cell r="BU11">
-            <v>0</v>
+            <v>493.73474999997399</v>
           </cell>
           <cell r="BV11">
-            <v>0</v>
+            <v>113.123333333351</v>
           </cell>
           <cell r="BW11">
-            <v>0</v>
+            <v>358.19641666667297</v>
           </cell>
           <cell r="BX11">
-            <v>0</v>
+            <v>212.28758333344001</v>
           </cell>
           <cell r="BY11">
-            <v>0</v>
+            <v>627.29795833345202</v>
           </cell>
           <cell r="BZ11">
-            <v>0</v>
+            <v>1827.8330833334401</v>
           </cell>
           <cell r="CA11">
             <v>0</v>
           </cell>
           <cell r="CB11">
-            <v>0</v>
+            <v>331.943208333337</v>
           </cell>
           <cell r="CC11">
-            <v>0</v>
+            <v>125.720499999995</v>
           </cell>
           <cell r="CD11">
-            <v>0</v>
+            <v>483.91800000006299</v>
           </cell>
           <cell r="CE11">
             <v>0</v>
           </cell>
           <cell r="CF11">
-            <v>0</v>
+            <v>74.519583333341799</v>
           </cell>
           <cell r="CG11">
-            <v>0</v>
+            <v>93.321291666710707</v>
           </cell>
           <cell r="CH11">
-            <v>0</v>
+            <v>9.3099166667088795</v>
           </cell>
           <cell r="CI11">
-            <v>0</v>
+            <v>1702.5249166666699</v>
           </cell>
           <cell r="CJ11">
             <v>0</v>
           </cell>
           <cell r="CK11">
-            <v>0</v>
+            <v>154.81349999998901</v>
           </cell>
           <cell r="CL11">
-            <v>0</v>
+            <v>44.025916666665502</v>
           </cell>
           <cell r="CM11">
-            <v>0</v>
+            <v>405.12808333325597</v>
           </cell>
           <cell r="CN11">
-            <v>0</v>
+            <v>21.5253333333239</v>
           </cell>
           <cell r="CO11">
             <v>0</v>
@@ -3469,10 +3218,10 @@
             <v>0</v>
           </cell>
           <cell r="CQ11">
-            <v>0</v>
+            <v>89.185000000026704</v>
           </cell>
           <cell r="CR11">
-            <v>0</v>
+            <v>4.0491666666639503</v>
           </cell>
           <cell r="CS11">
             <v>0</v>
@@ -3487,291 +3236,297 @@
             <v>0</v>
           </cell>
           <cell r="CW11">
+            <v>0</v>
+          </cell>
+          <cell r="CX11">
+            <v>0</v>
+          </cell>
+          <cell r="CY11">
             <v>0</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44275</v>
+            <v>44278</v>
           </cell>
           <cell r="B12">
-            <v>0</v>
+            <v>52435.6742500006</v>
           </cell>
           <cell r="C12">
-            <v>0</v>
+            <v>38836.915416670498</v>
           </cell>
           <cell r="D12">
-            <v>0</v>
+            <v>33073.459583338299</v>
           </cell>
           <cell r="E12">
-            <v>0</v>
+            <v>42430.198291663997</v>
           </cell>
           <cell r="F12">
-            <v>0</v>
+            <v>20120.150833333799</v>
           </cell>
           <cell r="G12">
-            <v>0</v>
+            <v>21681.841333333399</v>
           </cell>
           <cell r="H12">
-            <v>0</v>
+            <v>34556.683374998604</v>
           </cell>
           <cell r="I12">
-            <v>0</v>
+            <v>27294.738499999599</v>
           </cell>
           <cell r="J12">
-            <v>0</v>
+            <v>20648.126916664602</v>
           </cell>
           <cell r="K12">
-            <v>0</v>
+            <v>19956.420166664699</v>
           </cell>
           <cell r="L12">
-            <v>0</v>
+            <v>18045.438249999599</v>
           </cell>
           <cell r="M12">
-            <v>0</v>
+            <v>23480.030333332699</v>
           </cell>
           <cell r="N12">
-            <v>0</v>
+            <v>15624.7134166663</v>
           </cell>
           <cell r="O12">
-            <v>0</v>
+            <v>12496.2153750001</v>
           </cell>
           <cell r="P12">
-            <v>0</v>
+            <v>13412.6210416662</v>
           </cell>
           <cell r="Q12">
-            <v>0</v>
+            <v>12854.0627083332</v>
           </cell>
           <cell r="R12">
-            <v>0</v>
+            <v>16362.339666665501</v>
           </cell>
           <cell r="S12">
-            <v>0</v>
+            <v>2897.0603333334998</v>
           </cell>
           <cell r="T12">
-            <v>0</v>
+            <v>13461.936749999601</v>
           </cell>
           <cell r="U12">
-            <v>0</v>
+            <v>18607.2152083334</v>
           </cell>
           <cell r="V12">
-            <v>0</v>
+            <v>7282.7255000000496</v>
           </cell>
           <cell r="W12">
-            <v>0</v>
+            <v>11166.279708333101</v>
           </cell>
           <cell r="X12">
-            <v>0</v>
+            <v>4789.3615833331696</v>
           </cell>
           <cell r="Y12">
-            <v>0</v>
+            <v>15952.660250000001</v>
           </cell>
           <cell r="Z12">
-            <v>0</v>
+            <v>9438.1645000003009</v>
           </cell>
           <cell r="AA12">
-            <v>0</v>
+            <v>7940.67920833267</v>
           </cell>
           <cell r="AB12">
-            <v>0</v>
+            <v>12763.180749999899</v>
           </cell>
           <cell r="AC12">
-            <v>0</v>
+            <v>3011.6570000000902</v>
           </cell>
           <cell r="AD12">
-            <v>0</v>
+            <v>10999.936583332999</v>
           </cell>
           <cell r="AE12">
-            <v>0</v>
+            <v>5318.0796666665701</v>
           </cell>
           <cell r="AF12">
-            <v>0</v>
+            <v>1658.4568333334701</v>
           </cell>
           <cell r="AG12">
-            <v>0</v>
+            <v>9737.4286249999695</v>
           </cell>
           <cell r="AH12">
-            <v>0</v>
+            <v>8858.8092499998093</v>
           </cell>
           <cell r="AI12">
-            <v>0</v>
+            <v>9533.4440416664493</v>
           </cell>
           <cell r="AJ12">
-            <v>0</v>
+            <v>5498.9145000001799</v>
           </cell>
           <cell r="AK12">
-            <v>0</v>
+            <v>10613.790833333</v>
           </cell>
           <cell r="AL12">
-            <v>0</v>
+            <v>7155.9063333338099</v>
           </cell>
           <cell r="AM12">
-            <v>0</v>
+            <v>2938.60699999996</v>
           </cell>
           <cell r="AN12">
-            <v>0</v>
+            <v>5289.70895833332</v>
           </cell>
           <cell r="AO12">
-            <v>0</v>
+            <v>8011.0396249998503</v>
           </cell>
           <cell r="AP12">
-            <v>0</v>
+            <v>3582.2010000003502</v>
           </cell>
           <cell r="AQ12">
-            <v>0</v>
+            <v>2608.2453333332301</v>
           </cell>
           <cell r="AR12">
-            <v>0</v>
+            <v>6461.6434166664803</v>
           </cell>
           <cell r="AS12">
-            <v>0</v>
+            <v>2262.9457499998298</v>
           </cell>
           <cell r="AT12">
-            <v>0</v>
+            <v>6887.1590833335604</v>
           </cell>
           <cell r="AU12">
-            <v>0</v>
+            <v>4096.9865833325302</v>
           </cell>
           <cell r="AV12">
-            <v>0</v>
+            <v>2755.2175833332799</v>
           </cell>
           <cell r="AW12">
-            <v>0</v>
+            <v>1897.2479999999</v>
           </cell>
           <cell r="AX12">
-            <v>0</v>
+            <v>3744.2073333333801</v>
           </cell>
           <cell r="AY12">
-            <v>0</v>
+            <v>3472.0464166667002</v>
           </cell>
           <cell r="AZ12">
-            <v>0</v>
+            <v>2179.4037499999099</v>
           </cell>
           <cell r="BA12">
-            <v>0</v>
+            <v>864.37804166664102</v>
           </cell>
           <cell r="BB12">
-            <v>0</v>
+            <v>2378.3941249999598</v>
           </cell>
           <cell r="BC12">
-            <v>0</v>
+            <v>7391.6622499999303</v>
           </cell>
           <cell r="BD12">
-            <v>0</v>
+            <v>3693.6235833337901</v>
           </cell>
           <cell r="BE12">
-            <v>0</v>
+            <v>1501.4400000000601</v>
           </cell>
           <cell r="BF12">
-            <v>0</v>
+            <v>2190.3163749999899</v>
           </cell>
           <cell r="BG12">
-            <v>0</v>
+            <v>8404.6693333333496</v>
           </cell>
           <cell r="BH12">
-            <v>0</v>
+            <v>3436.90058333356</v>
           </cell>
           <cell r="BI12">
-            <v>0</v>
+            <v>1398.7617500000599</v>
           </cell>
           <cell r="BJ12">
-            <v>0</v>
+            <v>3901.97616666677</v>
           </cell>
           <cell r="BK12">
-            <v>0</v>
+            <v>1831.5245833334</v>
           </cell>
           <cell r="BL12">
-            <v>0</v>
+            <v>2556.8192083333802</v>
           </cell>
           <cell r="BM12">
-            <v>0</v>
+            <v>5061.4819166666402</v>
           </cell>
           <cell r="BN12">
-            <v>0</v>
+            <v>998.83483333326797</v>
           </cell>
           <cell r="BO12">
-            <v>0</v>
+            <v>2136.02529166667</v>
           </cell>
           <cell r="BP12">
-            <v>0</v>
+            <v>273.069500000012</v>
           </cell>
           <cell r="BQ12">
-            <v>0</v>
+            <v>528.27891666674896</v>
           </cell>
           <cell r="BR12">
-            <v>0</v>
+            <v>1569.65275</v>
           </cell>
           <cell r="BS12">
-            <v>0</v>
+            <v>1120.6861666667301</v>
           </cell>
           <cell r="BT12">
-            <v>0</v>
+            <v>1237.2134166666599</v>
           </cell>
           <cell r="BU12">
-            <v>0</v>
+            <v>117.560166666662</v>
           </cell>
           <cell r="BV12">
-            <v>0</v>
+            <v>1058.0791666667201</v>
           </cell>
           <cell r="BW12">
-            <v>0</v>
+            <v>862.19533333339496</v>
           </cell>
           <cell r="BX12">
-            <v>0</v>
+            <v>306.12749999994401</v>
           </cell>
           <cell r="BY12">
-            <v>0</v>
+            <v>1285.8130000000201</v>
           </cell>
           <cell r="BZ12">
-            <v>0</v>
+            <v>62.013666666694903</v>
           </cell>
           <cell r="CA12">
-            <v>0</v>
+            <v>1284.5693333333099</v>
           </cell>
           <cell r="CB12">
-            <v>0</v>
+            <v>769.24733333324502</v>
           </cell>
           <cell r="CC12">
-            <v>0</v>
+            <v>649.17649999994296</v>
           </cell>
           <cell r="CD12">
-            <v>0</v>
+            <v>228.25737500004399</v>
           </cell>
           <cell r="CE12">
             <v>0</v>
           </cell>
           <cell r="CF12">
-            <v>0</v>
+            <v>39.879666666733101</v>
           </cell>
           <cell r="CG12">
-            <v>0</v>
+            <v>1029.8232500000099</v>
           </cell>
           <cell r="CH12">
-            <v>0</v>
+            <v>198.22900000005001</v>
           </cell>
           <cell r="CI12">
             <v>0</v>
           </cell>
           <cell r="CJ12">
-            <v>0</v>
+            <v>901.72241666662705</v>
           </cell>
           <cell r="CK12">
-            <v>0</v>
+            <v>588.90849999999</v>
           </cell>
           <cell r="CL12">
             <v>0</v>
           </cell>
           <cell r="CM12">
-            <v>0</v>
+            <v>324.10166666645</v>
           </cell>
           <cell r="CN12">
-            <v>0</v>
+            <v>428.34991666665798</v>
           </cell>
           <cell r="CO12">
             <v>0</v>
           </cell>
           <cell r="CP12">
-            <v>0</v>
+            <v>64.387333333317599</v>
           </cell>
           <cell r="CQ12">
             <v>0</v>
@@ -3792,294 +3547,300 @@
             <v>0</v>
           </cell>
           <cell r="CW12">
+            <v>0</v>
+          </cell>
+          <cell r="CX12">
+            <v>0</v>
+          </cell>
+          <cell r="CY12">
             <v>0</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>44276</v>
+            <v>44279</v>
           </cell>
           <cell r="B13">
-            <v>37873.394708333602</v>
+            <v>49128.752749999898</v>
           </cell>
           <cell r="C13">
-            <v>18157.3198333336</v>
+            <v>46073.438000002403</v>
           </cell>
           <cell r="D13">
-            <v>26706.375625000299</v>
+            <v>52094.616666668997</v>
           </cell>
           <cell r="E13">
-            <v>12881.061833334101</v>
+            <v>30661.939333332401</v>
           </cell>
           <cell r="F13">
-            <v>21564.589833337301</v>
+            <v>24382.3619166715</v>
           </cell>
           <cell r="G13">
-            <v>12056.919583332899</v>
+            <v>24450.925333333402</v>
           </cell>
           <cell r="H13">
-            <v>14766.6431666682</v>
+            <v>25395.489291665101</v>
           </cell>
           <cell r="I13">
-            <v>22905.839000000298</v>
+            <v>19730.108791665101</v>
           </cell>
           <cell r="J13">
-            <v>14681.413500001599</v>
+            <v>26382.914208332499</v>
           </cell>
           <cell r="K13">
-            <v>20104.056041666699</v>
+            <v>17404.237041669399</v>
           </cell>
           <cell r="L13">
-            <v>12499.2520833339</v>
+            <v>26842.216958335099</v>
           </cell>
           <cell r="M13">
-            <v>11316.177583332101</v>
+            <v>21614.143583333898</v>
           </cell>
           <cell r="N13">
-            <v>1168.46741666668</v>
+            <v>18105.4058333336</v>
           </cell>
           <cell r="O13">
-            <v>9281.9406250007396</v>
+            <v>11107.072000001001</v>
           </cell>
           <cell r="P13">
-            <v>5061.6539166666298</v>
+            <v>8769.3902083344292</v>
           </cell>
           <cell r="Q13">
-            <v>5141.0767500000002</v>
+            <v>10133.1889999998</v>
           </cell>
           <cell r="R13">
-            <v>6385.1477500002302</v>
+            <v>9529.4481249996406</v>
           </cell>
           <cell r="S13">
-            <v>6681.7464999999502</v>
+            <v>12585.634249999999</v>
           </cell>
           <cell r="T13">
-            <v>7527.9286666663802</v>
+            <v>14007.857416667701</v>
           </cell>
           <cell r="U13">
-            <v>5574.3505833331701</v>
+            <v>18237.674958333799</v>
           </cell>
           <cell r="V13">
-            <v>7165.9712500001697</v>
+            <v>8974.8214166670805</v>
           </cell>
           <cell r="W13">
-            <v>4554.0888333334497</v>
+            <v>12772.4430416666</v>
           </cell>
           <cell r="X13">
-            <v>2024.9287499997299</v>
+            <v>10907.8750833334</v>
           </cell>
           <cell r="Y13">
-            <v>8876.5737083333606</v>
+            <v>8628.5717916666708</v>
           </cell>
           <cell r="Z13">
-            <v>12920.4055833333</v>
+            <v>14657.6105416666</v>
           </cell>
           <cell r="AA13">
-            <v>8656.3850000001803</v>
+            <v>10945.330958333499</v>
           </cell>
           <cell r="AB13">
-            <v>5056.9416666666502</v>
+            <v>8241.7305416668496</v>
           </cell>
           <cell r="AC13">
-            <v>3384.4261666666398</v>
+            <v>19009.656666666699</v>
           </cell>
           <cell r="AD13">
-            <v>8245.4192083333892</v>
+            <v>11173.940249999499</v>
           </cell>
           <cell r="AE13">
-            <v>7275.9641250003997</v>
+            <v>7210.25766666661</v>
           </cell>
           <cell r="AF13">
-            <v>8960.9775000002701</v>
+            <v>12432.3432500006</v>
           </cell>
           <cell r="AG13">
-            <v>4745.9350000001104</v>
+            <v>7782.1519166665603</v>
           </cell>
           <cell r="AH13">
-            <v>8935.3363749993696</v>
+            <v>8165.1262500001403</v>
           </cell>
           <cell r="AI13">
-            <v>8707.0500000000393</v>
+            <v>8720.89141666662</v>
           </cell>
           <cell r="AJ13">
-            <v>1817.4911666666401</v>
+            <v>4663.7434166676803</v>
           </cell>
           <cell r="AK13">
-            <v>1554.41133333329</v>
+            <v>5060.6526250008001</v>
           </cell>
           <cell r="AL13">
-            <v>3560.7674999999499</v>
+            <v>6909.35379166645</v>
           </cell>
           <cell r="AM13">
-            <v>1513.9888333333599</v>
+            <v>7151.3774166667099</v>
           </cell>
           <cell r="AN13">
-            <v>6108.6891666664696</v>
+            <v>8312.6518749999796</v>
           </cell>
           <cell r="AO13">
-            <v>691.353000000002</v>
+            <v>4591.0552083336497</v>
           </cell>
           <cell r="AP13">
-            <v>1162.3101666667401</v>
+            <v>4989.0248749991797</v>
           </cell>
           <cell r="AQ13">
-            <v>2350.78379166778</v>
+            <v>1533.72716666667</v>
           </cell>
           <cell r="AR13">
-            <v>1951.6608333332599</v>
+            <v>5816.4003333331202</v>
           </cell>
           <cell r="AS13">
-            <v>4873.6473333332897</v>
+            <v>583.86908333306201</v>
           </cell>
           <cell r="AT13">
-            <v>3923.0678333332698</v>
+            <v>4321.5717500000001</v>
           </cell>
           <cell r="AU13">
-            <v>0</v>
+            <v>4343.1379999993296</v>
           </cell>
           <cell r="AV13">
-            <v>0</v>
+            <v>3954.3967916667398</v>
           </cell>
           <cell r="AW13">
-            <v>444.07641666667701</v>
+            <v>2760.3644999999001</v>
           </cell>
           <cell r="AX13">
-            <v>201.12741666659699</v>
+            <v>5148.8048750000298</v>
           </cell>
           <cell r="AY13">
-            <v>2330.7169999999701</v>
+            <v>3033.1433750003298</v>
           </cell>
           <cell r="AZ13">
-            <v>861.05187500000397</v>
+            <v>2458.5165000000202</v>
           </cell>
           <cell r="BA13">
-            <v>653.94983333325899</v>
+            <v>2535.4964999999702</v>
           </cell>
           <cell r="BB13">
-            <v>2404.4963333332498</v>
+            <v>2747.82070833334</v>
           </cell>
           <cell r="BC13">
-            <v>1405.0066666667699</v>
+            <v>2581.9412500000299</v>
           </cell>
           <cell r="BD13">
-            <v>889.39700000011305</v>
+            <v>3760.97849999961</v>
           </cell>
           <cell r="BE13">
-            <v>1060.43783333327</v>
+            <v>3428.7665416668101</v>
           </cell>
           <cell r="BF13">
-            <v>1077.1712499999801</v>
+            <v>4555.1287916667297</v>
           </cell>
           <cell r="BG13">
-            <v>49.055499999987603</v>
+            <v>3926.7346666667099</v>
           </cell>
           <cell r="BH13">
-            <v>589.39325000002202</v>
+            <v>6485.8921250000103</v>
           </cell>
           <cell r="BI13">
-            <v>302.49316666665197</v>
+            <v>1981.4917500000399</v>
           </cell>
           <cell r="BJ13">
-            <v>2576.4274166666401</v>
+            <v>2387.5818333331199</v>
           </cell>
           <cell r="BK13">
-            <v>0</v>
+            <v>1434.1434999999999</v>
           </cell>
           <cell r="BL13">
-            <v>0</v>
+            <v>2096.0346666662899</v>
           </cell>
           <cell r="BM13">
-            <v>1923.6121250000399</v>
+            <v>3960.0579166667299</v>
           </cell>
           <cell r="BN13">
-            <v>0</v>
+            <v>1791.7295416666</v>
           </cell>
           <cell r="BO13">
-            <v>1589.73124999995</v>
+            <v>798.42916666663905</v>
           </cell>
           <cell r="BP13">
-            <v>1990.8704166667301</v>
+            <v>3523.9989166667201</v>
           </cell>
           <cell r="BQ13">
-            <v>367.53775000001701</v>
+            <v>3019.7489999998902</v>
           </cell>
           <cell r="BR13">
-            <v>2098.4344166667101</v>
+            <v>2827.1931666666301</v>
           </cell>
           <cell r="BS13">
-            <v>0</v>
+            <v>738.611458333325</v>
           </cell>
           <cell r="BT13">
-            <v>0</v>
+            <v>2030.5398333333101</v>
           </cell>
           <cell r="BU13">
-            <v>1027.9227083334099</v>
+            <v>70.287583333323695</v>
           </cell>
           <cell r="BV13">
-            <v>863.79699999996205</v>
+            <v>1643.12691666674</v>
           </cell>
           <cell r="BW13">
-            <v>986.88091666664695</v>
+            <v>1920.96816666668</v>
           </cell>
           <cell r="BX13">
-            <v>0</v>
+            <v>908.84050000004902</v>
           </cell>
           <cell r="BY13">
-            <v>0</v>
+            <v>730.68600000004506</v>
           </cell>
           <cell r="BZ13">
-            <v>379.81091666669801</v>
+            <v>2457.3813333333201</v>
           </cell>
           <cell r="CA13">
-            <v>104.01650000002699</v>
+            <v>2937.9421666666699</v>
           </cell>
           <cell r="CB13">
-            <v>228.68616666668001</v>
+            <v>921.34354166686501</v>
           </cell>
           <cell r="CC13">
             <v>0</v>
           </cell>
           <cell r="CD13">
-            <v>121.270666666678</v>
+            <v>768.64825000002702</v>
           </cell>
           <cell r="CE13">
             <v>0</v>
           </cell>
           <cell r="CF13">
-            <v>0</v>
+            <v>1054.3756666666</v>
           </cell>
           <cell r="CG13">
-            <v>0</v>
+            <v>908.04041666653904</v>
           </cell>
           <cell r="CH13">
-            <v>148.27558333333499</v>
+            <v>380.64816666662199</v>
           </cell>
           <cell r="CI13">
-            <v>12.674750000005499</v>
+            <v>68.980166666733496</v>
           </cell>
           <cell r="CJ13">
-            <v>21.8462500000023</v>
+            <v>683.19833333336203</v>
           </cell>
           <cell r="CK13">
-            <v>0</v>
+            <v>1341.45933333327</v>
           </cell>
           <cell r="CL13">
             <v>0</v>
           </cell>
           <cell r="CM13">
-            <v>5.7264999999897501</v>
+            <v>497.14150000002701</v>
           </cell>
           <cell r="CN13">
             <v>0</v>
           </cell>
           <cell r="CO13">
-            <v>0</v>
+            <v>493.36058333332699</v>
           </cell>
           <cell r="CP13">
             <v>0</v>
           </cell>
           <cell r="CQ13">
-            <v>0</v>
+            <v>39.975333333335499</v>
           </cell>
           <cell r="CR13">
             <v>0</v>
@@ -4097,288 +3858,294 @@
             <v>0</v>
           </cell>
           <cell r="CW13">
+            <v>0</v>
+          </cell>
+          <cell r="CX13">
+            <v>0</v>
+          </cell>
+          <cell r="CY13">
             <v>0</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>44277</v>
+            <v>44280</v>
           </cell>
           <cell r="B14">
-            <v>61085.008833330998</v>
+            <v>49099.168458329899</v>
           </cell>
           <cell r="C14">
-            <v>43285.042416663797</v>
+            <v>48035.785583335397</v>
           </cell>
           <cell r="D14">
-            <v>24379.713583330598</v>
+            <v>26850.901333330199</v>
           </cell>
           <cell r="E14">
-            <v>32810.372625001</v>
+            <v>29110.5154166664</v>
           </cell>
           <cell r="F14">
-            <v>29056.325083334901</v>
+            <v>32879.897375001099</v>
           </cell>
           <cell r="G14">
-            <v>36267.998916667602</v>
+            <v>35589.752749999898</v>
           </cell>
           <cell r="H14">
-            <v>30235.770875002199</v>
+            <v>30384.824666668101</v>
           </cell>
           <cell r="I14">
-            <v>20316.293458334101</v>
+            <v>29318.8057083331</v>
           </cell>
           <cell r="J14">
-            <v>28963.6409166669</v>
+            <v>21838.098458336201</v>
           </cell>
           <cell r="K14">
-            <v>25227.122250000401</v>
+            <v>23487.958333337199</v>
           </cell>
           <cell r="L14">
-            <v>17256.937541666601</v>
+            <v>22048.197666666401</v>
           </cell>
           <cell r="M14">
-            <v>20531.863458334199</v>
+            <v>17458.407291666401</v>
           </cell>
           <cell r="N14">
-            <v>25708.218499999901</v>
+            <v>9848.7068333339394</v>
           </cell>
           <cell r="O14">
-            <v>12166.7192500028</v>
+            <v>22317.610000001201</v>
           </cell>
           <cell r="P14">
-            <v>12827.865375000099</v>
+            <v>19605.998624999502</v>
           </cell>
           <cell r="Q14">
-            <v>19251.677583334</v>
+            <v>18094.7755</v>
           </cell>
           <cell r="R14">
-            <v>16595.9295833332</v>
+            <v>19628.533416666502</v>
           </cell>
           <cell r="S14">
-            <v>14327.203666666601</v>
+            <v>12031.1159166665</v>
           </cell>
           <cell r="T14">
-            <v>11146.7843333333</v>
+            <v>11559.919833333401</v>
           </cell>
           <cell r="U14">
-            <v>10257.8915000003</v>
+            <v>19111.469791666601</v>
           </cell>
           <cell r="V14">
-            <v>6216.9634166667201</v>
+            <v>10007.659083333399</v>
           </cell>
           <cell r="W14">
-            <v>12608.1021250009</v>
+            <v>13294.5007916666</v>
           </cell>
           <cell r="X14">
-            <v>13104.470791666001</v>
+            <v>11459.295625000001</v>
           </cell>
           <cell r="Y14">
-            <v>8564.2557083330994</v>
+            <v>6780.7051666667103</v>
           </cell>
           <cell r="Z14">
-            <v>3573.7411666661501</v>
+            <v>10266.039416666399</v>
           </cell>
           <cell r="AA14">
-            <v>4986.8347083333601</v>
+            <v>11256.084208333599</v>
           </cell>
           <cell r="AB14">
-            <v>10113.091916666801</v>
+            <v>4883.2377500005496</v>
           </cell>
           <cell r="AC14">
-            <v>11019.671333333299</v>
+            <v>17290.817000000101</v>
           </cell>
           <cell r="AD14">
-            <v>6555.9071666666396</v>
+            <v>8628.5842499999508</v>
           </cell>
           <cell r="AE14">
-            <v>6735.7432916667303</v>
+            <v>8157.19333333335</v>
           </cell>
           <cell r="AF14">
-            <v>5058.6659166668496</v>
+            <v>7148.20133333373</v>
           </cell>
           <cell r="AG14">
-            <v>8460.3797916664007</v>
+            <v>9478.6436666666705</v>
           </cell>
           <cell r="AH14">
-            <v>4551.8728333335603</v>
+            <v>7192.4098750000703</v>
           </cell>
           <cell r="AI14">
-            <v>3888.1359999999399</v>
+            <v>8363.4582499998996</v>
           </cell>
           <cell r="AJ14">
-            <v>9759.3481666666303</v>
+            <v>5368.8046666649097</v>
           </cell>
           <cell r="AK14">
-            <v>6208.3639999998804</v>
+            <v>6614.1592916662303</v>
           </cell>
           <cell r="AL14">
-            <v>7752.5921666671002</v>
+            <v>6434.01616666675</v>
           </cell>
           <cell r="AM14">
-            <v>8927.0539166668295</v>
+            <v>4261.2033333336003</v>
           </cell>
           <cell r="AN14">
-            <v>4805.15625000005</v>
+            <v>10053.108458333299</v>
           </cell>
           <cell r="AO14">
-            <v>8941.8284583331497</v>
+            <v>7311.1951250003103</v>
           </cell>
           <cell r="AP14">
-            <v>6636.5594999997402</v>
+            <v>7976.3085833340801</v>
           </cell>
           <cell r="AQ14">
-            <v>6862.2510833332699</v>
+            <v>2681.4474166666901</v>
           </cell>
           <cell r="AR14">
-            <v>7312.1516666667303</v>
+            <v>6718.02116666658</v>
           </cell>
           <cell r="AS14">
-            <v>3678.3782499999502</v>
+            <v>4078.9825000000401</v>
           </cell>
           <cell r="AT14">
-            <v>4198.2814166666003</v>
+            <v>2550.1818749998902</v>
           </cell>
           <cell r="AU14">
-            <v>7755.7297500001096</v>
+            <v>6593.0125833337597</v>
           </cell>
           <cell r="AV14">
-            <v>0</v>
+            <v>987.24791666661599</v>
           </cell>
           <cell r="AW14">
-            <v>4449.5796250001004</v>
+            <v>3618.0218333333</v>
           </cell>
           <cell r="AX14">
-            <v>6635.4685416657003</v>
+            <v>3656.3583333333299</v>
           </cell>
           <cell r="AY14">
-            <v>4051.82758333333</v>
+            <v>3069.4685833332401</v>
           </cell>
           <cell r="AZ14">
-            <v>5169.8490833333299</v>
+            <v>647.13275000001795</v>
           </cell>
           <cell r="BA14">
-            <v>5481.4508333331896</v>
+            <v>5933.9284583331901</v>
           </cell>
           <cell r="BB14">
-            <v>3497.39974999998</v>
+            <v>4813.34454166662</v>
           </cell>
           <cell r="BC14">
-            <v>3995.0419999999499</v>
+            <v>1981.87037499999</v>
           </cell>
           <cell r="BD14">
-            <v>1319.35916666669</v>
+            <v>5077.4462916667098</v>
           </cell>
           <cell r="BE14">
-            <v>3691.6816666662899</v>
+            <v>2669.6581250000099</v>
           </cell>
           <cell r="BF14">
-            <v>3246.1810416666499</v>
+            <v>5068.3644583334599</v>
           </cell>
           <cell r="BG14">
-            <v>4726.5109999999904</v>
+            <v>1794.7284999999899</v>
           </cell>
           <cell r="BH14">
-            <v>4074.1119999999601</v>
+            <v>1144.5299999997901</v>
           </cell>
           <cell r="BI14">
-            <v>4015.1719166666699</v>
+            <v>2422.54316666658</v>
           </cell>
           <cell r="BJ14">
-            <v>1140.67258333321</v>
+            <v>420.48041666665802</v>
           </cell>
           <cell r="BK14">
-            <v>3417.54449999998</v>
+            <v>5060.6640833332403</v>
           </cell>
           <cell r="BL14">
-            <v>1491.6365000000201</v>
+            <v>3102.9920833333699</v>
           </cell>
           <cell r="BM14">
-            <v>949.47083333326702</v>
+            <v>2832.89433333324</v>
           </cell>
           <cell r="BN14">
-            <v>2551.6657916665999</v>
+            <v>747.28179166660902</v>
           </cell>
           <cell r="BO14">
-            <v>939.12900000001503</v>
+            <v>1334.8908750000101</v>
           </cell>
           <cell r="BP14">
-            <v>493.73474999997399</v>
+            <v>368.50066666668801</v>
           </cell>
           <cell r="BQ14">
-            <v>1827.8330833334401</v>
+            <v>903.22841666667898</v>
           </cell>
           <cell r="BR14">
-            <v>44.025916666665502</v>
+            <v>283.04591666668398</v>
           </cell>
           <cell r="BS14">
-            <v>0</v>
+            <v>2104.5344583332699</v>
           </cell>
           <cell r="BT14">
-            <v>1702.5249166666699</v>
+            <v>3271.0063749999899</v>
           </cell>
           <cell r="BU14">
-            <v>509.07541666674598</v>
+            <v>2806.97166666662</v>
           </cell>
           <cell r="BV14">
-            <v>21.5253333333239</v>
+            <v>2367.5816666665401</v>
           </cell>
           <cell r="BW14">
-            <v>0</v>
+            <v>2259.8890833333699</v>
           </cell>
           <cell r="BX14">
-            <v>331.943208333337</v>
+            <v>1610.6316666668199</v>
           </cell>
           <cell r="BY14">
-            <v>648.38916666668899</v>
+            <v>1122.8677916667</v>
           </cell>
           <cell r="BZ14">
-            <v>483.91800000006299</v>
+            <v>0</v>
           </cell>
           <cell r="CA14">
-            <v>627.29795833345202</v>
+            <v>714.99358333332896</v>
           </cell>
           <cell r="CB14">
-            <v>405.12808333325597</v>
+            <v>1317.3508333332099</v>
           </cell>
           <cell r="CC14">
-            <v>154.81349999998901</v>
+            <v>1560.05925000004</v>
           </cell>
           <cell r="CD14">
-            <v>93.321291666710707</v>
+            <v>718.15333333332001</v>
           </cell>
           <cell r="CE14">
-            <v>358.19641666667297</v>
+            <v>480.633166666666</v>
           </cell>
           <cell r="CF14">
-            <v>289.39300000000998</v>
+            <v>1477.1261666666801</v>
           </cell>
           <cell r="CG14">
-            <v>212.28758333344001</v>
+            <v>820.25791666645</v>
           </cell>
           <cell r="CH14">
-            <v>0</v>
+            <v>2223.59508333343</v>
           </cell>
           <cell r="CI14">
-            <v>125.720499999995</v>
+            <v>263.55316666659201</v>
           </cell>
           <cell r="CJ14">
-            <v>74.519583333341799</v>
+            <v>787.04216666653497</v>
           </cell>
           <cell r="CK14">
-            <v>113.123333333351</v>
+            <v>43.306833333335803</v>
           </cell>
           <cell r="CL14">
-            <v>89.185000000026704</v>
+            <v>0</v>
           </cell>
           <cell r="CM14">
-            <v>9.3099166667088795</v>
+            <v>6.2046666666865304</v>
           </cell>
           <cell r="CN14">
-            <v>4.0491666666639503</v>
+            <v>0</v>
           </cell>
           <cell r="CO14">
-            <v>0</v>
+            <v>312.28508333334997</v>
           </cell>
           <cell r="CP14">
             <v>0</v>
@@ -4402,183 +4169,189 @@
             <v>0</v>
           </cell>
           <cell r="CW14">
+            <v>0</v>
+          </cell>
+          <cell r="CX14">
+            <v>0</v>
+          </cell>
+          <cell r="CY14">
             <v>0</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>44278</v>
+            <v>44281</v>
           </cell>
           <cell r="B15">
-            <v>1161.51141666644</v>
+            <v>45383.742500001099</v>
           </cell>
           <cell r="C15">
-            <v>7043.3914166670202</v>
+            <v>43996.368750000103</v>
           </cell>
           <cell r="D15">
-            <v>7371.7134166667201</v>
+            <v>35456.3450833358</v>
           </cell>
           <cell r="E15">
-            <v>8261.1716666675602</v>
+            <v>25408.195083332899</v>
           </cell>
           <cell r="F15">
-            <v>3325.1587500004098</v>
+            <v>44091.354416674898</v>
           </cell>
           <cell r="G15">
-            <v>3157.56741666677</v>
+            <v>26372.716083333002</v>
           </cell>
           <cell r="H15">
-            <v>5009.7140833321</v>
+            <v>22464.659666665801</v>
           </cell>
           <cell r="I15">
-            <v>3237.0175833335302</v>
+            <v>11525.584500000101</v>
           </cell>
           <cell r="J15">
-            <v>2196.9403333342598</v>
+            <v>23420.317208330998</v>
           </cell>
           <cell r="K15">
-            <v>19.326000000000899</v>
+            <v>8246.8651250009407</v>
           </cell>
           <cell r="L15">
-            <v>4488.6902500000997</v>
+            <v>19761.238666665002</v>
           </cell>
           <cell r="M15">
-            <v>2221.2032083335798</v>
+            <v>20964.8523333335</v>
           </cell>
           <cell r="N15">
-            <v>341.181500000006</v>
+            <v>10346.876916666601</v>
           </cell>
           <cell r="O15">
-            <v>5452.1712083336897</v>
+            <v>10184.969583333899</v>
           </cell>
           <cell r="P15">
-            <v>8004.9580416663002</v>
+            <v>17432.859291667799</v>
           </cell>
           <cell r="Q15">
-            <v>1270.7439999999399</v>
+            <v>15936.1447916668</v>
           </cell>
           <cell r="R15">
-            <v>2221.7067499998898</v>
+            <v>8220.58083333377</v>
           </cell>
           <cell r="S15">
-            <v>0</v>
+            <v>23145.726708333299</v>
           </cell>
           <cell r="T15">
-            <v>1230.92108333332</v>
+            <v>7687.4387916654796</v>
           </cell>
           <cell r="U15">
-            <v>3668.0169999998702</v>
+            <v>7189.2063333333899</v>
           </cell>
           <cell r="V15">
-            <v>5832.7922500003997</v>
+            <v>17157.7697500006</v>
           </cell>
           <cell r="W15">
-            <v>1971.4745833331201</v>
+            <v>8593.4019583333193</v>
           </cell>
           <cell r="X15">
-            <v>3353.4443333334002</v>
+            <v>9775.7090000002609</v>
           </cell>
           <cell r="Y15">
-            <v>757.487916666606</v>
+            <v>12640.5952499998</v>
           </cell>
           <cell r="Z15">
-            <v>483.83191666670598</v>
+            <v>908.98691666661705</v>
           </cell>
           <cell r="AA15">
-            <v>2521.81674999999</v>
+            <v>5106.7866666668497</v>
           </cell>
           <cell r="AB15">
-            <v>420.54833333322301</v>
+            <v>899.87391666672102</v>
           </cell>
           <cell r="AC15">
-            <v>944.58716666663497</v>
+            <v>11388.1155833332</v>
           </cell>
           <cell r="AD15">
-            <v>0</v>
+            <v>1409.6129166665401</v>
           </cell>
           <cell r="AE15">
-            <v>337.12787500000502</v>
+            <v>8735.3269166666705</v>
           </cell>
           <cell r="AF15">
-            <v>0</v>
+            <v>8299.9048333335595</v>
           </cell>
           <cell r="AG15">
-            <v>463.21049999998598</v>
+            <v>5289.0470000000196</v>
           </cell>
           <cell r="AH15">
-            <v>136.73283333331301</v>
+            <v>13165.5974166668</v>
           </cell>
           <cell r="AI15">
-            <v>0</v>
+            <v>7748.5450833333298</v>
           </cell>
           <cell r="AJ15">
-            <v>555.93937500001596</v>
+            <v>7515.7487083333499</v>
           </cell>
           <cell r="AK15">
-            <v>4071.6215833332899</v>
+            <v>2350.76233333256</v>
           </cell>
           <cell r="AL15">
-            <v>520.648250000085</v>
+            <v>4726.5457500003904</v>
           </cell>
           <cell r="AM15">
-            <v>881.05341666657398</v>
+            <v>2975.2155000000398</v>
           </cell>
           <cell r="AN15">
-            <v>0</v>
+            <v>5984.7307083332198</v>
           </cell>
           <cell r="AO15">
-            <v>338.376000000163</v>
+            <v>6377.1047083336098</v>
           </cell>
           <cell r="AP15">
-            <v>2158.0495000000801</v>
+            <v>4611.9868333332697</v>
           </cell>
           <cell r="AQ15">
-            <v>481.86774999997499</v>
+            <v>6104.1135833332901</v>
           </cell>
           <cell r="AR15">
-            <v>0</v>
+            <v>5122.6721666666499</v>
           </cell>
           <cell r="AS15">
-            <v>648.51916666663601</v>
+            <v>6653.3223333340102</v>
           </cell>
           <cell r="AT15">
-            <v>576.91558333326202</v>
+            <v>2649.7884166665599</v>
           </cell>
           <cell r="AU15">
-            <v>889.31033333332698</v>
+            <v>3452.2401666666801</v>
           </cell>
           <cell r="AV15">
-            <v>7599.4369999999999</v>
+            <v>5250.4099999999698</v>
           </cell>
           <cell r="AW15">
-            <v>2459.9095000000002</v>
+            <v>1229.6330000001401</v>
           </cell>
           <cell r="AX15">
-            <v>30.9081666665151</v>
+            <v>2472.7569999999801</v>
           </cell>
           <cell r="AY15">
-            <v>285.46966666664201</v>
+            <v>1489.82700000004</v>
           </cell>
           <cell r="AZ15">
-            <v>169.97791666671401</v>
+            <v>7744.8233333334501</v>
           </cell>
           <cell r="BA15">
-            <v>0</v>
+            <v>4820.4360833333003</v>
           </cell>
           <cell r="BB15">
-            <v>0</v>
+            <v>6112.9397083331396</v>
           </cell>
           <cell r="BC15">
-            <v>344.09291666670401</v>
+            <v>2511.6590833334399</v>
           </cell>
           <cell r="BD15">
-            <v>3486.2311666666601</v>
+            <v>5667.6620000007097</v>
           </cell>
           <cell r="BE15">
-            <v>424.27274999988703</v>
+            <v>3484.75066666677</v>
           </cell>
           <cell r="BF15">
-            <v>684.62058333333698</v>
+            <v>3030.2703333333402</v>
           </cell>
           <cell r="BG15">
             <v>0</v>
@@ -4587,97 +4360,97 @@
             <v>0</v>
           </cell>
           <cell r="BI15">
-            <v>0</v>
+            <v>2777.6029166665899</v>
           </cell>
           <cell r="BJ15">
-            <v>0</v>
+            <v>532.83091666665803</v>
           </cell>
           <cell r="BK15">
-            <v>0</v>
+            <v>1335.47479166672</v>
           </cell>
           <cell r="BL15">
-            <v>1394.38370833371</v>
+            <v>1709.3871249997701</v>
           </cell>
           <cell r="BM15">
-            <v>0</v>
+            <v>443.58091666665803</v>
           </cell>
           <cell r="BN15">
-            <v>0</v>
+            <v>1341.05158333331</v>
           </cell>
           <cell r="BO15">
-            <v>0</v>
+            <v>383.82241666666198</v>
           </cell>
           <cell r="BP15">
-            <v>0</v>
+            <v>795.90008333328296</v>
           </cell>
           <cell r="BQ15">
-            <v>0</v>
+            <v>2651.7098333332101</v>
           </cell>
           <cell r="BR15">
             <v>0</v>
           </cell>
           <cell r="BS15">
-            <v>1708.15433333331</v>
+            <v>1574.2634583332599</v>
           </cell>
           <cell r="BT15">
-            <v>0</v>
+            <v>987.64008333330196</v>
           </cell>
           <cell r="BU15">
-            <v>0</v>
+            <v>331.03200000000601</v>
           </cell>
           <cell r="BV15">
-            <v>428.34991666665798</v>
+            <v>948.44316666666396</v>
           </cell>
           <cell r="BW15">
-            <v>0</v>
+            <v>598.48333333327901</v>
           </cell>
           <cell r="BX15">
-            <v>573.08758333325295</v>
+            <v>2884.7961666664301</v>
           </cell>
           <cell r="BY15">
-            <v>245.03250000000099</v>
+            <v>1488.9455416667599</v>
           </cell>
           <cell r="BZ15">
-            <v>0</v>
+            <v>297.48216666665297</v>
           </cell>
           <cell r="CA15">
             <v>0</v>
           </cell>
           <cell r="CB15">
-            <v>60.533666666597099</v>
+            <v>1058.15162500017</v>
           </cell>
           <cell r="CC15">
-            <v>420.13683333332301</v>
+            <v>2018.16849999991</v>
           </cell>
           <cell r="CD15">
-            <v>182.88675000006299</v>
+            <v>1690.3838333333799</v>
           </cell>
           <cell r="CE15">
-            <v>0</v>
+            <v>2552.2417499999501</v>
           </cell>
           <cell r="CF15">
-            <v>0</v>
+            <v>1156.71716666664</v>
           </cell>
           <cell r="CG15">
-            <v>0</v>
+            <v>809.40758333343501</v>
           </cell>
           <cell r="CH15">
-            <v>0</v>
+            <v>102.92499999992999</v>
           </cell>
           <cell r="CI15">
-            <v>0</v>
+            <v>820.40187499998103</v>
           </cell>
           <cell r="CJ15">
-            <v>39.879666666733101</v>
+            <v>197.098833333351</v>
           </cell>
           <cell r="CK15">
-            <v>0</v>
+            <v>276.525166666659</v>
           </cell>
           <cell r="CL15">
-            <v>0</v>
+            <v>9.5073333333420997</v>
           </cell>
           <cell r="CM15">
-            <v>31.110333333374001</v>
+            <v>0</v>
           </cell>
           <cell r="CN15">
             <v>0</v>
@@ -4686,7 +4459,7 @@
             <v>0</v>
           </cell>
           <cell r="CP15">
-            <v>0</v>
+            <v>415.48750000001701</v>
           </cell>
           <cell r="CQ15">
             <v>0</v>
@@ -4707,6 +4480,323 @@
             <v>0</v>
           </cell>
           <cell r="CW15">
+            <v>0</v>
+          </cell>
+          <cell r="CX15">
+            <v>0</v>
+          </cell>
+          <cell r="CY15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>44282</v>
+          </cell>
+          <cell r="B16">
+            <v>9834.0700833331794</v>
+          </cell>
+          <cell r="C16">
+            <v>12058.1300000017</v>
+          </cell>
+          <cell r="D16">
+            <v>9609.8206250006297</v>
+          </cell>
+          <cell r="E16">
+            <v>7944.40808333316</v>
+          </cell>
+          <cell r="F16">
+            <v>12954.7712499997</v>
+          </cell>
+          <cell r="G16">
+            <v>19904.018124999999</v>
+          </cell>
+          <cell r="H16">
+            <v>4115.9015000006102</v>
+          </cell>
+          <cell r="I16">
+            <v>12630.2895416663</v>
+          </cell>
+          <cell r="J16">
+            <v>2826.9185833330198</v>
+          </cell>
+          <cell r="K16">
+            <v>2821.99104166589</v>
+          </cell>
+          <cell r="L16">
+            <v>467.28466666676098</v>
+          </cell>
+          <cell r="M16">
+            <v>2369.2960833331999</v>
+          </cell>
+          <cell r="N16">
+            <v>9017.7354166672994</v>
+          </cell>
+          <cell r="O16">
+            <v>14619.7359583335</v>
+          </cell>
+          <cell r="P16">
+            <v>10977.0528749979</v>
+          </cell>
+          <cell r="Q16">
+            <v>0</v>
+          </cell>
+          <cell r="R16">
+            <v>7114.6987916668804</v>
+          </cell>
+          <cell r="S16">
+            <v>10203.557124999899</v>
+          </cell>
+          <cell r="T16">
+            <v>2598.1817083328401</v>
+          </cell>
+          <cell r="U16">
+            <v>0</v>
+          </cell>
+          <cell r="V16">
+            <v>10634.5274166668</v>
+          </cell>
+          <cell r="W16">
+            <v>2118.99774999992</v>
+          </cell>
+          <cell r="X16">
+            <v>5489.0093750000797</v>
+          </cell>
+          <cell r="Y16">
+            <v>2035.7115000000299</v>
+          </cell>
+          <cell r="Z16">
+            <v>3745.67666666675</v>
+          </cell>
+          <cell r="AA16">
+            <v>3978.6441666665401</v>
+          </cell>
+          <cell r="AB16">
+            <v>11337.704166666401</v>
+          </cell>
+          <cell r="AC16">
+            <v>2400.0540416666699</v>
+          </cell>
+          <cell r="AD16">
+            <v>682.52674999984401</v>
+          </cell>
+          <cell r="AE16">
+            <v>4137.4368333333396</v>
+          </cell>
+          <cell r="AF16">
+            <v>796.58466666657398</v>
+          </cell>
+          <cell r="AG16">
+            <v>62.307750000007204</v>
+          </cell>
+          <cell r="AH16">
+            <v>3935.9543750000798</v>
+          </cell>
+          <cell r="AI16">
+            <v>292.64358333329398</v>
+          </cell>
+          <cell r="AJ16">
+            <v>5345.7943750005197</v>
+          </cell>
+          <cell r="AK16">
+            <v>1234.52966666664</v>
+          </cell>
+          <cell r="AL16">
+            <v>251.50075000000601</v>
+          </cell>
+          <cell r="AM16">
+            <v>1259.7299583336501</v>
+          </cell>
+          <cell r="AN16">
+            <v>218.796583333314</v>
+          </cell>
+          <cell r="AO16">
+            <v>616.32750000001397</v>
+          </cell>
+          <cell r="AP16">
+            <v>2216.8813333336702</v>
+          </cell>
+          <cell r="AQ16">
+            <v>1688.6663333332899</v>
+          </cell>
+          <cell r="AR16">
+            <v>55.090666666626902</v>
+          </cell>
+          <cell r="AS16">
+            <v>1772.1536666668201</v>
+          </cell>
+          <cell r="AT16">
+            <v>418.59899999992899</v>
+          </cell>
+          <cell r="AU16">
+            <v>691.85050000040701</v>
+          </cell>
+          <cell r="AV16">
+            <v>4231.5323749998897</v>
+          </cell>
+          <cell r="AW16">
+            <v>1711.54391666676</v>
+          </cell>
+          <cell r="AX16">
+            <v>0</v>
+          </cell>
+          <cell r="AY16">
+            <v>324.259250000002</v>
+          </cell>
+          <cell r="AZ16">
+            <v>178.147250000009</v>
+          </cell>
+          <cell r="BA16">
+            <v>258.00474999999199</v>
+          </cell>
+          <cell r="BB16">
+            <v>256.20033333334101</v>
+          </cell>
+          <cell r="BC16">
+            <v>0</v>
+          </cell>
+          <cell r="BD16">
+            <v>719.92016666638597</v>
+          </cell>
+          <cell r="BE16">
+            <v>3854.1439166669102</v>
+          </cell>
+          <cell r="BF16">
+            <v>661.62183333333803</v>
+          </cell>
+          <cell r="BG16">
+            <v>2897.2080000000101</v>
+          </cell>
+          <cell r="BH16">
+            <v>0</v>
+          </cell>
+          <cell r="BI16">
+            <v>2838.6185833333202</v>
+          </cell>
+          <cell r="BJ16">
+            <v>0</v>
+          </cell>
+          <cell r="BK16">
+            <v>2483.90929166672</v>
+          </cell>
+          <cell r="BL16">
+            <v>101.197749999992</v>
+          </cell>
+          <cell r="BM16">
+            <v>0</v>
+          </cell>
+          <cell r="BN16">
+            <v>46.823000000003901</v>
+          </cell>
+          <cell r="BO16">
+            <v>0</v>
+          </cell>
+          <cell r="BP16">
+            <v>136.765249999996</v>
+          </cell>
+          <cell r="BQ16">
+            <v>164.08683333330501</v>
+          </cell>
+          <cell r="BR16">
+            <v>0</v>
+          </cell>
+          <cell r="BS16">
+            <v>0</v>
+          </cell>
+          <cell r="BT16">
+            <v>0</v>
+          </cell>
+          <cell r="BU16">
+            <v>487.74700000003202</v>
+          </cell>
+          <cell r="BV16">
+            <v>0</v>
+          </cell>
+          <cell r="BW16">
+            <v>0</v>
+          </cell>
+          <cell r="BX16">
+            <v>0</v>
+          </cell>
+          <cell r="BY16">
+            <v>0</v>
+          </cell>
+          <cell r="BZ16">
+            <v>0</v>
+          </cell>
+          <cell r="CA16">
+            <v>0</v>
+          </cell>
+          <cell r="CB16">
+            <v>9.7815833332715503</v>
+          </cell>
+          <cell r="CC16">
+            <v>28.603000000002702</v>
+          </cell>
+          <cell r="CD16">
+            <v>0</v>
+          </cell>
+          <cell r="CE16">
+            <v>0</v>
+          </cell>
+          <cell r="CF16">
+            <v>0</v>
+          </cell>
+          <cell r="CG16">
+            <v>0</v>
+          </cell>
+          <cell r="CH16">
+            <v>504.82249999989199</v>
+          </cell>
+          <cell r="CI16">
+            <v>477.49299999995799</v>
+          </cell>
+          <cell r="CJ16">
+            <v>0</v>
+          </cell>
+          <cell r="CK16">
+            <v>14.557499999995301</v>
+          </cell>
+          <cell r="CL16">
+            <v>0</v>
+          </cell>
+          <cell r="CM16">
+            <v>0</v>
+          </cell>
+          <cell r="CN16">
+            <v>0</v>
+          </cell>
+          <cell r="CO16">
+            <v>0</v>
+          </cell>
+          <cell r="CP16">
+            <v>0</v>
+          </cell>
+          <cell r="CQ16">
+            <v>0</v>
+          </cell>
+          <cell r="CR16">
+            <v>0</v>
+          </cell>
+          <cell r="CS16">
+            <v>0</v>
+          </cell>
+          <cell r="CT16">
+            <v>0</v>
+          </cell>
+          <cell r="CU16">
+            <v>0</v>
+          </cell>
+          <cell r="CV16">
+            <v>0</v>
+          </cell>
+          <cell r="CW16">
+            <v>0</v>
+          </cell>
+          <cell r="CX16">
+            <v>0</v>
+          </cell>
+          <cell r="CY16">
             <v>0</v>
           </cell>
         </row>
@@ -4979,10 +5069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW16"/>
+  <dimension ref="A1:CY16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,389 +5081,389 @@
     <col min="2" max="101" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <f>SUM(B3:B15)</f>
-        <v>98958.403541664593</v>
+        <f>AVERAGE(B10:B15)</f>
+        <v>49167.623583332672</v>
       </c>
       <c r="C1" s="3">
-        <f t="shared" ref="C1:BN1" si="0">SUM(C3:C16)</f>
-        <v>68485.753666664416</v>
+        <f t="shared" ref="C1:BN1" si="0">AVERAGE(C10:C15)</f>
+        <v>37105.657034723918</v>
       </c>
       <c r="D1" s="3">
         <f t="shared" si="0"/>
-        <v>58457.802624997625</v>
+        <v>34819.614152778449</v>
       </c>
       <c r="E1" s="3">
         <f t="shared" si="0"/>
-        <v>53952.606125002669</v>
+        <v>29322.6277708327</v>
       </c>
       <c r="F1" s="3">
         <f t="shared" si="0"/>
-        <v>53946.073666672615</v>
+        <v>27746.029763891955</v>
       </c>
       <c r="G1" s="3">
         <f t="shared" si="0"/>
-        <v>51482.485916667269</v>
+        <v>25571.068965277798</v>
       </c>
       <c r="H1" s="3">
         <f t="shared" si="0"/>
-        <v>50012.128125002506</v>
+        <v>27314.624368054749</v>
       </c>
       <c r="I1" s="3">
         <f t="shared" si="0"/>
-        <v>46459.150041667926</v>
+        <v>21848.561659722051</v>
       </c>
       <c r="J1" s="3">
         <f t="shared" si="0"/>
-        <v>45841.994750002763</v>
+        <v>22655.751868055464</v>
       </c>
       <c r="K1" s="3">
         <f t="shared" si="0"/>
-        <v>45350.504291667101</v>
+        <v>19952.732597224076</v>
       </c>
       <c r="L1" s="3">
         <f t="shared" si="0"/>
-        <v>34244.879875000603</v>
+        <v>18514.974312500013</v>
       </c>
       <c r="M1" s="3">
         <f t="shared" si="0"/>
-        <v>34069.24424999988</v>
+        <v>15659.746048611116</v>
       </c>
       <c r="N1" s="3">
         <f t="shared" si="0"/>
-        <v>27217.867416666588</v>
+        <v>13946.982104166824</v>
       </c>
       <c r="O1" s="3">
         <f t="shared" si="0"/>
-        <v>26900.831083337231</v>
+        <v>12925.754472223291</v>
       </c>
       <c r="P1" s="3">
         <f t="shared" si="0"/>
-        <v>25894.47733333303</v>
+        <v>12851.731409722444</v>
       </c>
       <c r="Q1" s="3">
         <f t="shared" si="0"/>
-        <v>25663.498333333941</v>
+        <v>13982.476319444397</v>
       </c>
       <c r="R1" s="3">
         <f t="shared" si="0"/>
-        <v>25202.784083333318</v>
+        <v>12786.996562499806</v>
       </c>
       <c r="S1" s="3">
         <f t="shared" si="0"/>
-        <v>21008.950166666553</v>
+        <v>11944.747895833309</v>
       </c>
       <c r="T1" s="3">
         <f t="shared" si="0"/>
-        <v>19905.634083333</v>
+        <v>13094.198972222081</v>
       </c>
       <c r="U1" s="3">
         <f t="shared" si="0"/>
-        <v>19500.259083333338</v>
+        <v>12859.545618055721</v>
       </c>
       <c r="V1" s="3">
         <f t="shared" si="0"/>
-        <v>19215.726916667289</v>
+        <v>9758.72921527781</v>
       </c>
       <c r="W1" s="3">
         <f t="shared" si="0"/>
-        <v>19133.665541667473</v>
+        <v>9838.8233819443558</v>
       </c>
       <c r="X1" s="3">
         <f t="shared" si="0"/>
-        <v>18482.843874999133</v>
+        <v>9062.1784513888797</v>
       </c>
       <c r="Y1" s="3">
         <f t="shared" si="0"/>
-        <v>18198.317333333067</v>
+        <v>9607.6253611111206</v>
       </c>
       <c r="Z1" s="3">
         <f t="shared" si="0"/>
-        <v>16977.978666666157</v>
+        <v>8990.9190624999337</v>
       </c>
       <c r="AA1" s="3">
         <f t="shared" si="0"/>
-        <v>16165.036458333532</v>
+        <v>8735.1786666668286</v>
       </c>
       <c r="AB1" s="3">
         <f t="shared" si="0"/>
-        <v>15590.581916666673</v>
+        <v>7103.377506944581</v>
       </c>
       <c r="AC1" s="3">
         <f t="shared" si="0"/>
-        <v>15348.684666666573</v>
+        <v>8450.0410416666818</v>
       </c>
       <c r="AD1" s="3">
         <f t="shared" si="0"/>
-        <v>14801.32637500003</v>
+        <v>7897.0179305554057</v>
       </c>
       <c r="AE1" s="3">
         <f t="shared" si="0"/>
-        <v>14348.835291667136</v>
+        <v>7304.1591805555227</v>
       </c>
       <c r="AF1" s="3">
         <f t="shared" si="0"/>
-        <v>14019.643416667121</v>
+        <v>7259.7582777780799</v>
       </c>
       <c r="AG1" s="3">
         <f t="shared" si="0"/>
-        <v>13669.525291666498</v>
+        <v>7310.6850902777487</v>
       </c>
       <c r="AH1" s="3">
         <f t="shared" si="0"/>
-        <v>13623.942041666243</v>
+        <v>6598.4498263889373</v>
       </c>
       <c r="AI1" s="3">
         <f t="shared" si="0"/>
-        <v>12595.18599999998</v>
+        <v>7021.5190208332451</v>
       </c>
       <c r="AJ1" s="3">
         <f t="shared" si="0"/>
-        <v>12132.778708333286</v>
+        <v>5940.3995486110171</v>
       </c>
       <c r="AK1" s="3">
         <f t="shared" si="0"/>
-        <v>11834.396916666461</v>
+        <v>6337.0499583332466</v>
       </c>
       <c r="AL1" s="3">
         <f t="shared" si="0"/>
-        <v>11834.007916667135</v>
+        <v>5809.8339166667583</v>
       </c>
       <c r="AM1" s="3">
         <f t="shared" si="0"/>
-        <v>11322.096166666764</v>
+        <v>5636.7583333332941</v>
       </c>
       <c r="AN1" s="3">
         <f t="shared" si="0"/>
-        <v>10913.84541666652</v>
+        <v>5755.6426736110989</v>
       </c>
       <c r="AO1" s="3">
         <f t="shared" si="0"/>
-        <v>9971.5574583333146</v>
+        <v>5681.5440555556497</v>
       </c>
       <c r="AP1" s="3">
         <f t="shared" si="0"/>
-        <v>9956.9191666665611</v>
+        <v>5062.0926944446555</v>
       </c>
       <c r="AQ1" s="3">
         <f t="shared" si="0"/>
-        <v>9694.9026250010247</v>
+        <v>4621.4766458333188</v>
       </c>
       <c r="AR1" s="3">
         <f t="shared" si="0"/>
-        <v>9263.8124999999909</v>
+        <v>4639.3061805554462</v>
       </c>
       <c r="AS1" s="3">
         <f t="shared" si="0"/>
-        <v>9200.5447499998754</v>
+        <v>4148.7465555556655</v>
       </c>
       <c r="AT1" s="3">
         <f t="shared" si="0"/>
-        <v>8698.2648333331326</v>
+        <v>4278.7522708333336</v>
       </c>
       <c r="AU1" s="3">
         <f t="shared" si="0"/>
-        <v>8645.040083333437</v>
+        <v>4220.3288819440995</v>
       </c>
       <c r="AV1" s="3">
         <f t="shared" si="0"/>
-        <v>7599.4369999999999</v>
+        <v>3583.2163124999747</v>
       </c>
       <c r="AW1" s="3">
         <f t="shared" si="0"/>
-        <v>7353.5655416667778</v>
+        <v>3832.0794236110282</v>
       </c>
       <c r="AX1" s="3">
         <f t="shared" si="0"/>
-        <v>6867.5041249988126</v>
+        <v>3796.3095486111383</v>
       </c>
       <c r="AY1" s="3">
         <f t="shared" si="0"/>
-        <v>6668.014249999942</v>
+        <v>3663.0551319444717</v>
       </c>
       <c r="AZ1" s="3">
         <f t="shared" si="0"/>
-        <v>6200.8788750000476</v>
+        <v>3525.2042638888779</v>
       </c>
       <c r="BA1" s="3">
         <f t="shared" si="0"/>
-        <v>6135.4006666664482</v>
+        <v>3422.7972777777336</v>
       </c>
       <c r="BB1" s="3">
         <f t="shared" si="0"/>
-        <v>5901.8960833332294</v>
+        <v>3395.975229166615</v>
       </c>
       <c r="BC1" s="3">
         <f t="shared" si="0"/>
-        <v>5744.141583333424</v>
+        <v>3433.7556041666398</v>
       </c>
       <c r="BD1" s="3">
         <f t="shared" si="0"/>
-        <v>5694.9873333334635</v>
+        <v>3281.8911458334733</v>
       </c>
       <c r="BE1" s="3">
         <f t="shared" si="0"/>
-        <v>5176.3922499994469</v>
+        <v>2747.4440000000614</v>
       </c>
       <c r="BF1" s="3">
         <f t="shared" si="0"/>
-        <v>5007.9728749999667</v>
+        <v>3251.2642013889167</v>
       </c>
       <c r="BG1" s="3">
         <f t="shared" si="0"/>
-        <v>4775.5664999999781</v>
+        <v>2354.355416666675</v>
       </c>
       <c r="BH1" s="3">
         <f t="shared" si="0"/>
-        <v>4663.505249999982</v>
+        <v>2636.5737013888202</v>
       </c>
       <c r="BI1" s="3">
         <f t="shared" si="0"/>
-        <v>4317.6650833333215</v>
+        <v>1851.5433055555393</v>
       </c>
       <c r="BJ1" s="3">
         <f t="shared" si="0"/>
-        <v>3717.0999999998503</v>
+        <v>2212.2950486110899</v>
       </c>
       <c r="BK1" s="3">
         <f t="shared" si="0"/>
-        <v>3417.54449999998</v>
+        <v>1718.3660208333415</v>
       </c>
       <c r="BL1" s="3">
         <f t="shared" si="0"/>
-        <v>2886.0202083337299</v>
+        <v>2056.3860069443531</v>
       </c>
       <c r="BM1" s="3">
         <f t="shared" si="0"/>
-        <v>2873.082958333307</v>
+        <v>2049.6691805555452</v>
       </c>
       <c r="BN1" s="3">
         <f t="shared" si="0"/>
-        <v>2551.6657916665999</v>
+        <v>1796.7989722221691</v>
       </c>
       <c r="BO1" s="3">
-        <f t="shared" ref="BO1:CW1" si="1">SUM(BO3:BO16)</f>
-        <v>2528.8602499999652</v>
+        <f t="shared" ref="BO1:CY1" si="1">AVERAGE(BO10:BO15)</f>
+        <v>1571.4557083333266</v>
       </c>
       <c r="BP1" s="3">
         <f t="shared" si="1"/>
-        <v>2484.605166666704</v>
+        <v>1546.5223750000041</v>
       </c>
       <c r="BQ1" s="3">
         <f t="shared" si="1"/>
-        <v>2195.3708333334571</v>
+        <v>1439.9940486111138</v>
       </c>
       <c r="BR1" s="3">
         <f t="shared" si="1"/>
-        <v>2142.4603333333757</v>
+        <v>1349.5727222222158</v>
       </c>
       <c r="BS1" s="3">
         <f t="shared" si="1"/>
-        <v>1708.15433333331</v>
+        <v>1348.2935555555307</v>
       </c>
       <c r="BT1" s="3">
         <f t="shared" si="1"/>
-        <v>1702.5249166666699</v>
+        <v>1302.6321180555453</v>
       </c>
       <c r="BU1" s="3">
         <f t="shared" si="1"/>
-        <v>1536.9981250001558</v>
+        <v>968.4094305555526</v>
       </c>
       <c r="BV1" s="3">
         <f t="shared" si="1"/>
-        <v>1313.6722499999439</v>
+        <v>1021.7257083333358</v>
       </c>
       <c r="BW1" s="3">
         <f t="shared" si="1"/>
-        <v>986.88091666664695</v>
+        <v>999.95538888889951</v>
       </c>
       <c r="BX1" s="3">
         <f t="shared" si="1"/>
-        <v>905.03079166658995</v>
+        <v>987.11390277778048</v>
       </c>
       <c r="BY1" s="3">
         <f t="shared" si="1"/>
-        <v>893.42166666669004</v>
+        <v>893.27113194450067</v>
       </c>
       <c r="BZ1" s="3">
         <f t="shared" si="1"/>
-        <v>863.72891666676105</v>
+        <v>835.37466666668752</v>
       </c>
       <c r="CA1" s="3">
         <f t="shared" si="1"/>
-        <v>731.31445833347902</v>
+        <v>822.91751388888486</v>
       </c>
       <c r="CB1" s="3">
         <f t="shared" si="1"/>
-        <v>694.34791666653314</v>
+        <v>733.00609027780445</v>
       </c>
       <c r="CC1" s="3">
         <f t="shared" si="1"/>
-        <v>574.95033333331207</v>
+        <v>727.63324999998224</v>
       </c>
       <c r="CD1" s="3">
         <f t="shared" si="1"/>
-        <v>397.47870833345166</v>
+        <v>711.52861805558859</v>
       </c>
       <c r="CE1" s="3">
         <f t="shared" si="1"/>
-        <v>358.19641666667297</v>
+        <v>669.95930555554389</v>
       </c>
       <c r="CF1" s="3">
         <f t="shared" si="1"/>
-        <v>289.39300000000998</v>
+        <v>637.41074999999955</v>
       </c>
       <c r="CG1" s="3">
         <f t="shared" si="1"/>
-        <v>212.28758333344001</v>
+        <v>630.35352083330383</v>
       </c>
       <c r="CH1" s="3">
         <f t="shared" si="1"/>
-        <v>148.27558333333499</v>
+        <v>486.73894444445517</v>
       </c>
       <c r="CI1" s="3">
         <f t="shared" si="1"/>
-        <v>138.39525000000049</v>
+        <v>475.91002083332938</v>
       </c>
       <c r="CJ1" s="3">
         <f t="shared" si="1"/>
-        <v>136.24550000007719</v>
+        <v>428.17695833331254</v>
       </c>
       <c r="CK1" s="3">
         <f t="shared" si="1"/>
-        <v>113.123333333351</v>
+        <v>400.83555555554068</v>
       </c>
       <c r="CL1" s="3">
         <f t="shared" si="1"/>
-        <v>89.185000000026704</v>
+        <v>358.66127777778632</v>
       </c>
       <c r="CM1" s="3">
         <f t="shared" si="1"/>
-        <v>46.146750000072629</v>
+        <v>243.5436805555166</v>
       </c>
       <c r="CN1" s="3">
         <f t="shared" si="1"/>
-        <v>4.0491666666639503</v>
+        <v>218.94537499999066</v>
       </c>
       <c r="CO1" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>134.2742777777795</v>
       </c>
       <c r="CP1" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104.6917361111116</v>
       </c>
       <c r="CQ1" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.526722222227033</v>
       </c>
       <c r="CR1" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.67486111111065838</v>
       </c>
       <c r="CS1" s="3">
         <f t="shared" si="1"/>
@@ -5395,32 +5485,40 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="CX1" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY1" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str" cm="1">
-        <f t="array" ref="A2:CW16">[1]ClanLeaderboardXpPerDay!$A$1:$CW$15</f>
+        <f t="array" ref="A2:CY16">[1]ClanLeaderboardXpPerDay!$A$2:$CY$16</f>
         <v>Timestamp</v>
       </c>
       <c r="B2" s="1" t="str">
         <v>RIOT</v>
       </c>
       <c r="C2" s="1" t="str">
+        <v>MERC</v>
+      </c>
+      <c r="D2" s="1" t="str">
         <v>ZR</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="E2" s="1" t="str">
+        <v>DRONE</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>FOLDIN</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>GFB</v>
+      </c>
+      <c r="H2" s="1" t="str">
         <v>CAVERA</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>MERC</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <v>SENTRY</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <v>DRONE</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <v>FOLDIN</v>
       </c>
       <c r="I2" s="1" t="str">
         <v>NOOBVN</v>
@@ -5429,16 +5527,16 @@
         <v>INQ</v>
       </c>
       <c r="K2" s="1" t="str">
-        <v>GFB</v>
+        <v>SENTRY</v>
       </c>
       <c r="L2" s="1" t="str">
+        <v>KHAN</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <v>UDUZAL</v>
+      </c>
+      <c r="N2" s="1" t="str">
         <v>TS12</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <v>PRO</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <v>GHOSTS</v>
       </c>
       <c r="O2" s="1" t="str">
         <v>KRYPTO</v>
@@ -5447,7 +5545,7 @@
         <v>SPEEDY</v>
       </c>
       <c r="Q2" s="1" t="str">
-        <v>KHAN</v>
+        <v>GHOSTS</v>
       </c>
       <c r="R2" s="1" t="str">
         <v>WAR</v>
@@ -5456,255 +5554,261 @@
         <v>6B</v>
       </c>
       <c r="T2" s="1" t="str">
+        <v>PRO</v>
+      </c>
+      <c r="U2" s="1" t="str">
+        <v>COYOTE</v>
+      </c>
+      <c r="V2" s="1" t="str">
+        <v>WHAMMM</v>
+      </c>
+      <c r="W2" s="1" t="str">
+        <v>JID</v>
+      </c>
+      <c r="X2" s="1" t="str">
+        <v>BLESS</v>
+      </c>
+      <c r="Y2" s="1" t="str">
+        <v>MTR</v>
+      </c>
+      <c r="Z2" s="1" t="str">
         <v>E8</v>
       </c>
-      <c r="U2" s="1" t="str">
+      <c r="AA2" s="1" t="str">
+        <v>ELITES</v>
+      </c>
+      <c r="AB2" s="1" t="str">
         <v>SONG</v>
       </c>
-      <c r="V2" s="1" t="str">
-        <v>IMPRO</v>
-      </c>
-      <c r="W2" s="1" t="str">
-        <v>ELITES</v>
-      </c>
-      <c r="X2" s="1" t="str">
-        <v>WHAMMM</v>
-      </c>
-      <c r="Y2" s="1" t="str">
-        <v>BLESS</v>
-      </c>
-      <c r="Z2" s="1" t="str">
-        <v>GOLD</v>
-      </c>
-      <c r="AA2" s="1" t="str">
-        <v>MTR</v>
-      </c>
-      <c r="AB2" s="1" t="str">
+      <c r="AC2" s="1" t="str">
+        <v>TOXIC</v>
+      </c>
+      <c r="AD2" s="1" t="str">
         <v>PEACE</v>
       </c>
-      <c r="AC2" s="1" t="str">
+      <c r="AE2" s="1" t="str">
         <v>ANGELS</v>
-      </c>
-      <c r="AD2" s="1" t="str">
-        <v>PRIME</v>
-      </c>
-      <c r="AE2" s="1" t="str">
-        <v>COYOTE</v>
       </c>
       <c r="AF2" s="1" t="str">
         <v>CORONA</v>
       </c>
       <c r="AG2" s="1" t="str">
-        <v>JID</v>
+        <v>SPARK</v>
       </c>
       <c r="AH2" s="1" t="str">
+        <v>WARIOR</v>
+      </c>
+      <c r="AI2" s="1" t="str">
+        <v>HALLO</v>
+      </c>
+      <c r="AJ2" s="1" t="str">
+        <v>TDK</v>
+      </c>
+      <c r="AK2" s="1" t="str">
+        <v>IMPRO</v>
+      </c>
+      <c r="AL2" s="1" t="str">
+        <v>NOVA</v>
+      </c>
+      <c r="AM2" s="1" t="str">
+        <v>GOLD</v>
+      </c>
+      <c r="AN2" s="1" t="str">
+        <v>MC</v>
+      </c>
+      <c r="AO2" s="1" t="str">
+        <v>ROKETS</v>
+      </c>
+      <c r="AP2" s="1" t="str">
+        <v>KOA</v>
+      </c>
+      <c r="AQ2" s="1" t="str">
+        <v>PRIME</v>
+      </c>
+      <c r="AR2" s="1" t="str">
+        <v>POG</v>
+      </c>
+      <c r="AS2" s="1" t="str">
+        <v>POTATO</v>
+      </c>
+      <c r="AT2" s="1" t="str">
+        <v>PIXEL</v>
+      </c>
+      <c r="AU2" s="1" t="str">
+        <v>ANG7</v>
+      </c>
+      <c r="AV2" s="1" t="str">
+        <v>GUNDAM</v>
+      </c>
+      <c r="AW2" s="1" t="str">
         <v>PBTG</v>
       </c>
-      <c r="AI2" s="1" t="str">
-        <v>TDK</v>
-      </c>
-      <c r="AJ2" s="1" t="str">
-        <v>SPARK</v>
-      </c>
-      <c r="AK2" s="1" t="str">
-        <v>HALLO</v>
-      </c>
-      <c r="AL2" s="1" t="str">
-        <v>POTATO</v>
-      </c>
-      <c r="AM2" s="1" t="str">
-        <v>UDUZAL</v>
-      </c>
-      <c r="AN2" s="1" t="str">
+      <c r="AX2" s="1" t="str">
+        <v>THEPRO</v>
+      </c>
+      <c r="AY2" s="1" t="str">
         <v>BOOM</v>
       </c>
-      <c r="AO2" s="1" t="str">
-        <v>NOVA</v>
-      </c>
-      <c r="AP2" s="1" t="str">
-        <v>ROKETS</v>
-      </c>
-      <c r="AQ2" s="1" t="str">
-        <v>KOA</v>
-      </c>
-      <c r="AR2" s="1" t="str">
-        <v>PIXEL</v>
-      </c>
-      <c r="AS2" s="1" t="str">
-        <v>GUNDAM</v>
-      </c>
-      <c r="AT2" s="1" t="str">
+      <c r="AZ2" s="1" t="str">
         <v>BHM</v>
       </c>
-      <c r="AU2" s="1" t="str">
-        <v>THEPRO</v>
-      </c>
-      <c r="AV2" s="1" t="str">
+      <c r="BA2" s="1" t="str">
+        <v>GANG</v>
+      </c>
+      <c r="BB2" s="1" t="str">
+        <v>CRAZED</v>
+      </c>
+      <c r="BC2" s="1" t="str">
+        <v>VENOM</v>
+      </c>
+      <c r="BD2" s="1" t="str">
+        <v>DARK</v>
+      </c>
+      <c r="BE2" s="1" t="str">
+        <v>IQ</v>
+      </c>
+      <c r="BF2" s="1" t="str">
+        <v>MERC2</v>
+      </c>
+      <c r="BG2" s="1" t="str">
         <v>BM</v>
       </c>
-      <c r="AW2" s="1" t="str">
-        <v>MC</v>
-      </c>
-      <c r="AX2" s="1" t="str">
-        <v>ANG7</v>
-      </c>
-      <c r="AY2" s="1" t="str">
-        <v>GANG</v>
-      </c>
-      <c r="AZ2" s="1" t="str">
+      <c r="BH2" s="1" t="str">
+        <v>OWO</v>
+      </c>
+      <c r="BI2" s="1" t="str">
+        <v>GANG3</v>
+      </c>
+      <c r="BJ2" s="1" t="str">
         <v>NOMS</v>
       </c>
-      <c r="BA2" s="1" t="str">
-        <v>VENOM</v>
-      </c>
-      <c r="BB2" s="1" t="str">
+      <c r="BK2" s="1" t="str">
+        <v>DR0NE</v>
+      </c>
+      <c r="BL2" s="1" t="str">
+        <v>DODGE</v>
+      </c>
+      <c r="BM2" s="1" t="str">
+        <v>LOKERS</v>
+      </c>
+      <c r="BN2" s="1" t="str">
         <v>CROWN</v>
       </c>
-      <c r="BC2" s="1" t="str">
-        <v>IQ</v>
-      </c>
-      <c r="BD2" s="1" t="str">
-        <v>WARIOR</v>
-      </c>
-      <c r="BE2" s="1" t="str">
-        <v>OWO</v>
-      </c>
-      <c r="BF2" s="1" t="str">
-        <v>CRAZED</v>
-      </c>
-      <c r="BG2" s="1" t="str">
+      <c r="BO2" s="1" t="str">
         <v>ICYYY</v>
       </c>
-      <c r="BH2" s="1" t="str">
-        <v>MERC2</v>
-      </c>
-      <c r="BI2" s="1" t="str">
+      <c r="BP2" s="1" t="str">
         <v>GQ</v>
       </c>
-      <c r="BJ2" s="1" t="str">
-        <v>POG</v>
-      </c>
-      <c r="BK2" s="1" t="str">
+      <c r="BQ2" s="1" t="str">
+        <v>GOLDEN</v>
+      </c>
+      <c r="BR2" s="1" t="str">
         <v>RAN</v>
       </c>
-      <c r="BL2" s="1" t="str">
-        <v>DARK</v>
-      </c>
-      <c r="BM2" s="1" t="str">
-        <v>DODGE</v>
-      </c>
-      <c r="BN2" s="1" t="str">
+      <c r="BS2" s="1" t="str">
         <v>LUC43R</v>
       </c>
-      <c r="BO2" s="1" t="str">
-        <v>GANG3</v>
-      </c>
-      <c r="BP2" s="1" t="str">
+      <c r="BT2" s="1" t="str">
+        <v>CLUTCH</v>
+      </c>
+      <c r="BU2" s="1" t="str">
         <v>NARUTO</v>
       </c>
-      <c r="BQ2" s="1" t="str">
+      <c r="BV2" s="1" t="str">
+        <v>BROCKY</v>
+      </c>
+      <c r="BW2" s="1" t="str">
+        <v>OWLC</v>
+      </c>
+      <c r="BX2" s="1" t="str">
+        <v>23WINS</v>
+      </c>
+      <c r="BY2" s="1" t="str">
+        <v>WOOGS</v>
+      </c>
+      <c r="BZ2" s="1" t="str">
         <v>LEADER</v>
       </c>
-      <c r="BR2" s="1" t="str">
+      <c r="CA2" s="1" t="str">
+        <v>SUSHIZ</v>
+      </c>
+      <c r="CB2" s="1" t="str">
+        <v>ZERO</v>
+      </c>
+      <c r="CC2" s="1" t="str">
+        <v>STC</v>
+      </c>
+      <c r="CD2" s="1" t="str">
+        <v>RAGEN</v>
+      </c>
+      <c r="CE2" s="1" t="str">
+        <v>SWEATS</v>
+      </c>
+      <c r="CF2" s="1" t="str">
+        <v>DRAGON</v>
+      </c>
+      <c r="CG2" s="1" t="str">
+        <v>GOD</v>
+      </c>
+      <c r="CH2" s="1" t="str">
+        <v>ML</v>
+      </c>
+      <c r="CI2" s="1" t="str">
+        <v>INQ2</v>
+      </c>
+      <c r="CJ2" s="1" t="str">
+        <v>TDK2</v>
+      </c>
+      <c r="CK2" s="1" t="str">
+        <v>COSMIC</v>
+      </c>
+      <c r="CL2" s="1" t="str">
         <v>TANK</v>
       </c>
-      <c r="BS2" s="1" t="str">
-        <v>LOKERS</v>
-      </c>
-      <c r="BT2" s="1" t="str">
-        <v>INQ2</v>
-      </c>
-      <c r="BU2" s="1" t="str">
-        <v>GOLDEN</v>
-      </c>
-      <c r="BV2" s="1" t="str">
+      <c r="CM2" s="1" t="str">
+        <v>ARCTIC</v>
+      </c>
+      <c r="CN2" s="1" t="str">
         <v>OPCLAN</v>
       </c>
-      <c r="BW2" s="1" t="str">
-        <v>SWEATS</v>
-      </c>
-      <c r="BX2" s="1" t="str">
-        <v>ZERO</v>
-      </c>
-      <c r="BY2" s="1" t="str">
-        <v>DR0NE</v>
-      </c>
-      <c r="BZ2" s="1" t="str">
-        <v>RAGEN</v>
-      </c>
-      <c r="CA2" s="1" t="str">
-        <v>WOOGS</v>
-      </c>
-      <c r="CB2" s="1" t="str">
-        <v>ARCTIC</v>
-      </c>
-      <c r="CC2" s="1" t="str">
-        <v>COSMIC</v>
-      </c>
-      <c r="CD2" s="1" t="str">
-        <v>GOD</v>
-      </c>
-      <c r="CE2" s="1" t="str">
-        <v>OWLC</v>
-      </c>
-      <c r="CF2" s="1" t="str">
-        <v>CLUTCH</v>
-      </c>
-      <c r="CG2" s="1" t="str">
-        <v>23WINS</v>
-      </c>
-      <c r="CH2" s="1" t="str">
+      <c r="CO2" s="1" t="str">
+        <v>TANKER</v>
+      </c>
+      <c r="CP2" s="1" t="str">
         <v>GINGER</v>
       </c>
-      <c r="CI2" s="1" t="str">
-        <v>STC</v>
-      </c>
-      <c r="CJ2" s="1" t="str">
-        <v>DRAGON</v>
-      </c>
-      <c r="CK2" s="1" t="str">
-        <v>BROCKY</v>
-      </c>
-      <c r="CL2" s="1" t="str">
-        <v>MORT</v>
-      </c>
-      <c r="CM2" s="1" t="str">
-        <v>ML</v>
-      </c>
-      <c r="CN2" s="1" t="str">
+      <c r="CQ2" s="1" t="str">
+        <v>wsssss</v>
+      </c>
+      <c r="CR2" s="1" t="str">
         <v>USMC</v>
       </c>
-      <c r="CO2" s="1" t="str">
-        <v>TDK2</v>
-      </c>
-      <c r="CP2" s="1" t="str">
+      <c r="CS2" s="1" t="str">
         <v>CGANG</v>
       </c>
-      <c r="CQ2" s="1" t="str">
+      <c r="CT2" s="1" t="str">
         <v>FBI</v>
       </c>
-      <c r="CR2" s="1" t="str">
+      <c r="CU2" s="1" t="str">
         <v>NIGHT</v>
       </c>
-      <c r="CS2" s="1" t="str">
+      <c r="CV2" s="1" t="str">
         <v>RIP</v>
       </c>
-      <c r="CT2" s="1" t="str">
+      <c r="CW2" s="1" t="str">
         <v>DEFAUL</v>
       </c>
-      <c r="CU2" s="1" t="str">
-        <v>TANKER</v>
-      </c>
-      <c r="CV2" s="1" t="str">
-        <v>SUSHIZ</v>
-      </c>
-      <c r="CW2" s="1" t="str">
+      <c r="CX2" s="1" t="str">
         <v>ELITE2</v>
       </c>
+      <c r="CY2" s="1" t="str">
+        <v>CHIEF</v>
+      </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44265</v>
+        <v>44269</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -6006,10 +6110,16 @@
       <c r="CW3" s="4">
         <v>0</v>
       </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44266</v>
+        <v>44270</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -6311,10 +6421,16 @@
       <c r="CW4" s="4">
         <v>0</v>
       </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44267</v>
+        <v>44271</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -6616,10 +6732,16 @@
       <c r="CW5" s="4">
         <v>0</v>
       </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44268</v>
+        <v>44272</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -6921,10 +7043,16 @@
       <c r="CW6" s="4">
         <v>0</v>
       </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44269</v>
+        <v>44273</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -7226,10 +7354,16 @@
       <c r="CW7" s="4">
         <v>0</v>
       </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44270</v>
+        <v>44274</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -7531,10 +7665,16 @@
       <c r="CW8" s="4">
         <v>0</v>
       </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44271</v>
+        <v>44275</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -7836,214 +7976,220 @@
       <c r="CW9" s="4">
         <v>0</v>
       </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44272</v>
+        <v>44276</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>37873.394708333602</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>12881.061833334101</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>18157.3198333336</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>12056.919583332899</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>14766.6431666682</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>20104.056041666699</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>26706.375625000299</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>22905.839000000298</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>14681.413500001599</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
+        <v>21564.589833337301</v>
       </c>
       <c r="L10" s="4">
-        <v>0</v>
+        <v>5141.0767500000002</v>
       </c>
       <c r="M10" s="4">
-        <v>0</v>
+        <v>1513.9888333333599</v>
       </c>
       <c r="N10" s="4">
-        <v>0</v>
+        <v>12499.2520833339</v>
       </c>
       <c r="O10" s="4">
-        <v>0</v>
+        <v>9281.9406250007396</v>
       </c>
       <c r="P10" s="4">
-        <v>0</v>
+        <v>5061.6539166666298</v>
       </c>
       <c r="Q10" s="4">
-        <v>0</v>
+        <v>1168.46741666668</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>6385.1477500002302</v>
       </c>
       <c r="S10" s="4">
-        <v>0</v>
+        <v>6681.7464999999502</v>
       </c>
       <c r="T10" s="4">
-        <v>0</v>
+        <v>11316.177583332101</v>
       </c>
       <c r="U10" s="4">
-        <v>0</v>
+        <v>7275.9641250003997</v>
       </c>
       <c r="V10" s="4">
-        <v>0</v>
+        <v>2024.9287499997299</v>
       </c>
       <c r="W10" s="4">
-        <v>0</v>
+        <v>4745.9350000001104</v>
       </c>
       <c r="X10" s="4">
-        <v>0</v>
+        <v>8876.5737083333606</v>
       </c>
       <c r="Y10" s="4">
-        <v>0</v>
+        <v>8656.3850000001803</v>
       </c>
       <c r="Z10" s="4">
-        <v>0</v>
+        <v>7527.9286666663802</v>
       </c>
       <c r="AA10" s="4">
-        <v>0</v>
+        <v>4554.0888333334497</v>
       </c>
       <c r="AB10" s="4">
-        <v>0</v>
+        <v>5574.3505833331701</v>
       </c>
       <c r="AC10" s="4">
         <v>0</v>
       </c>
       <c r="AD10" s="4">
-        <v>0</v>
+        <v>5056.9416666666502</v>
       </c>
       <c r="AE10" s="4">
-        <v>0</v>
+        <v>3384.4261666666398</v>
       </c>
       <c r="AF10" s="4">
-        <v>0</v>
+        <v>8960.9775000002701</v>
       </c>
       <c r="AG10" s="4">
-        <v>0</v>
+        <v>1817.4911666666401</v>
       </c>
       <c r="AH10" s="4">
-        <v>0</v>
+        <v>889.39700000011305</v>
       </c>
       <c r="AI10" s="4">
-        <v>0</v>
+        <v>1554.41133333329</v>
       </c>
       <c r="AJ10" s="4">
-        <v>0</v>
+        <v>8707.0500000000393</v>
       </c>
       <c r="AK10" s="4">
-        <v>0</v>
+        <v>7165.9712500001697</v>
       </c>
       <c r="AL10" s="4">
-        <v>0</v>
+        <v>691.353000000002</v>
       </c>
       <c r="AM10" s="4">
-        <v>0</v>
+        <v>12920.4055833333</v>
       </c>
       <c r="AN10" s="4">
-        <v>0</v>
+        <v>444.07641666667701</v>
       </c>
       <c r="AO10" s="4">
-        <v>0</v>
+        <v>1162.3101666667401</v>
       </c>
       <c r="AP10" s="4">
-        <v>0</v>
+        <v>2350.78379166778</v>
       </c>
       <c r="AQ10" s="4">
-        <v>0</v>
+        <v>8245.4192083333892</v>
       </c>
       <c r="AR10" s="4">
-        <v>0</v>
+        <v>2576.4274166666401</v>
       </c>
       <c r="AS10" s="4">
-        <v>0</v>
+        <v>3560.7674999999499</v>
       </c>
       <c r="AT10" s="4">
-        <v>0</v>
+        <v>1951.6608333332599</v>
       </c>
       <c r="AU10" s="4">
-        <v>0</v>
+        <v>201.12741666659699</v>
       </c>
       <c r="AV10" s="4">
-        <v>0</v>
+        <v>4873.6473333332897</v>
       </c>
       <c r="AW10" s="4">
-        <v>0</v>
+        <v>8935.3363749993696</v>
       </c>
       <c r="AX10" s="4">
         <v>0</v>
       </c>
       <c r="AY10" s="4">
-        <v>0</v>
+        <v>6108.6891666664696</v>
       </c>
       <c r="AZ10" s="4">
-        <v>0</v>
+        <v>3923.0678333332698</v>
       </c>
       <c r="BA10" s="4">
-        <v>0</v>
+        <v>2330.7169999999701</v>
       </c>
       <c r="BB10" s="4">
-        <v>0</v>
+        <v>1077.1712499999801</v>
       </c>
       <c r="BC10" s="4">
-        <v>0</v>
+        <v>653.94983333325899</v>
       </c>
       <c r="BD10" s="4">
         <v>0</v>
       </c>
       <c r="BE10" s="4">
-        <v>0</v>
+        <v>1405.0066666667699</v>
       </c>
       <c r="BF10" s="4">
-        <v>0</v>
+        <v>589.39325000002202</v>
       </c>
       <c r="BG10" s="4">
         <v>0</v>
       </c>
       <c r="BH10" s="4">
-        <v>0</v>
+        <v>1060.43783333327</v>
       </c>
       <c r="BI10" s="4">
-        <v>0</v>
+        <v>1589.73124999995</v>
       </c>
       <c r="BJ10" s="4">
-        <v>0</v>
+        <v>861.05187500000397</v>
       </c>
       <c r="BK10" s="4">
         <v>0</v>
       </c>
       <c r="BL10" s="4">
-        <v>0</v>
+        <v>1923.6121250000399</v>
       </c>
       <c r="BM10" s="4">
         <v>0</v>
       </c>
       <c r="BN10" s="4">
-        <v>0</v>
+        <v>2404.4963333332498</v>
       </c>
       <c r="BO10" s="4">
-        <v>0</v>
+        <v>49.055499999987603</v>
       </c>
       <c r="BP10" s="4">
-        <v>0</v>
+        <v>302.49316666665197</v>
       </c>
       <c r="BQ10" s="4">
-        <v>0</v>
+        <v>1027.9227083334099</v>
       </c>
       <c r="BR10" s="4">
         <v>0</v>
@@ -8055,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="BU10" s="4">
-        <v>0</v>
+        <v>1990.8704166667301</v>
       </c>
       <c r="BV10" s="4">
         <v>0</v>
@@ -8067,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="BY10" s="4">
-        <v>0</v>
+        <v>104.01650000002699</v>
       </c>
       <c r="BZ10" s="4">
-        <v>0</v>
+        <v>367.53775000001701</v>
       </c>
       <c r="CA10" s="4">
         <v>0</v>
@@ -8079,22 +8225,22 @@
         <v>0</v>
       </c>
       <c r="CC10" s="4">
-        <v>0</v>
+        <v>12.674750000005499</v>
       </c>
       <c r="CD10" s="4">
-        <v>0</v>
+        <v>379.81091666669801</v>
       </c>
       <c r="CE10" s="4">
-        <v>0</v>
+        <v>986.88091666664695</v>
       </c>
       <c r="CF10" s="4">
-        <v>0</v>
+        <v>21.8462500000023</v>
       </c>
       <c r="CG10" s="4">
-        <v>0</v>
+        <v>121.270666666678</v>
       </c>
       <c r="CH10" s="4">
-        <v>0</v>
+        <v>5.7264999999897501</v>
       </c>
       <c r="CI10" s="4">
         <v>0</v>
@@ -8106,19 +8252,19 @@
         <v>0</v>
       </c>
       <c r="CL10" s="4">
-        <v>0</v>
+        <v>2098.4344166667101</v>
       </c>
       <c r="CM10" s="4">
-        <v>0</v>
+        <v>228.68616666668001</v>
       </c>
       <c r="CN10" s="4">
-        <v>0</v>
+        <v>863.79699999996205</v>
       </c>
       <c r="CO10" s="4">
         <v>0</v>
       </c>
       <c r="CP10" s="4">
-        <v>0</v>
+        <v>148.27558333333499</v>
       </c>
       <c r="CQ10" s="4">
         <v>0</v>
@@ -8141,283 +8287,289 @@
       <c r="CW10" s="4">
         <v>0</v>
       </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44273</v>
+        <v>44277</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>61085.008833330998</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>32810.372625001</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>43285.042416663797</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>36267.998916667602</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>30235.770875002199</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>25227.122250000401</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>24379.713583330598</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>20316.293458334101</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>28963.6409166669</v>
       </c>
       <c r="K11" s="4">
-        <v>0</v>
+        <v>29056.325083334901</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>19251.677583334</v>
       </c>
       <c r="M11" s="4">
-        <v>0</v>
+        <v>8927.0539166668295</v>
       </c>
       <c r="N11" s="4">
-        <v>0</v>
+        <v>17256.937541666601</v>
       </c>
       <c r="O11" s="4">
-        <v>0</v>
+        <v>12166.7192500028</v>
       </c>
       <c r="P11" s="4">
-        <v>0</v>
+        <v>12827.865375000099</v>
       </c>
       <c r="Q11" s="4">
-        <v>0</v>
+        <v>25708.218499999901</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>16595.9295833332</v>
       </c>
       <c r="S11" s="4">
-        <v>0</v>
+        <v>14327.203666666601</v>
       </c>
       <c r="T11" s="4">
-        <v>0</v>
+        <v>20531.863458334199</v>
       </c>
       <c r="U11" s="4">
-        <v>0</v>
+        <v>6735.7432916667303</v>
       </c>
       <c r="V11" s="4">
-        <v>0</v>
+        <v>13104.470791666001</v>
       </c>
       <c r="W11" s="4">
-        <v>0</v>
+        <v>8460.3797916664007</v>
       </c>
       <c r="X11" s="4">
-        <v>0</v>
+        <v>8564.2557083330994</v>
       </c>
       <c r="Y11" s="4">
-        <v>0</v>
+        <v>4986.8347083333601</v>
       </c>
       <c r="Z11" s="4">
-        <v>0</v>
+        <v>11146.7843333333</v>
       </c>
       <c r="AA11" s="4">
-        <v>0</v>
+        <v>12608.1021250009</v>
       </c>
       <c r="AB11" s="4">
-        <v>0</v>
+        <v>10257.8915000003</v>
       </c>
       <c r="AC11" s="4">
         <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>0</v>
+        <v>10113.091916666801</v>
       </c>
       <c r="AE11" s="4">
-        <v>0</v>
+        <v>11019.671333333299</v>
       </c>
       <c r="AF11" s="4">
-        <v>0</v>
+        <v>5058.6659166668496</v>
       </c>
       <c r="AG11" s="4">
-        <v>0</v>
+        <v>9759.3481666666303</v>
       </c>
       <c r="AH11" s="4">
-        <v>0</v>
+        <v>1319.35916666669</v>
       </c>
       <c r="AI11" s="4">
-        <v>0</v>
+        <v>6208.3639999998804</v>
       </c>
       <c r="AJ11" s="4">
-        <v>0</v>
+        <v>3888.1359999999399</v>
       </c>
       <c r="AK11" s="4">
-        <v>0</v>
+        <v>6216.9634166667201</v>
       </c>
       <c r="AL11" s="4">
-        <v>0</v>
+        <v>8941.8284583331497</v>
       </c>
       <c r="AM11" s="4">
-        <v>0</v>
+        <v>3573.7411666661501</v>
       </c>
       <c r="AN11" s="4">
-        <v>0</v>
+        <v>4449.5796250001004</v>
       </c>
       <c r="AO11" s="4">
-        <v>0</v>
+        <v>6636.5594999997402</v>
       </c>
       <c r="AP11" s="4">
-        <v>0</v>
+        <v>6862.2510833332699</v>
       </c>
       <c r="AQ11" s="4">
-        <v>0</v>
+        <v>6555.9071666666396</v>
       </c>
       <c r="AR11" s="4">
-        <v>0</v>
+        <v>1140.67258333321</v>
       </c>
       <c r="AS11" s="4">
-        <v>0</v>
+        <v>7752.5921666671002</v>
       </c>
       <c r="AT11" s="4">
-        <v>0</v>
+        <v>7312.1516666667303</v>
       </c>
       <c r="AU11" s="4">
-        <v>0</v>
+        <v>6635.4685416657003</v>
       </c>
       <c r="AV11" s="4">
-        <v>0</v>
+        <v>3678.3782499999502</v>
       </c>
       <c r="AW11" s="4">
-        <v>0</v>
+        <v>4551.8728333335603</v>
       </c>
       <c r="AX11" s="4">
-        <v>0</v>
+        <v>7755.7297500001096</v>
       </c>
       <c r="AY11" s="4">
-        <v>0</v>
+        <v>4805.15625000005</v>
       </c>
       <c r="AZ11" s="4">
-        <v>0</v>
+        <v>4198.2814166666003</v>
       </c>
       <c r="BA11" s="4">
-        <v>0</v>
+        <v>4051.82758333333</v>
       </c>
       <c r="BB11" s="4">
-        <v>0</v>
+        <v>3246.1810416666499</v>
       </c>
       <c r="BC11" s="4">
-        <v>0</v>
+        <v>5481.4508333331896</v>
       </c>
       <c r="BD11" s="4">
-        <v>0</v>
+        <v>1491.6365000000201</v>
       </c>
       <c r="BE11" s="4">
-        <v>0</v>
+        <v>3995.0419999999499</v>
       </c>
       <c r="BF11" s="4">
-        <v>0</v>
+        <v>4074.1119999999601</v>
       </c>
       <c r="BG11" s="4">
         <v>0</v>
       </c>
       <c r="BH11" s="4">
-        <v>0</v>
+        <v>3691.6816666662899</v>
       </c>
       <c r="BI11" s="4">
-        <v>0</v>
+        <v>939.12900000001503</v>
       </c>
       <c r="BJ11" s="4">
-        <v>0</v>
+        <v>5169.8490833333299</v>
       </c>
       <c r="BK11" s="4">
-        <v>0</v>
+        <v>648.38916666668899</v>
       </c>
       <c r="BL11" s="4">
-        <v>0</v>
+        <v>949.47083333326702</v>
       </c>
       <c r="BM11" s="4">
         <v>0</v>
       </c>
       <c r="BN11" s="4">
-        <v>0</v>
+        <v>3497.39974999998</v>
       </c>
       <c r="BO11" s="4">
-        <v>0</v>
+        <v>4726.5109999999904</v>
       </c>
       <c r="BP11" s="4">
-        <v>0</v>
+        <v>4015.1719166666699</v>
       </c>
       <c r="BQ11" s="4">
-        <v>0</v>
+        <v>509.07541666674598</v>
       </c>
       <c r="BR11" s="4">
-        <v>0</v>
+        <v>3417.54449999998</v>
       </c>
       <c r="BS11" s="4">
-        <v>0</v>
+        <v>2551.6657916665999</v>
       </c>
       <c r="BT11" s="4">
-        <v>0</v>
+        <v>289.39300000000998</v>
       </c>
       <c r="BU11" s="4">
-        <v>0</v>
+        <v>493.73474999997399</v>
       </c>
       <c r="BV11" s="4">
-        <v>0</v>
+        <v>113.123333333351</v>
       </c>
       <c r="BW11" s="4">
-        <v>0</v>
+        <v>358.19641666667297</v>
       </c>
       <c r="BX11" s="4">
-        <v>0</v>
+        <v>212.28758333344001</v>
       </c>
       <c r="BY11" s="4">
-        <v>0</v>
+        <v>627.29795833345202</v>
       </c>
       <c r="BZ11" s="4">
-        <v>0</v>
+        <v>1827.8330833334401</v>
       </c>
       <c r="CA11" s="4">
         <v>0</v>
       </c>
       <c r="CB11" s="4">
-        <v>0</v>
+        <v>331.943208333337</v>
       </c>
       <c r="CC11" s="4">
-        <v>0</v>
+        <v>125.720499999995</v>
       </c>
       <c r="CD11" s="4">
-        <v>0</v>
+        <v>483.91800000006299</v>
       </c>
       <c r="CE11" s="4">
         <v>0</v>
       </c>
       <c r="CF11" s="4">
-        <v>0</v>
+        <v>74.519583333341799</v>
       </c>
       <c r="CG11" s="4">
-        <v>0</v>
+        <v>93.321291666710707</v>
       </c>
       <c r="CH11" s="4">
-        <v>0</v>
+        <v>9.3099166667088795</v>
       </c>
       <c r="CI11" s="4">
-        <v>0</v>
+        <v>1702.5249166666699</v>
       </c>
       <c r="CJ11" s="4">
         <v>0</v>
       </c>
       <c r="CK11" s="4">
-        <v>0</v>
+        <v>154.81349999998901</v>
       </c>
       <c r="CL11" s="4">
-        <v>0</v>
+        <v>44.025916666665502</v>
       </c>
       <c r="CM11" s="4">
-        <v>0</v>
+        <v>405.12808333325597</v>
       </c>
       <c r="CN11" s="4">
-        <v>0</v>
+        <v>21.5253333333239</v>
       </c>
       <c r="CO11" s="4">
         <v>0</v>
@@ -8426,10 +8578,10 @@
         <v>0</v>
       </c>
       <c r="CQ11" s="4">
-        <v>0</v>
+        <v>89.185000000026704</v>
       </c>
       <c r="CR11" s="4">
-        <v>0</v>
+        <v>4.0491666666639503</v>
       </c>
       <c r="CS11" s="4">
         <v>0</v>
@@ -8446,289 +8598,295 @@
       <c r="CW11" s="4">
         <v>0</v>
       </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>52435.6742500006</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>38836.915416670498</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>33073.459583338299</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>42430.198291663997</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>20120.150833333799</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>21681.841333333399</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>34556.683374998604</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>27294.738499999599</v>
       </c>
       <c r="J12" s="4">
-        <v>0</v>
+        <v>20648.126916664602</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>19956.420166664699</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>18045.438249999599</v>
       </c>
       <c r="M12" s="4">
-        <v>0</v>
+        <v>23480.030333332699</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
+        <v>15624.7134166663</v>
       </c>
       <c r="O12" s="4">
-        <v>0</v>
+        <v>12496.2153750001</v>
       </c>
       <c r="P12" s="4">
-        <v>0</v>
+        <v>13412.6210416662</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>12854.0627083332</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>16362.339666665501</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>2897.0603333334998</v>
       </c>
       <c r="T12" s="4">
-        <v>0</v>
+        <v>13461.936749999601</v>
       </c>
       <c r="U12" s="4">
-        <v>0</v>
+        <v>18607.2152083334</v>
       </c>
       <c r="V12" s="4">
-        <v>0</v>
+        <v>7282.7255000000496</v>
       </c>
       <c r="W12" s="4">
-        <v>0</v>
+        <v>11166.279708333101</v>
       </c>
       <c r="X12" s="4">
-        <v>0</v>
+        <v>4789.3615833331696</v>
       </c>
       <c r="Y12" s="4">
-        <v>0</v>
+        <v>15952.660250000001</v>
       </c>
       <c r="Z12" s="4">
-        <v>0</v>
+        <v>9438.1645000003009</v>
       </c>
       <c r="AA12" s="4">
-        <v>0</v>
+        <v>7940.67920833267</v>
       </c>
       <c r="AB12" s="4">
-        <v>0</v>
+        <v>12763.180749999899</v>
       </c>
       <c r="AC12" s="4">
-        <v>0</v>
+        <v>3011.6570000000902</v>
       </c>
       <c r="AD12" s="4">
-        <v>0</v>
+        <v>10999.936583332999</v>
       </c>
       <c r="AE12" s="4">
-        <v>0</v>
+        <v>5318.0796666665701</v>
       </c>
       <c r="AF12" s="4">
-        <v>0</v>
+        <v>1658.4568333334701</v>
       </c>
       <c r="AG12" s="4">
-        <v>0</v>
+        <v>9737.4286249999695</v>
       </c>
       <c r="AH12" s="4">
-        <v>0</v>
+        <v>8858.8092499998093</v>
       </c>
       <c r="AI12" s="4">
-        <v>0</v>
+        <v>9533.4440416664493</v>
       </c>
       <c r="AJ12" s="4">
-        <v>0</v>
+        <v>5498.9145000001799</v>
       </c>
       <c r="AK12" s="4">
-        <v>0</v>
+        <v>10613.790833333</v>
       </c>
       <c r="AL12" s="4">
-        <v>0</v>
+        <v>7155.9063333338099</v>
       </c>
       <c r="AM12" s="4">
-        <v>0</v>
+        <v>2938.60699999996</v>
       </c>
       <c r="AN12" s="4">
-        <v>0</v>
+        <v>5289.70895833332</v>
       </c>
       <c r="AO12" s="4">
-        <v>0</v>
+        <v>8011.0396249998503</v>
       </c>
       <c r="AP12" s="4">
-        <v>0</v>
+        <v>3582.2010000003502</v>
       </c>
       <c r="AQ12" s="4">
-        <v>0</v>
+        <v>2608.2453333332301</v>
       </c>
       <c r="AR12" s="4">
-        <v>0</v>
+        <v>6461.6434166664803</v>
       </c>
       <c r="AS12" s="4">
-        <v>0</v>
+        <v>2262.9457499998298</v>
       </c>
       <c r="AT12" s="4">
-        <v>0</v>
+        <v>6887.1590833335604</v>
       </c>
       <c r="AU12" s="4">
-        <v>0</v>
+        <v>4096.9865833325302</v>
       </c>
       <c r="AV12" s="4">
-        <v>0</v>
+        <v>2755.2175833332799</v>
       </c>
       <c r="AW12" s="4">
-        <v>0</v>
+        <v>1897.2479999999</v>
       </c>
       <c r="AX12" s="4">
-        <v>0</v>
+        <v>3744.2073333333801</v>
       </c>
       <c r="AY12" s="4">
-        <v>0</v>
+        <v>3472.0464166667002</v>
       </c>
       <c r="AZ12" s="4">
-        <v>0</v>
+        <v>2179.4037499999099</v>
       </c>
       <c r="BA12" s="4">
-        <v>0</v>
+        <v>864.37804166664102</v>
       </c>
       <c r="BB12" s="4">
-        <v>0</v>
+        <v>2378.3941249999598</v>
       </c>
       <c r="BC12" s="4">
-        <v>0</v>
+        <v>7391.6622499999303</v>
       </c>
       <c r="BD12" s="4">
-        <v>0</v>
+        <v>3693.6235833337901</v>
       </c>
       <c r="BE12" s="4">
-        <v>0</v>
+        <v>1501.4400000000601</v>
       </c>
       <c r="BF12" s="4">
-        <v>0</v>
+        <v>2190.3163749999899</v>
       </c>
       <c r="BG12" s="4">
-        <v>0</v>
+        <v>8404.6693333333496</v>
       </c>
       <c r="BH12" s="4">
-        <v>0</v>
+        <v>3436.90058333356</v>
       </c>
       <c r="BI12" s="4">
-        <v>0</v>
+        <v>1398.7617500000599</v>
       </c>
       <c r="BJ12" s="4">
-        <v>0</v>
+        <v>3901.97616666677</v>
       </c>
       <c r="BK12" s="4">
-        <v>0</v>
+        <v>1831.5245833334</v>
       </c>
       <c r="BL12" s="4">
-        <v>0</v>
+        <v>2556.8192083333802</v>
       </c>
       <c r="BM12" s="4">
-        <v>0</v>
+        <v>5061.4819166666402</v>
       </c>
       <c r="BN12" s="4">
-        <v>0</v>
+        <v>998.83483333326797</v>
       </c>
       <c r="BO12" s="4">
-        <v>0</v>
+        <v>2136.02529166667</v>
       </c>
       <c r="BP12" s="4">
-        <v>0</v>
+        <v>273.069500000012</v>
       </c>
       <c r="BQ12" s="4">
-        <v>0</v>
+        <v>528.27891666674896</v>
       </c>
       <c r="BR12" s="4">
-        <v>0</v>
+        <v>1569.65275</v>
       </c>
       <c r="BS12" s="4">
-        <v>0</v>
+        <v>1120.6861666667301</v>
       </c>
       <c r="BT12" s="4">
-        <v>0</v>
+        <v>1237.2134166666599</v>
       </c>
       <c r="BU12" s="4">
-        <v>0</v>
+        <v>117.560166666662</v>
       </c>
       <c r="BV12" s="4">
-        <v>0</v>
+        <v>1058.0791666667201</v>
       </c>
       <c r="BW12" s="4">
-        <v>0</v>
+        <v>862.19533333339496</v>
       </c>
       <c r="BX12" s="4">
-        <v>0</v>
+        <v>306.12749999994401</v>
       </c>
       <c r="BY12" s="4">
-        <v>0</v>
+        <v>1285.8130000000201</v>
       </c>
       <c r="BZ12" s="4">
-        <v>0</v>
+        <v>62.013666666694903</v>
       </c>
       <c r="CA12" s="4">
-        <v>0</v>
+        <v>1284.5693333333099</v>
       </c>
       <c r="CB12" s="4">
-        <v>0</v>
+        <v>769.24733333324502</v>
       </c>
       <c r="CC12" s="4">
-        <v>0</v>
+        <v>649.17649999994296</v>
       </c>
       <c r="CD12" s="4">
-        <v>0</v>
+        <v>228.25737500004399</v>
       </c>
       <c r="CE12" s="4">
         <v>0</v>
       </c>
       <c r="CF12" s="4">
-        <v>0</v>
+        <v>39.879666666733101</v>
       </c>
       <c r="CG12" s="4">
-        <v>0</v>
+        <v>1029.8232500000099</v>
       </c>
       <c r="CH12" s="4">
-        <v>0</v>
+        <v>198.22900000005001</v>
       </c>
       <c r="CI12" s="4">
         <v>0</v>
       </c>
       <c r="CJ12" s="4">
-        <v>0</v>
+        <v>901.72241666662705</v>
       </c>
       <c r="CK12" s="4">
-        <v>0</v>
+        <v>588.90849999999</v>
       </c>
       <c r="CL12" s="4">
         <v>0</v>
       </c>
       <c r="CM12" s="4">
-        <v>0</v>
+        <v>324.10166666645</v>
       </c>
       <c r="CN12" s="4">
-        <v>0</v>
+        <v>428.34991666665798</v>
       </c>
       <c r="CO12" s="4">
         <v>0</v>
       </c>
       <c r="CP12" s="4">
-        <v>0</v>
+        <v>64.387333333317599</v>
       </c>
       <c r="CQ12" s="4">
         <v>0</v>
@@ -8751,292 +8909,298 @@
       <c r="CW12" s="4">
         <v>0</v>
       </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44275</v>
+        <v>44279</v>
       </c>
       <c r="B13" s="4">
-        <v>0</v>
+        <v>49128.752749999898</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>46073.438000002403</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>52094.616666668997</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>30661.939333332401</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>24382.3619166715</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>24450.925333333402</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>25395.489291665101</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>19730.108791665101</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>26382.914208332499</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>17404.237041669399</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>26842.216958335099</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>21614.143583333898</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
+        <v>18105.4058333336</v>
       </c>
       <c r="O13" s="4">
-        <v>0</v>
+        <v>11107.072000001001</v>
       </c>
       <c r="P13" s="4">
-        <v>0</v>
+        <v>8769.3902083344292</v>
       </c>
       <c r="Q13" s="4">
-        <v>0</v>
+        <v>10133.1889999998</v>
       </c>
       <c r="R13" s="4">
-        <v>0</v>
+        <v>9529.4481249996406</v>
       </c>
       <c r="S13" s="4">
-        <v>0</v>
+        <v>12585.634249999999</v>
       </c>
       <c r="T13" s="4">
-        <v>0</v>
+        <v>14007.857416667701</v>
       </c>
       <c r="U13" s="4">
-        <v>0</v>
+        <v>18237.674958333799</v>
       </c>
       <c r="V13" s="4">
-        <v>0</v>
+        <v>8974.8214166670805</v>
       </c>
       <c r="W13" s="4">
-        <v>0</v>
+        <v>12772.4430416666</v>
       </c>
       <c r="X13" s="4">
-        <v>0</v>
+        <v>10907.8750833334</v>
       </c>
       <c r="Y13" s="4">
-        <v>0</v>
+        <v>8628.5717916666708</v>
       </c>
       <c r="Z13" s="4">
-        <v>0</v>
+        <v>14657.6105416666</v>
       </c>
       <c r="AA13" s="4">
-        <v>0</v>
+        <v>10945.330958333499</v>
       </c>
       <c r="AB13" s="4">
-        <v>0</v>
+        <v>8241.7305416668496</v>
       </c>
       <c r="AC13" s="4">
-        <v>0</v>
+        <v>19009.656666666699</v>
       </c>
       <c r="AD13" s="4">
-        <v>0</v>
+        <v>11173.940249999499</v>
       </c>
       <c r="AE13" s="4">
-        <v>0</v>
+        <v>7210.25766666661</v>
       </c>
       <c r="AF13" s="4">
-        <v>0</v>
+        <v>12432.3432500006</v>
       </c>
       <c r="AG13" s="4">
-        <v>0</v>
+        <v>7782.1519166665603</v>
       </c>
       <c r="AH13" s="4">
-        <v>0</v>
+        <v>8165.1262500001403</v>
       </c>
       <c r="AI13" s="4">
-        <v>0</v>
+        <v>8720.89141666662</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0</v>
+        <v>4663.7434166676803</v>
       </c>
       <c r="AK13" s="4">
-        <v>0</v>
+        <v>5060.6526250008001</v>
       </c>
       <c r="AL13" s="4">
-        <v>0</v>
+        <v>6909.35379166645</v>
       </c>
       <c r="AM13" s="4">
-        <v>0</v>
+        <v>7151.3774166667099</v>
       </c>
       <c r="AN13" s="4">
-        <v>0</v>
+        <v>8312.6518749999796</v>
       </c>
       <c r="AO13" s="4">
-        <v>0</v>
+        <v>4591.0552083336497</v>
       </c>
       <c r="AP13" s="4">
-        <v>0</v>
+        <v>4989.0248749991797</v>
       </c>
       <c r="AQ13" s="4">
-        <v>0</v>
+        <v>1533.72716666667</v>
       </c>
       <c r="AR13" s="4">
-        <v>0</v>
+        <v>5816.4003333331202</v>
       </c>
       <c r="AS13" s="4">
-        <v>0</v>
+        <v>583.86908333306201</v>
       </c>
       <c r="AT13" s="4">
-        <v>0</v>
+        <v>4321.5717500000001</v>
       </c>
       <c r="AU13" s="4">
-        <v>0</v>
+        <v>4343.1379999993296</v>
       </c>
       <c r="AV13" s="4">
-        <v>0</v>
+        <v>3954.3967916667398</v>
       </c>
       <c r="AW13" s="4">
-        <v>0</v>
+        <v>2760.3644999999001</v>
       </c>
       <c r="AX13" s="4">
-        <v>0</v>
+        <v>5148.8048750000298</v>
       </c>
       <c r="AY13" s="4">
-        <v>0</v>
+        <v>3033.1433750003298</v>
       </c>
       <c r="AZ13" s="4">
-        <v>0</v>
+        <v>2458.5165000000202</v>
       </c>
       <c r="BA13" s="4">
-        <v>0</v>
+        <v>2535.4964999999702</v>
       </c>
       <c r="BB13" s="4">
-        <v>0</v>
+        <v>2747.82070833334</v>
       </c>
       <c r="BC13" s="4">
-        <v>0</v>
+        <v>2581.9412500000299</v>
       </c>
       <c r="BD13" s="4">
-        <v>0</v>
+        <v>3760.97849999961</v>
       </c>
       <c r="BE13" s="4">
-        <v>0</v>
+        <v>3428.7665416668101</v>
       </c>
       <c r="BF13" s="4">
-        <v>0</v>
+        <v>4555.1287916667297</v>
       </c>
       <c r="BG13" s="4">
-        <v>0</v>
+        <v>3926.7346666667099</v>
       </c>
       <c r="BH13" s="4">
-        <v>0</v>
+        <v>6485.8921250000103</v>
       </c>
       <c r="BI13" s="4">
-        <v>0</v>
+        <v>1981.4917500000399</v>
       </c>
       <c r="BJ13" s="4">
-        <v>0</v>
+        <v>2387.5818333331199</v>
       </c>
       <c r="BK13" s="4">
-        <v>0</v>
+        <v>1434.1434999999999</v>
       </c>
       <c r="BL13" s="4">
-        <v>0</v>
+        <v>2096.0346666662899</v>
       </c>
       <c r="BM13" s="4">
-        <v>0</v>
+        <v>3960.0579166667299</v>
       </c>
       <c r="BN13" s="4">
-        <v>0</v>
+        <v>1791.7295416666</v>
       </c>
       <c r="BO13" s="4">
-        <v>0</v>
+        <v>798.42916666663905</v>
       </c>
       <c r="BP13" s="4">
-        <v>0</v>
+        <v>3523.9989166667201</v>
       </c>
       <c r="BQ13" s="4">
-        <v>0</v>
+        <v>3019.7489999998902</v>
       </c>
       <c r="BR13" s="4">
-        <v>0</v>
+        <v>2827.1931666666301</v>
       </c>
       <c r="BS13" s="4">
-        <v>0</v>
+        <v>738.611458333325</v>
       </c>
       <c r="BT13" s="4">
-        <v>0</v>
+        <v>2030.5398333333101</v>
       </c>
       <c r="BU13" s="4">
-        <v>0</v>
+        <v>70.287583333323695</v>
       </c>
       <c r="BV13" s="4">
-        <v>0</v>
+        <v>1643.12691666674</v>
       </c>
       <c r="BW13" s="4">
-        <v>0</v>
+        <v>1920.96816666668</v>
       </c>
       <c r="BX13" s="4">
-        <v>0</v>
+        <v>908.84050000004902</v>
       </c>
       <c r="BY13" s="4">
-        <v>0</v>
+        <v>730.68600000004506</v>
       </c>
       <c r="BZ13" s="4">
-        <v>0</v>
+        <v>2457.3813333333201</v>
       </c>
       <c r="CA13" s="4">
-        <v>0</v>
+        <v>2937.9421666666699</v>
       </c>
       <c r="CB13" s="4">
-        <v>0</v>
+        <v>921.34354166686501</v>
       </c>
       <c r="CC13" s="4">
         <v>0</v>
       </c>
       <c r="CD13" s="4">
-        <v>0</v>
+        <v>768.64825000002702</v>
       </c>
       <c r="CE13" s="4">
         <v>0</v>
       </c>
       <c r="CF13" s="4">
-        <v>0</v>
+        <v>1054.3756666666</v>
       </c>
       <c r="CG13" s="4">
-        <v>0</v>
+        <v>908.04041666653904</v>
       </c>
       <c r="CH13" s="4">
-        <v>0</v>
+        <v>380.64816666662199</v>
       </c>
       <c r="CI13" s="4">
-        <v>0</v>
+        <v>68.980166666733496</v>
       </c>
       <c r="CJ13" s="4">
-        <v>0</v>
+        <v>683.19833333336203</v>
       </c>
       <c r="CK13" s="4">
-        <v>0</v>
+        <v>1341.45933333327</v>
       </c>
       <c r="CL13" s="4">
         <v>0</v>
       </c>
       <c r="CM13" s="4">
-        <v>0</v>
+        <v>497.14150000002701</v>
       </c>
       <c r="CN13" s="4">
         <v>0</v>
       </c>
       <c r="CO13" s="4">
-        <v>0</v>
+        <v>493.36058333332699</v>
       </c>
       <c r="CP13" s="4">
         <v>0</v>
       </c>
       <c r="CQ13" s="4">
-        <v>0</v>
+        <v>39.975333333335499</v>
       </c>
       <c r="CR13" s="4">
         <v>0</v>
@@ -9056,286 +9220,292 @@
       <c r="CW13" s="4">
         <v>0</v>
       </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44276</v>
+        <v>44280</v>
       </c>
       <c r="B14" s="4">
-        <v>37873.394708333602</v>
+        <v>49099.168458329899</v>
       </c>
       <c r="C14" s="4">
-        <v>18157.3198333336</v>
+        <v>48035.785583335397</v>
       </c>
       <c r="D14" s="4">
-        <v>26706.375625000299</v>
+        <v>26850.901333330199</v>
       </c>
       <c r="E14" s="4">
-        <v>12881.061833334101</v>
+        <v>29110.5154166664</v>
       </c>
       <c r="F14" s="4">
-        <v>21564.589833337301</v>
+        <v>32879.897375001099</v>
       </c>
       <c r="G14" s="4">
-        <v>12056.919583332899</v>
+        <v>35589.752749999898</v>
       </c>
       <c r="H14" s="4">
-        <v>14766.6431666682</v>
+        <v>30384.824666668101</v>
       </c>
       <c r="I14" s="4">
-        <v>22905.839000000298</v>
+        <v>29318.8057083331</v>
       </c>
       <c r="J14" s="4">
-        <v>14681.413500001599</v>
+        <v>21838.098458336201</v>
       </c>
       <c r="K14" s="4">
-        <v>20104.056041666699</v>
+        <v>23487.958333337199</v>
       </c>
       <c r="L14" s="4">
-        <v>12499.2520833339</v>
+        <v>22048.197666666401</v>
       </c>
       <c r="M14" s="4">
-        <v>11316.177583332101</v>
+        <v>17458.407291666401</v>
       </c>
       <c r="N14" s="4">
-        <v>1168.46741666668</v>
+        <v>9848.7068333339394</v>
       </c>
       <c r="O14" s="4">
-        <v>9281.9406250007396</v>
+        <v>22317.610000001201</v>
       </c>
       <c r="P14" s="4">
-        <v>5061.6539166666298</v>
+        <v>19605.998624999502</v>
       </c>
       <c r="Q14" s="4">
-        <v>5141.0767500000002</v>
+        <v>18094.7755</v>
       </c>
       <c r="R14" s="4">
-        <v>6385.1477500002302</v>
+        <v>19628.533416666502</v>
       </c>
       <c r="S14" s="4">
-        <v>6681.7464999999502</v>
+        <v>12031.1159166665</v>
       </c>
       <c r="T14" s="4">
-        <v>7527.9286666663802</v>
+        <v>11559.919833333401</v>
       </c>
       <c r="U14" s="4">
-        <v>5574.3505833331701</v>
+        <v>19111.469791666601</v>
       </c>
       <c r="V14" s="4">
-        <v>7165.9712500001697</v>
+        <v>10007.659083333399</v>
       </c>
       <c r="W14" s="4">
-        <v>4554.0888333334497</v>
+        <v>13294.5007916666</v>
       </c>
       <c r="X14" s="4">
-        <v>2024.9287499997299</v>
+        <v>11459.295625000001</v>
       </c>
       <c r="Y14" s="4">
-        <v>8876.5737083333606</v>
+        <v>6780.7051666667103</v>
       </c>
       <c r="Z14" s="4">
-        <v>12920.4055833333</v>
+        <v>10266.039416666399</v>
       </c>
       <c r="AA14" s="4">
-        <v>8656.3850000001803</v>
+        <v>11256.084208333599</v>
       </c>
       <c r="AB14" s="4">
-        <v>5056.9416666666502</v>
+        <v>4883.2377500005496</v>
       </c>
       <c r="AC14" s="4">
-        <v>3384.4261666666398</v>
+        <v>17290.817000000101</v>
       </c>
       <c r="AD14" s="4">
-        <v>8245.4192083333892</v>
+        <v>8628.5842499999508</v>
       </c>
       <c r="AE14" s="4">
-        <v>7275.9641250003997</v>
+        <v>8157.19333333335</v>
       </c>
       <c r="AF14" s="4">
-        <v>8960.9775000002701</v>
+        <v>7148.20133333373</v>
       </c>
       <c r="AG14" s="4">
-        <v>4745.9350000001104</v>
+        <v>9478.6436666666705</v>
       </c>
       <c r="AH14" s="4">
-        <v>8935.3363749993696</v>
+        <v>7192.4098750000703</v>
       </c>
       <c r="AI14" s="4">
-        <v>8707.0500000000393</v>
+        <v>8363.4582499998996</v>
       </c>
       <c r="AJ14" s="4">
-        <v>1817.4911666666401</v>
+        <v>5368.8046666649097</v>
       </c>
       <c r="AK14" s="4">
-        <v>1554.41133333329</v>
+        <v>6614.1592916662303</v>
       </c>
       <c r="AL14" s="4">
-        <v>3560.7674999999499</v>
+        <v>6434.01616666675</v>
       </c>
       <c r="AM14" s="4">
-        <v>1513.9888333333599</v>
+        <v>4261.2033333336003</v>
       </c>
       <c r="AN14" s="4">
-        <v>6108.6891666664696</v>
+        <v>10053.108458333299</v>
       </c>
       <c r="AO14" s="4">
-        <v>691.353000000002</v>
+        <v>7311.1951250003103</v>
       </c>
       <c r="AP14" s="4">
-        <v>1162.3101666667401</v>
+        <v>7976.3085833340801</v>
       </c>
       <c r="AQ14" s="4">
-        <v>2350.78379166778</v>
+        <v>2681.4474166666901</v>
       </c>
       <c r="AR14" s="4">
-        <v>1951.6608333332599</v>
+        <v>6718.02116666658</v>
       </c>
       <c r="AS14" s="4">
-        <v>4873.6473333332897</v>
+        <v>4078.9825000000401</v>
       </c>
       <c r="AT14" s="4">
-        <v>3923.0678333332698</v>
+        <v>2550.1818749998902</v>
       </c>
       <c r="AU14" s="4">
-        <v>0</v>
+        <v>6593.0125833337597</v>
       </c>
       <c r="AV14" s="4">
-        <v>0</v>
+        <v>987.24791666661599</v>
       </c>
       <c r="AW14" s="4">
-        <v>444.07641666667701</v>
+        <v>3618.0218333333</v>
       </c>
       <c r="AX14" s="4">
-        <v>201.12741666659699</v>
+        <v>3656.3583333333299</v>
       </c>
       <c r="AY14" s="4">
-        <v>2330.7169999999701</v>
+        <v>3069.4685833332401</v>
       </c>
       <c r="AZ14" s="4">
-        <v>861.05187500000397</v>
+        <v>647.13275000001795</v>
       </c>
       <c r="BA14" s="4">
-        <v>653.94983333325899</v>
+        <v>5933.9284583331901</v>
       </c>
       <c r="BB14" s="4">
-        <v>2404.4963333332498</v>
+        <v>4813.34454166662</v>
       </c>
       <c r="BC14" s="4">
-        <v>1405.0066666667699</v>
+        <v>1981.87037499999</v>
       </c>
       <c r="BD14" s="4">
-        <v>889.39700000011305</v>
+        <v>5077.4462916667098</v>
       </c>
       <c r="BE14" s="4">
-        <v>1060.43783333327</v>
+        <v>2669.6581250000099</v>
       </c>
       <c r="BF14" s="4">
-        <v>1077.1712499999801</v>
+        <v>5068.3644583334599</v>
       </c>
       <c r="BG14" s="4">
-        <v>49.055499999987603</v>
+        <v>1794.7284999999899</v>
       </c>
       <c r="BH14" s="4">
-        <v>589.39325000002202</v>
+        <v>1144.5299999997901</v>
       </c>
       <c r="BI14" s="4">
-        <v>302.49316666665197</v>
+        <v>2422.54316666658</v>
       </c>
       <c r="BJ14" s="4">
-        <v>2576.4274166666401</v>
+        <v>420.48041666665802</v>
       </c>
       <c r="BK14" s="4">
-        <v>0</v>
+        <v>5060.6640833332403</v>
       </c>
       <c r="BL14" s="4">
-        <v>0</v>
+        <v>3102.9920833333699</v>
       </c>
       <c r="BM14" s="4">
-        <v>1923.6121250000399</v>
+        <v>2832.89433333324</v>
       </c>
       <c r="BN14" s="4">
-        <v>0</v>
+        <v>747.28179166660902</v>
       </c>
       <c r="BO14" s="4">
-        <v>1589.73124999995</v>
+        <v>1334.8908750000101</v>
       </c>
       <c r="BP14" s="4">
-        <v>1990.8704166667301</v>
+        <v>368.50066666668801</v>
       </c>
       <c r="BQ14" s="4">
-        <v>367.53775000001701</v>
+        <v>903.22841666667898</v>
       </c>
       <c r="BR14" s="4">
-        <v>2098.4344166667101</v>
+        <v>283.04591666668398</v>
       </c>
       <c r="BS14" s="4">
-        <v>0</v>
+        <v>2104.5344583332699</v>
       </c>
       <c r="BT14" s="4">
-        <v>0</v>
+        <v>3271.0063749999899</v>
       </c>
       <c r="BU14" s="4">
-        <v>1027.9227083334099</v>
+        <v>2806.97166666662</v>
       </c>
       <c r="BV14" s="4">
-        <v>863.79699999996205</v>
+        <v>2367.5816666665401</v>
       </c>
       <c r="BW14" s="4">
-        <v>986.88091666664695</v>
+        <v>2259.8890833333699</v>
       </c>
       <c r="BX14" s="4">
-        <v>0</v>
+        <v>1610.6316666668199</v>
       </c>
       <c r="BY14" s="4">
-        <v>0</v>
+        <v>1122.8677916667</v>
       </c>
       <c r="BZ14" s="4">
-        <v>379.81091666669801</v>
+        <v>0</v>
       </c>
       <c r="CA14" s="4">
-        <v>104.01650000002699</v>
+        <v>714.99358333332896</v>
       </c>
       <c r="CB14" s="4">
-        <v>228.68616666668001</v>
+        <v>1317.3508333332099</v>
       </c>
       <c r="CC14" s="4">
-        <v>0</v>
+        <v>1560.05925000004</v>
       </c>
       <c r="CD14" s="4">
-        <v>121.270666666678</v>
+        <v>718.15333333332001</v>
       </c>
       <c r="CE14" s="4">
-        <v>0</v>
+        <v>480.633166666666</v>
       </c>
       <c r="CF14" s="4">
-        <v>0</v>
+        <v>1477.1261666666801</v>
       </c>
       <c r="CG14" s="4">
-        <v>0</v>
+        <v>820.25791666645</v>
       </c>
       <c r="CH14" s="4">
-        <v>148.27558333333499</v>
+        <v>2223.59508333343</v>
       </c>
       <c r="CI14" s="4">
-        <v>12.674750000005499</v>
+        <v>263.55316666659201</v>
       </c>
       <c r="CJ14" s="4">
-        <v>21.8462500000023</v>
+        <v>787.04216666653497</v>
       </c>
       <c r="CK14" s="4">
-        <v>0</v>
+        <v>43.306833333335803</v>
       </c>
       <c r="CL14" s="4">
         <v>0</v>
       </c>
       <c r="CM14" s="4">
-        <v>5.7264999999897501</v>
+        <v>6.2046666666865304</v>
       </c>
       <c r="CN14" s="4">
         <v>0</v>
       </c>
       <c r="CO14" s="4">
-        <v>0</v>
+        <v>312.28508333334997</v>
       </c>
       <c r="CP14" s="4">
         <v>0</v>
@@ -9361,289 +9531,295 @@
       <c r="CW14" s="4">
         <v>0</v>
       </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44277</v>
+        <v>44281</v>
       </c>
       <c r="B15" s="4">
-        <v>61085.008833330998</v>
+        <v>45383.742500001099</v>
       </c>
       <c r="C15" s="4">
-        <v>43285.042416663797</v>
+        <v>43996.368750000103</v>
       </c>
       <c r="D15" s="4">
-        <v>24379.713583330598</v>
+        <v>35456.3450833358</v>
       </c>
       <c r="E15" s="4">
-        <v>32810.372625001</v>
+        <v>25408.195083332899</v>
       </c>
       <c r="F15" s="4">
-        <v>29056.325083334901</v>
+        <v>44091.354416674898</v>
       </c>
       <c r="G15" s="4">
-        <v>36267.998916667602</v>
+        <v>26372.716083333002</v>
       </c>
       <c r="H15" s="4">
-        <v>30235.770875002199</v>
+        <v>22464.659666665801</v>
       </c>
       <c r="I15" s="4">
-        <v>20316.293458334101</v>
+        <v>11525.584500000101</v>
       </c>
       <c r="J15" s="4">
-        <v>28963.6409166669</v>
+        <v>23420.317208330998</v>
       </c>
       <c r="K15" s="4">
-        <v>25227.122250000401</v>
+        <v>8246.8651250009407</v>
       </c>
       <c r="L15" s="4">
-        <v>17256.937541666601</v>
+        <v>19761.238666665002</v>
       </c>
       <c r="M15" s="4">
-        <v>20531.863458334199</v>
+        <v>20964.8523333335</v>
       </c>
       <c r="N15" s="4">
-        <v>25708.218499999901</v>
+        <v>10346.876916666601</v>
       </c>
       <c r="O15" s="4">
-        <v>12166.7192500028</v>
+        <v>10184.969583333899</v>
       </c>
       <c r="P15" s="4">
-        <v>12827.865375000099</v>
+        <v>17432.859291667799</v>
       </c>
       <c r="Q15" s="4">
-        <v>19251.677583334</v>
+        <v>15936.1447916668</v>
       </c>
       <c r="R15" s="4">
-        <v>16595.9295833332</v>
+        <v>8220.58083333377</v>
       </c>
       <c r="S15" s="4">
-        <v>14327.203666666601</v>
+        <v>23145.726708333299</v>
       </c>
       <c r="T15" s="4">
-        <v>11146.7843333333</v>
+        <v>7687.4387916654796</v>
       </c>
       <c r="U15" s="4">
-        <v>10257.8915000003</v>
+        <v>7189.2063333333899</v>
       </c>
       <c r="V15" s="4">
-        <v>6216.9634166667201</v>
+        <v>17157.7697500006</v>
       </c>
       <c r="W15" s="4">
-        <v>12608.1021250009</v>
+        <v>8593.4019583333193</v>
       </c>
       <c r="X15" s="4">
-        <v>13104.470791666001</v>
+        <v>9775.7090000002609</v>
       </c>
       <c r="Y15" s="4">
-        <v>8564.2557083330994</v>
+        <v>12640.5952499998</v>
       </c>
       <c r="Z15" s="4">
-        <v>3573.7411666661501</v>
+        <v>908.98691666661705</v>
       </c>
       <c r="AA15" s="4">
-        <v>4986.8347083333601</v>
+        <v>5106.7866666668497</v>
       </c>
       <c r="AB15" s="4">
-        <v>10113.091916666801</v>
+        <v>899.87391666672102</v>
       </c>
       <c r="AC15" s="4">
-        <v>11019.671333333299</v>
+        <v>11388.1155833332</v>
       </c>
       <c r="AD15" s="4">
-        <v>6555.9071666666396</v>
+        <v>1409.6129166665401</v>
       </c>
       <c r="AE15" s="4">
-        <v>6735.7432916667303</v>
+        <v>8735.3269166666705</v>
       </c>
       <c r="AF15" s="4">
-        <v>5058.6659166668496</v>
+        <v>8299.9048333335595</v>
       </c>
       <c r="AG15" s="4">
-        <v>8460.3797916664007</v>
+        <v>5289.0470000000196</v>
       </c>
       <c r="AH15" s="4">
-        <v>4551.8728333335603</v>
+        <v>13165.5974166668</v>
       </c>
       <c r="AI15" s="4">
-        <v>3888.1359999999399</v>
+        <v>7748.5450833333298</v>
       </c>
       <c r="AJ15" s="4">
-        <v>9759.3481666666303</v>
+        <v>7515.7487083333499</v>
       </c>
       <c r="AK15" s="4">
-        <v>6208.3639999998804</v>
+        <v>2350.76233333256</v>
       </c>
       <c r="AL15" s="4">
-        <v>7752.5921666671002</v>
+        <v>4726.5457500003904</v>
       </c>
       <c r="AM15" s="4">
-        <v>8927.0539166668295</v>
+        <v>2975.2155000000398</v>
       </c>
       <c r="AN15" s="4">
-        <v>4805.15625000005</v>
+        <v>5984.7307083332198</v>
       </c>
       <c r="AO15" s="4">
-        <v>8941.8284583331497</v>
+        <v>6377.1047083336098</v>
       </c>
       <c r="AP15" s="4">
-        <v>6636.5594999997402</v>
+        <v>4611.9868333332697</v>
       </c>
       <c r="AQ15" s="4">
-        <v>6862.2510833332699</v>
+        <v>6104.1135833332901</v>
       </c>
       <c r="AR15" s="4">
-        <v>7312.1516666667303</v>
+        <v>5122.6721666666499</v>
       </c>
       <c r="AS15" s="4">
-        <v>3678.3782499999502</v>
+        <v>6653.3223333340102</v>
       </c>
       <c r="AT15" s="4">
-        <v>4198.2814166666003</v>
+        <v>2649.7884166665599</v>
       </c>
       <c r="AU15" s="4">
-        <v>7755.7297500001096</v>
+        <v>3452.2401666666801</v>
       </c>
       <c r="AV15" s="4">
-        <v>0</v>
+        <v>5250.4099999999698</v>
       </c>
       <c r="AW15" s="4">
-        <v>4449.5796250001004</v>
+        <v>1229.6330000001401</v>
       </c>
       <c r="AX15" s="4">
-        <v>6635.4685416657003</v>
+        <v>2472.7569999999801</v>
       </c>
       <c r="AY15" s="4">
-        <v>4051.82758333333</v>
+        <v>1489.82700000004</v>
       </c>
       <c r="AZ15" s="4">
-        <v>5169.8490833333299</v>
+        <v>7744.8233333334501</v>
       </c>
       <c r="BA15" s="4">
-        <v>5481.4508333331896</v>
+        <v>4820.4360833333003</v>
       </c>
       <c r="BB15" s="4">
-        <v>3497.39974999998</v>
+        <v>6112.9397083331396</v>
       </c>
       <c r="BC15" s="4">
-        <v>3995.0419999999499</v>
+        <v>2511.6590833334399</v>
       </c>
       <c r="BD15" s="4">
-        <v>1319.35916666669</v>
+        <v>5667.6620000007097</v>
       </c>
       <c r="BE15" s="4">
-        <v>3691.6816666662899</v>
+        <v>3484.75066666677</v>
       </c>
       <c r="BF15" s="4">
-        <v>3246.1810416666499</v>
+        <v>3030.2703333333402</v>
       </c>
       <c r="BG15" s="4">
-        <v>4726.5109999999904</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="4">
-        <v>4074.1119999999601</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="4">
-        <v>4015.1719166666699</v>
+        <v>2777.6029166665899</v>
       </c>
       <c r="BJ15" s="4">
-        <v>1140.67258333321</v>
+        <v>532.83091666665803</v>
       </c>
       <c r="BK15" s="4">
-        <v>3417.54449999998</v>
+        <v>1335.47479166672</v>
       </c>
       <c r="BL15" s="4">
-        <v>1491.6365000000201</v>
+        <v>1709.3871249997701</v>
       </c>
       <c r="BM15" s="4">
-        <v>949.47083333326702</v>
+        <v>443.58091666665803</v>
       </c>
       <c r="BN15" s="4">
-        <v>2551.6657916665999</v>
+        <v>1341.05158333331</v>
       </c>
       <c r="BO15" s="4">
-        <v>939.12900000001503</v>
+        <v>383.82241666666198</v>
       </c>
       <c r="BP15" s="4">
-        <v>493.73474999997399</v>
+        <v>795.90008333328296</v>
       </c>
       <c r="BQ15" s="4">
-        <v>1827.8330833334401</v>
+        <v>2651.7098333332101</v>
       </c>
       <c r="BR15" s="4">
-        <v>44.025916666665502</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="4">
-        <v>0</v>
+        <v>1574.2634583332599</v>
       </c>
       <c r="BT15" s="4">
-        <v>1702.5249166666699</v>
+        <v>987.64008333330196</v>
       </c>
       <c r="BU15" s="4">
-        <v>509.07541666674598</v>
+        <v>331.03200000000601</v>
       </c>
       <c r="BV15" s="4">
-        <v>21.5253333333239</v>
+        <v>948.44316666666396</v>
       </c>
       <c r="BW15" s="4">
-        <v>0</v>
+        <v>598.48333333327901</v>
       </c>
       <c r="BX15" s="4">
-        <v>331.943208333337</v>
+        <v>2884.7961666664301</v>
       </c>
       <c r="BY15" s="4">
-        <v>648.38916666668899</v>
+        <v>1488.9455416667599</v>
       </c>
       <c r="BZ15" s="4">
-        <v>483.91800000006299</v>
+        <v>297.48216666665297</v>
       </c>
       <c r="CA15" s="4">
-        <v>627.29795833345202</v>
+        <v>0</v>
       </c>
       <c r="CB15" s="4">
-        <v>405.12808333325597</v>
+        <v>1058.15162500017</v>
       </c>
       <c r="CC15" s="4">
-        <v>154.81349999998901</v>
+        <v>2018.16849999991</v>
       </c>
       <c r="CD15" s="4">
-        <v>93.321291666710707</v>
+        <v>1690.3838333333799</v>
       </c>
       <c r="CE15" s="4">
-        <v>358.19641666667297</v>
+        <v>2552.2417499999501</v>
       </c>
       <c r="CF15" s="4">
-        <v>289.39300000000998</v>
+        <v>1156.71716666664</v>
       </c>
       <c r="CG15" s="4">
-        <v>212.28758333344001</v>
+        <v>809.40758333343501</v>
       </c>
       <c r="CH15" s="4">
-        <v>0</v>
+        <v>102.92499999992999</v>
       </c>
       <c r="CI15" s="4">
-        <v>125.720499999995</v>
+        <v>820.40187499998103</v>
       </c>
       <c r="CJ15" s="4">
-        <v>74.519583333341799</v>
+        <v>197.098833333351</v>
       </c>
       <c r="CK15" s="4">
-        <v>113.123333333351</v>
+        <v>276.525166666659</v>
       </c>
       <c r="CL15" s="4">
-        <v>89.185000000026704</v>
+        <v>9.5073333333420997</v>
       </c>
       <c r="CM15" s="4">
-        <v>9.3099166667088795</v>
+        <v>0</v>
       </c>
       <c r="CN15" s="4">
-        <v>4.0491666666639503</v>
+        <v>0</v>
       </c>
       <c r="CO15" s="4">
         <v>0</v>
       </c>
       <c r="CP15" s="4">
-        <v>0</v>
+        <v>415.48750000001701</v>
       </c>
       <c r="CQ15" s="4">
         <v>0</v>
@@ -9666,238 +9842,244 @@
       <c r="CW15" s="4">
         <v>0</v>
       </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44278</v>
+        <v>44282</v>
       </c>
       <c r="B16" s="4">
-        <v>1161.51141666644</v>
+        <v>9834.0700833331794</v>
       </c>
       <c r="C16" s="4">
-        <v>7043.3914166670202</v>
+        <v>12058.1300000017</v>
       </c>
       <c r="D16" s="4">
-        <v>7371.7134166667201</v>
+        <v>9609.8206250006297</v>
       </c>
       <c r="E16" s="4">
-        <v>8261.1716666675602</v>
+        <v>7944.40808333316</v>
       </c>
       <c r="F16" s="4">
-        <v>3325.1587500004098</v>
+        <v>12954.7712499997</v>
       </c>
       <c r="G16" s="4">
-        <v>3157.56741666677</v>
+        <v>19904.018124999999</v>
       </c>
       <c r="H16" s="4">
-        <v>5009.7140833321</v>
+        <v>4115.9015000006102</v>
       </c>
       <c r="I16" s="4">
-        <v>3237.0175833335302</v>
+        <v>12630.2895416663</v>
       </c>
       <c r="J16" s="4">
-        <v>2196.9403333342598</v>
+        <v>2826.9185833330198</v>
       </c>
       <c r="K16" s="4">
-        <v>19.326000000000899</v>
+        <v>2821.99104166589</v>
       </c>
       <c r="L16" s="4">
-        <v>4488.6902500000997</v>
+        <v>467.28466666676098</v>
       </c>
       <c r="M16" s="4">
-        <v>2221.2032083335798</v>
+        <v>2369.2960833331999</v>
       </c>
       <c r="N16" s="4">
-        <v>341.181500000006</v>
+        <v>9017.7354166672994</v>
       </c>
       <c r="O16" s="4">
-        <v>5452.1712083336897</v>
+        <v>14619.7359583335</v>
       </c>
       <c r="P16" s="4">
-        <v>8004.9580416663002</v>
+        <v>10977.0528749979</v>
       </c>
       <c r="Q16" s="4">
-        <v>1270.7439999999399</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4">
-        <v>2221.7067499998898</v>
+        <v>7114.6987916668804</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>10203.557124999899</v>
       </c>
       <c r="T16" s="4">
-        <v>1230.92108333332</v>
+        <v>2598.1817083328401</v>
       </c>
       <c r="U16" s="4">
-        <v>3668.0169999998702</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4">
-        <v>5832.7922500003997</v>
+        <v>10634.5274166668</v>
       </c>
       <c r="W16" s="4">
-        <v>1971.4745833331201</v>
+        <v>2118.99774999992</v>
       </c>
       <c r="X16" s="4">
-        <v>3353.4443333334002</v>
+        <v>5489.0093750000797</v>
       </c>
       <c r="Y16" s="4">
-        <v>757.487916666606</v>
+        <v>2035.7115000000299</v>
       </c>
       <c r="Z16" s="4">
-        <v>483.83191666670598</v>
+        <v>3745.67666666675</v>
       </c>
       <c r="AA16" s="4">
-        <v>2521.81674999999</v>
+        <v>3978.6441666665401</v>
       </c>
       <c r="AB16" s="4">
-        <v>420.54833333322301</v>
+        <v>11337.704166666401</v>
       </c>
       <c r="AC16" s="4">
-        <v>944.58716666663497</v>
+        <v>2400.0540416666699</v>
       </c>
       <c r="AD16" s="4">
-        <v>0</v>
+        <v>682.52674999984401</v>
       </c>
       <c r="AE16" s="4">
-        <v>337.12787500000502</v>
+        <v>4137.4368333333396</v>
       </c>
       <c r="AF16" s="4">
-        <v>0</v>
+        <v>796.58466666657398</v>
       </c>
       <c r="AG16" s="4">
-        <v>463.21049999998598</v>
+        <v>62.307750000007204</v>
       </c>
       <c r="AH16" s="4">
-        <v>136.73283333331301</v>
+        <v>3935.9543750000798</v>
       </c>
       <c r="AI16" s="4">
-        <v>0</v>
+        <v>292.64358333329398</v>
       </c>
       <c r="AJ16" s="4">
-        <v>555.93937500001596</v>
+        <v>5345.7943750005197</v>
       </c>
       <c r="AK16" s="4">
-        <v>4071.6215833332899</v>
+        <v>1234.52966666664</v>
       </c>
       <c r="AL16" s="4">
-        <v>520.648250000085</v>
+        <v>251.50075000000601</v>
       </c>
       <c r="AM16" s="4">
-        <v>881.05341666657398</v>
+        <v>1259.7299583336501</v>
       </c>
       <c r="AN16" s="4">
-        <v>0</v>
+        <v>218.796583333314</v>
       </c>
       <c r="AO16" s="4">
-        <v>338.376000000163</v>
+        <v>616.32750000001397</v>
       </c>
       <c r="AP16" s="4">
-        <v>2158.0495000000801</v>
+        <v>2216.8813333336702</v>
       </c>
       <c r="AQ16" s="4">
-        <v>481.86774999997499</v>
+        <v>1688.6663333332899</v>
       </c>
       <c r="AR16" s="4">
-        <v>0</v>
+        <v>55.090666666626902</v>
       </c>
       <c r="AS16" s="4">
-        <v>648.51916666663601</v>
+        <v>1772.1536666668201</v>
       </c>
       <c r="AT16" s="4">
-        <v>576.91558333326202</v>
+        <v>418.59899999992899</v>
       </c>
       <c r="AU16" s="4">
-        <v>889.31033333332698</v>
+        <v>691.85050000040701</v>
       </c>
       <c r="AV16" s="4">
-        <v>7599.4369999999999</v>
+        <v>4231.5323749998897</v>
       </c>
       <c r="AW16" s="4">
-        <v>2459.9095000000002</v>
+        <v>1711.54391666676</v>
       </c>
       <c r="AX16" s="4">
-        <v>30.9081666665151</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="4">
-        <v>285.46966666664201</v>
+        <v>324.259250000002</v>
       </c>
       <c r="AZ16" s="4">
-        <v>169.97791666671401</v>
+        <v>178.147250000009</v>
       </c>
       <c r="BA16" s="4">
-        <v>0</v>
+        <v>258.00474999999199</v>
       </c>
       <c r="BB16" s="4">
-        <v>0</v>
+        <v>256.20033333334101</v>
       </c>
       <c r="BC16" s="4">
-        <v>344.09291666670401</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="4">
-        <v>3486.2311666666601</v>
+        <v>719.92016666638597</v>
       </c>
       <c r="BE16" s="4">
-        <v>424.27274999988703</v>
+        <v>3854.1439166669102</v>
       </c>
       <c r="BF16" s="4">
-        <v>684.62058333333698</v>
+        <v>661.62183333333803</v>
       </c>
       <c r="BG16" s="4">
-        <v>0</v>
+        <v>2897.2080000000101</v>
       </c>
       <c r="BH16" s="4">
         <v>0</v>
       </c>
       <c r="BI16" s="4">
-        <v>0</v>
+        <v>2838.6185833333202</v>
       </c>
       <c r="BJ16" s="4">
         <v>0</v>
       </c>
       <c r="BK16" s="4">
-        <v>0</v>
+        <v>2483.90929166672</v>
       </c>
       <c r="BL16" s="4">
-        <v>1394.38370833371</v>
+        <v>101.197749999992</v>
       </c>
       <c r="BM16" s="4">
         <v>0</v>
       </c>
       <c r="BN16" s="4">
-        <v>0</v>
+        <v>46.823000000003901</v>
       </c>
       <c r="BO16" s="4">
         <v>0</v>
       </c>
       <c r="BP16" s="4">
-        <v>0</v>
+        <v>136.765249999996</v>
       </c>
       <c r="BQ16" s="4">
-        <v>0</v>
+        <v>164.08683333330501</v>
       </c>
       <c r="BR16" s="4">
         <v>0</v>
       </c>
       <c r="BS16" s="4">
-        <v>1708.15433333331</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="4">
         <v>0</v>
       </c>
       <c r="BU16" s="4">
-        <v>0</v>
+        <v>487.74700000003202</v>
       </c>
       <c r="BV16" s="4">
-        <v>428.34991666665798</v>
+        <v>0</v>
       </c>
       <c r="BW16" s="4">
         <v>0</v>
       </c>
       <c r="BX16" s="4">
-        <v>573.08758333325295</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="4">
-        <v>245.03250000000099</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="4">
         <v>0</v>
@@ -9906,13 +10088,13 @@
         <v>0</v>
       </c>
       <c r="CB16" s="4">
-        <v>60.533666666597099</v>
+        <v>9.7815833332715503</v>
       </c>
       <c r="CC16" s="4">
-        <v>420.13683333332301</v>
+        <v>28.603000000002702</v>
       </c>
       <c r="CD16" s="4">
-        <v>182.88675000006299</v>
+        <v>0</v>
       </c>
       <c r="CE16" s="4">
         <v>0</v>
@@ -9924,22 +10106,22 @@
         <v>0</v>
       </c>
       <c r="CH16" s="4">
-        <v>0</v>
+        <v>504.82249999989199</v>
       </c>
       <c r="CI16" s="4">
-        <v>0</v>
+        <v>477.49299999995799</v>
       </c>
       <c r="CJ16" s="4">
-        <v>39.879666666733101</v>
+        <v>0</v>
       </c>
       <c r="CK16" s="4">
-        <v>0</v>
+        <v>14.557499999995301</v>
       </c>
       <c r="CL16" s="4">
         <v>0</v>
       </c>
       <c r="CM16" s="4">
-        <v>31.110333333374001</v>
+        <v>0</v>
       </c>
       <c r="CN16" s="4">
         <v>0</v>
@@ -9969,6 +10151,12 @@
         <v>0</v>
       </c>
       <c r="CW16" s="4">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
         <v>0</v>
       </c>
     </row>

--- a/Dashboards/Clan Leaderboard.xlsx
+++ b/Dashboards/Clan Leaderboard.xlsx
@@ -149,18 +149,18 @@
     <x:t>TS12</x:t>
   </x:si>
   <x:si>
+    <x:t>C00L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRIS</x:t>
+  </x:si>
+  <x:si>
     <x:t>BOW</x:t>
   </x:si>
   <x:si>
-    <x:t>IRIS</x:t>
-  </x:si>
-  <x:si>
     <x:t>GHOSTS</x:t>
   </x:si>
   <x:si>
-    <x:t>C00L</x:t>
-  </x:si>
-  <x:si>
     <x:t>FUTURE</x:t>
   </x:si>
   <x:si>
@@ -176,12 +176,12 @@
     <x:t>POTATO</x:t>
   </x:si>
   <x:si>
+    <x:t>RIES</x:t>
+  </x:si>
+  <x:si>
     <x:t>UH</x:t>
   </x:si>
   <x:si>
-    <x:t>RIES</x:t>
-  </x:si>
-  <x:si>
     <x:t>SV</x:t>
   </x:si>
   <x:si>
@@ -194,10 +194,13 @@
     <x:t>MOON</x:t>
   </x:si>
   <x:si>
+    <x:t>MEESH</x:t>
+  </x:si>
+  <x:si>
     <x:t>JKRZ</x:t>
   </x:si>
   <x:si>
-    <x:t>MEESH</x:t>
+    <x:t>FLOOFY</x:t>
   </x:si>
   <x:si>
     <x:t>SPACE</x:t>
@@ -206,9 +209,6 @@
     <x:t>MERCX</x:t>
   </x:si>
   <x:si>
-    <x:t>FLOOFY</x:t>
-  </x:si>
-  <x:si>
     <x:t>ACTION</x:t>
   </x:si>
   <x:si>
@@ -233,12 +233,12 @@
     <x:t>SENTRY</x:t>
   </x:si>
   <x:si>
+    <x:t>DRONE</x:t>
+  </x:si>
+  <x:si>
     <x:t>GOD</x:t>
   </x:si>
   <x:si>
-    <x:t>DRONE</x:t>
-  </x:si>
-  <x:si>
     <x:t>NOVA</x:t>
   </x:si>
   <x:si>
@@ -248,15 +248,18 @@
     <x:t>ZR2</x:t>
   </x:si>
   <x:si>
+    <x:t>ROUGE</x:t>
+  </x:si>
+  <x:si>
     <x:t>CORONA</x:t>
   </x:si>
   <x:si>
-    <x:t>ROUGE</x:t>
-  </x:si>
-  <x:si>
     <x:t>VIBIN</x:t>
   </x:si>
   <x:si>
+    <x:t>JAGUAR</x:t>
+  </x:si>
+  <x:si>
     <x:t>ELITES</x:t>
   </x:si>
   <x:si>
@@ -266,21 +269,18 @@
     <x:t>PRO</x:t>
   </x:si>
   <x:si>
-    <x:t>JAGUAR</x:t>
-  </x:si>
-  <x:si>
     <x:t>PIXEL</x:t>
   </x:si>
   <x:si>
     <x:t>PBTG</x:t>
   </x:si>
   <x:si>
+    <x:t>BLESS</x:t>
+  </x:si>
+  <x:si>
     <x:t>3ANANA</x:t>
   </x:si>
   <x:si>
-    <x:t>BLESS</x:t>
-  </x:si>
-  <x:si>
     <x:t>ZERO</x:t>
   </x:si>
   <x:si>
@@ -341,6 +341,9 @@
     <x:t>EARTH</x:t>
   </x:si>
   <x:si>
+    <x:t>DRAGON</x:t>
+  </x:si>
+  <x:si>
     <x:t>GOLDEN</x:t>
   </x:si>
   <x:si>
@@ -359,172 +362,169 @@
     <x:t>SUSHIZ</x:t>
   </x:si>
   <x:si>
+    <x:t>BM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELITE2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRIME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHIEF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANGELS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOKERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MORT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LGND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MTR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUGGS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ULTRAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TWEEE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEADER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RIP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CYBER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NIGHT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BITE87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TDK2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HALLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLUTCH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MANDOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANKER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USMC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NARUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPCLAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23WINS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COSMIC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SWEATS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GINGER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BHM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOOBVN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WHAMMM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OWLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WARIOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PEACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WOOGS</x:t>
+  </x:si>
+  <x:si>
     <x:t>CROWN</x:t>
   </x:si>
   <x:si>
-    <x:t>BM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELITE2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRIME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHIEF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANGELS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOKERS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEADER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LGND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MTR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUGGS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ULTRAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TWEEE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SWEATS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEFAUL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CYBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NIGHT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BITE87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TDK2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HALLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLUTCH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANDOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAN</x:t>
+    <x:t>CGANG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DARK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DODGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KOA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANG7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOMS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TIGERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAGEN</x:t>
   </x:si>
   <x:si>
     <x:t>ICYYY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FBI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USMC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NARUTO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OPCLAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23WINS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COSMIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BHM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GINGER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OWLC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOOBVN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WHAMMM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GANG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WARIOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PEACE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DRAGON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WOOGS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TANKER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CGANG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DARK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DODGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KOA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANG7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOMS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KHAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIGERS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAGEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MORT</x:t>
   </x:si>
   <x:si>
     <x:t>GANG3</x:t>
@@ -1010,10 +1010,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="11" t="n">
-        <x:v>197330.038108632</x:v>
+        <x:v>210529.13408631</x:v>
       </x:c>
       <x:c r="D2" s="11" t="n">
-        <x:v>14570935.4489585</x:v>
+        <x:v>14755722.792646</x:v>
       </x:c>
       <x:c r="E2" s="11" t="s"/>
       <x:c r="F2" s="12" t="n">
@@ -1056,7 +1056,7 @@
         <x:v>317980.955520812</x:v>
       </x:c>
       <x:c r="S2" s="12" t="n">
-        <x:v>45413.9958333336</x:v>
+        <x:v>230201.339520827</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="11" t="n">
-        <x:v>125819.640229163</x:v>
+        <x:v>126313.697831841</x:v>
       </x:c>
       <x:c r="D3" s="11" t="n">
-        <x:v>15255595.5426041</x:v>
+        <x:v>15262512.3490416</x:v>
       </x:c>
       <x:c r="E3" s="11" t="n">
         <x:v>9.04635376304931</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>196811.97116665</x:v>
       </x:c>
       <x:c r="S3" s="12" t="n">
-        <x:v>38331.8369583376</x:v>
+        <x:v>45248.6433958299</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1120,10 +1120,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="11" t="n">
-        <x:v>113494.181144348</x:v>
+        <x:v>117793.927822919</x:v>
       </x:c>
       <x:c r="D4" s="11" t="n">
-        <x:v>14961581.4392708</x:v>
+        <x:v>15021777.8927708</x:v>
       </x:c>
       <x:c r="E4" s="11" t="n">
         <x:v>4.29620710790101</x:v>
@@ -1168,7 +1168,7 @@
         <x:v>134251.174437506</x:v>
       </x:c>
       <x:c r="S4" s="12" t="n">
-        <x:v>47491.3882708456</x:v>
+        <x:v>107687.84177085</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
@@ -1176,10 +1176,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="11" t="n">
-        <x:v>92770.709165179</x:v>
+        <x:v>94383.1035610125</x:v>
       </x:c>
       <x:c r="D5" s="11" t="n">
-        <x:v>7119911.78447918</x:v>
+        <x:v>7142485.30602085</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s"/>
       <x:c r="F5" s="12" t="n">
@@ -1222,7 +1222,7 @@
         <x:v>103797.39404167</x:v>
       </x:c>
       <x:c r="S5" s="12" t="n">
-        <x:v>53419.9793124991</x:v>
+        <x:v>75993.500854169</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1230,10 +1230,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="11" t="n">
-        <x:v>89546.2452172628</x:v>
+        <x:v>90222.3733735124</x:v>
       </x:c>
       <x:c r="D6" s="11" t="n">
-        <x:v>6723222.25700001</x:v>
+        <x:v>6732688.05118751</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s"/>
       <x:c r="F6" s="12" t="n">
@@ -1276,7 +1276,7 @@
         <x:v>114109.561979162</x:v>
       </x:c>
       <x:c r="S6" s="12" t="n">
-        <x:v>59985.1306875022</x:v>
+        <x:v>69450.9248749977</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:146">
@@ -1284,10 +1284,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="11" t="n">
-        <x:v>61319.1146964275</x:v>
+        <x:v>63806.4277738088</x:v>
       </x:c>
       <x:c r="D7" s="11" t="n">
-        <x:v>5385074.44616668</x:v>
+        <x:v>5419896.82925002</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s"/>
       <x:c r="F7" s="12" t="n">
@@ -1330,7 +1330,7 @@
         <x:v>93669.7896458376</x:v>
       </x:c>
       <x:c r="S7" s="12" t="n">
-        <x:v>52334.0146666672</x:v>
+        <x:v>87156.3977500061</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1338,10 +1338,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="11" t="n">
-        <x:v>50377.2920803567</x:v>
+        <x:v>50569.0321562496</x:v>
       </x:c>
       <x:c r="D8" s="11" t="n">
-        <x:v>1755396.88324999</x:v>
+        <x:v>1758081.24431249</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s"/>
       <x:c r="F8" s="12" t="n">
@@ -1384,7 +1384,7 @@
         <x:v>32071.7629166665</x:v>
       </x:c>
       <x:c r="S8" s="12" t="n">
-        <x:v>4834.22910416662</x:v>
+        <x:v>7518.59016666654</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1392,10 +1392,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="11" t="n">
-        <x:v>46834.5407589286</x:v>
+        <x:v>47573.9994568453</x:v>
       </x:c>
       <x:c r="D9" s="11" t="n">
-        <x:v>1148250.60129166</x:v>
+        <x:v>1158603.0230625</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s"/>
       <x:c r="F9" s="12" t="n">
@@ -1438,7 +1438,7 @@
         <x:v>71374.4294375005</x:v>
       </x:c>
       <x:c r="S9" s="12" t="n">
-        <x:v>48782.1995000003</x:v>
+        <x:v>59134.6212708338</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1446,10 +1446,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="11" t="n">
-        <x:v>40319.882084821</x:v>
+        <x:v>41060.9556398805</x:v>
       </x:c>
       <x:c r="D10" s="11" t="n">
-        <x:v>1721890.739375</x:v>
+        <x:v>1732265.76914583</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s"/>
       <x:c r="F10" s="12" t="n">
@@ -1492,7 +1492,7 @@
         <x:v>127296.633562496</x:v>
       </x:c>
       <x:c r="S10" s="12" t="n">
-        <x:v>17030.9001041665</x:v>
+        <x:v>27405.9298749994</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1500,10 +1500,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="11" t="n">
-        <x:v>38847.6854241068</x:v>
+        <x:v>39484.5043080354</x:v>
       </x:c>
       <x:c r="D11" s="11" t="n">
-        <x:v>2233554.29191666</x:v>
+        <x:v>2242469.75629166</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s"/>
       <x:c r="F11" s="12" t="n">
@@ -1546,7 +1546,7 @@
         <x:v>59162.4622916654</x:v>
       </x:c>
       <x:c r="S11" s="12" t="n">
-        <x:v>642.41533333296</x:v>
+        <x:v>9557.87970833341</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:146">
@@ -1554,10 +1554,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="11" t="n">
-        <x:v>35398.9740625003</x:v>
+        <x:v>35533.2595565479</x:v>
       </x:c>
       <x:c r="D12" s="11" t="n">
-        <x:v>2679817.23960417</x:v>
+        <x:v>2681697.23652084</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s"/>
       <x:c r="F12" s="12" t="n">
@@ -1600,7 +1600,7 @@
         <x:v>84614.0060833362</x:v>
       </x:c>
       <x:c r="S12" s="12" t="n">
-        <x:v>20702.8686041664</x:v>
+        <x:v>22582.8655208335</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:146">
@@ -1608,10 +1608,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="11" t="n">
-        <x:v>34216.1861473209</x:v>
+        <x:v>35058.9097455352</x:v>
       </x:c>
       <x:c r="D13" s="11" t="n">
-        <x:v>1733934.26672916</x:v>
+        <x:v>1745732.39710416</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s"/>
       <x:c r="F13" s="12" t="n">
@@ -1654,7 +1654,7 @@
         <x:v>50706.7102708321</x:v>
       </x:c>
       <x:c r="S13" s="12" t="n">
-        <x:v>3886.28191666678</x:v>
+        <x:v>15684.4122916665</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:146">
@@ -1662,10 +1662,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="11" t="n">
-        <x:v>32202.7017470228</x:v>
+        <x:v>33722.6469181536</x:v>
       </x:c>
       <x:c r="D14" s="11" t="n">
-        <x:v>7932406.1286875</x:v>
+        <x:v>7953685.36108333</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s"/>
       <x:c r="F14" s="12" t="n">
@@ -1708,7 +1708,7 @@
         <x:v>76329.7847083276</x:v>
       </x:c>
       <x:c r="S14" s="12" t="n">
-        <x:v>46334.0027083252</x:v>
+        <x:v>67613.2351041576</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:146">
@@ -1716,10 +1716,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="11" t="n">
-        <x:v>30650.4691904759</x:v>
+        <x:v>32535.9715163688</x:v>
       </x:c>
       <x:c r="D15" s="11" t="n">
-        <x:v>1303401.09052082</x:v>
+        <x:v>1329798.12308332</x:v>
       </x:c>
       <x:c r="E15" s="11" t="s"/>
       <x:c r="F15" s="12" t="n">
@@ -1762,7 +1762,7 @@
         <x:v>94114.3351041649</x:v>
       </x:c>
       <x:c r="S15" s="12" t="n">
-        <x:v>27612.182062499</x:v>
+        <x:v>54009.2146249991</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
@@ -1770,10 +1770,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="11" t="n">
-        <x:v>26173.0686934525</x:v>
+        <x:v>27507.4573720239</x:v>
       </x:c>
       <x:c r="D16" s="11" t="n">
-        <x:v>1009521.49916667</x:v>
+        <x:v>1028202.94066667</x:v>
       </x:c>
       <x:c r="E16" s="11" t="s"/>
       <x:c r="F16" s="12" t="n">
@@ -1816,7 +1816,7 @@
         <x:v>47225.9149375004</x:v>
       </x:c>
       <x:c r="S16" s="12" t="n">
-        <x:v>29874.8189583323</x:v>
+        <x:v>48556.260458332</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
@@ -1824,10 +1824,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="11" t="n">
-        <x:v>24340.2564181547</x:v>
+        <x:v>24919.5209687498</x:v>
       </x:c>
       <x:c r="D17" s="11" t="n">
-        <x:v>2563542.26233334</x:v>
+        <x:v>2571651.96604167</x:v>
       </x:c>
       <x:c r="E17" s="11" t="s"/>
       <x:c r="F17" s="12" t="n">
@@ -1870,7 +1870,7 @@
         <x:v>46740.6914999979</x:v>
       </x:c>
       <x:c r="S17" s="12" t="n">
-        <x:v>9852.52318750229</x:v>
+        <x:v>17962.2268958343</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:146">
@@ -1932,10 +1932,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="11" t="n">
-        <x:v>20266.2802842263</x:v>
+        <x:v>20723.1033154763</x:v>
       </x:c>
       <x:c r="D19" s="11" t="n">
-        <x:v>1439442.94022916</x:v>
+        <x:v>1445838.46266666</x:v>
       </x:c>
       <x:c r="E19" s="11" t="s"/>
       <x:c r="F19" s="12" t="n">
@@ -1978,7 +1978,7 @@
         <x:v>16601.1952916679</x:v>
       </x:c>
       <x:c r="S19" s="12" t="n">
-        <x:v>16493.6945833329</x:v>
+        <x:v>22889.2170208327</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:146">
@@ -1986,10 +1986,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="11" t="n">
-        <x:v>17906.1913630952</x:v>
+        <x:v>18036.7778005952</x:v>
       </x:c>
       <x:c r="D20" s="11" t="n">
-        <x:v>2153389.87235417</x:v>
+        <x:v>2155218.08247917</x:v>
       </x:c>
       <x:c r="E20" s="11" t="s"/>
       <x:c r="F20" s="12" t="n">
@@ -2032,7 +2032,7 @@
         <x:v>10257.8752708351</x:v>
       </x:c>
       <x:c r="S20" s="12" t="n">
-        <x:v>18635.0088958326</x:v>
+        <x:v>20463.2190208328</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
@@ -2040,10 +2040,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C21" s="11" t="n">
-        <x:v>17837.1746845237</x:v>
+        <x:v>17876.0369642856</x:v>
       </x:c>
       <x:c r="D21" s="11" t="n">
-        <x:v>1866337.88514583</x:v>
+        <x:v>1866881.95706249</x:v>
       </x:c>
       <x:c r="E21" s="11" t="s"/>
       <x:c r="F21" s="12" t="n">
@@ -2086,7 +2086,7 @@
         <x:v>17944.2088125001</x:v>
       </x:c>
       <x:c r="S21" s="12" t="n">
-        <x:v>1231.62324999995</x:v>
+        <x:v>1775.69516666653</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
@@ -2094,10 +2094,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="11" t="n">
-        <x:v>14289.3798050596</x:v>
+        <x:v>14837.6433497025</x:v>
       </x:c>
       <x:c r="D22" s="11" t="n">
-        <x:v>1434309.32266666</x:v>
+        <x:v>1441985.01229166</x:v>
       </x:c>
       <x:c r="E22" s="11" t="s"/>
       <x:c r="F22" s="12" t="n">
@@ -2140,7 +2140,7 @@
         <x:v>25872.3437083347</x:v>
       </x:c>
       <x:c r="S22" s="12" t="n">
-        <x:v>2997.03695833357</x:v>
+        <x:v>10672.7265833332</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:146">
@@ -2202,10 +2202,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="11" t="n">
-        <x:v>11254.5128199403</x:v>
+        <x:v>11681.2626190475</x:v>
       </x:c>
       <x:c r="D24" s="11" t="n">
-        <x:v>1488456.38352083</x:v>
+        <x:v>1494430.88070833</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s"/>
       <x:c r="F24" s="12" t="n">
@@ -2248,7 +2248,7 @@
         <x:v>14469.1669583339</x:v>
       </x:c>
       <x:c r="S24" s="12" t="n">
-        <x:v>1013.42650000006</x:v>
+        <x:v>6987.92368749995</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:146">
@@ -2256,10 +2256,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C25" s="11" t="n">
-        <x:v>11007.4405297618</x:v>
+        <x:v>11350.5313541666</x:v>
       </x:c>
       <x:c r="D25" s="11" t="n">
-        <x:v>3646317.79802081</x:v>
+        <x:v>3651121.06956248</x:v>
       </x:c>
       <x:c r="E25" s="11" t="s"/>
       <x:c r="F25" s="12" t="n">
@@ -2302,7 +2302,7 @@
         <x:v>20281.0407708343</x:v>
       </x:c>
       <x:c r="S25" s="12" t="n">
-        <x:v>13720.3017499992</x:v>
+        <x:v>18523.5732916673</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:146">
@@ -2310,10 +2310,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="11" t="n">
-        <x:v>10664.9478764881</x:v>
+        <x:v>11148.7121875</x:v>
       </x:c>
       <x:c r="D26" s="11" t="n">
-        <x:v>528991.020208333</x:v>
+        <x:v>516350.507958332</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s"/>
       <x:c r="F26" s="12" t="n">
@@ -2323,40 +2323,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="12" t="n">
-        <x:v>14305.5609374998</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="12" t="n">
-        <x:v>16864.9268125002</x:v>
+        <x:v>7984.75239583338</x:v>
       </x:c>
       <x:c r="J26" s="12" t="n">
-        <x:v>11563.1854583333</x:v>
+        <x:v>6012.50404166663</x:v>
       </x:c>
       <x:c r="K26" s="12" t="n">
-        <x:v>13946.2456041666</x:v>
+        <x:v>15156.3959791665</x:v>
       </x:c>
       <x:c r="L26" s="12" t="n">
-        <x:v>565.915166666615</x:v>
+        <x:v>33639.4073958332</x:v>
       </x:c>
       <x:c r="M26" s="12" t="n">
-        <x:v>11329.1681666668</x:v>
+        <x:v>7135.15845833311</x:v>
       </x:c>
       <x:c r="N26" s="12" t="n">
-        <x:v>5747.11993749999</x:v>
+        <x:v>5953.95045833336</x:v>
       </x:c>
       <x:c r="O26" s="12" t="n">
-        <x:v>11625.3698125001</x:v>
+        <x:v>14811.1022500002</x:v>
       </x:c>
       <x:c r="P26" s="12" t="n">
-        <x:v>14472.4513750001</x:v>
+        <x:v>12428.9685416666</x:v>
       </x:c>
       <x:c r="Q26" s="12" t="n">
-        <x:v>14717.417</x:v>
+        <x:v>16067.6930833333</x:v>
       </x:c>
       <x:c r="R26" s="12" t="n">
-        <x:v>18424.9274375002</x:v>
+        <x:v>21368.3802083333</x:v>
       </x:c>
       <x:c r="S26" s="12" t="n">
-        <x:v>15746.9825625002</x:v>
+        <x:v>15523.6578125</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:146">
@@ -2364,10 +2364,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C27" s="11" t="n">
-        <x:v>10406.9948348213</x:v>
+        <x:v>10730.7918675594</x:v>
       </x:c>
       <x:c r="D27" s="11" t="n">
-        <x:v>1245327.83331249</x:v>
+        <x:v>1249860.99177082</x:v>
       </x:c>
       <x:c r="E27" s="11" t="s"/>
       <x:c r="F27" s="12" t="n">
@@ -2410,7 +2410,7 @@
         <x:v>7314.81514583295</x:v>
       </x:c>
       <x:c r="S27" s="12" t="n">
-        <x:v>13909.4950208331</x:v>
+        <x:v>18442.6534791661</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:146">
@@ -2418,10 +2418,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="11" t="n">
-        <x:v>10275.812514881</x:v>
+        <x:v>10695.0942514881</x:v>
       </x:c>
       <x:c r="D28" s="11" t="n">
-        <x:v>1481105.66622917</x:v>
+        <x:v>529413.069458333</x:v>
       </x:c>
       <x:c r="E28" s="11" t="s"/>
       <x:c r="F28" s="12" t="n">
@@ -2431,40 +2431,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="12" t="n">
-        <x:v>732.299958333373</x:v>
+        <x:v>14305.5609374998</x:v>
       </x:c>
       <x:c r="I28" s="12" t="n">
-        <x:v>29702.8584166677</x:v>
+        <x:v>16864.9268125002</x:v>
       </x:c>
       <x:c r="J28" s="12" t="n">
-        <x:v>13841.3792083333</x:v>
+        <x:v>11563.1854583333</x:v>
       </x:c>
       <x:c r="K28" s="12" t="n">
-        <x:v>19664.8180833333</x:v>
+        <x:v>13946.2456041666</x:v>
       </x:c>
       <x:c r="L28" s="12" t="n">
-        <x:v>26146.9872083343</x:v>
+        <x:v>565.915166666615</x:v>
       </x:c>
       <x:c r="M28" s="12" t="n">
-        <x:v>11308.5185833329</x:v>
+        <x:v>11329.1681666668</x:v>
       </x:c>
       <x:c r="N28" s="12" t="n">
-        <x:v>11182.9201458332</x:v>
+        <x:v>5747.11993749999</x:v>
       </x:c>
       <x:c r="O28" s="12" t="n">
-        <x:v>5290.98133333353</x:v>
+        <x:v>11625.3698125001</x:v>
       </x:c>
       <x:c r="P28" s="12" t="n">
-        <x:v>7589.39293750026</x:v>
+        <x:v>14472.4513750001</x:v>
       </x:c>
       <x:c r="Q28" s="12" t="n">
-        <x:v>7535.01660416671</x:v>
+        <x:v>14717.417</x:v>
       </x:c>
       <x:c r="R28" s="12" t="n">
-        <x:v>10851.2200624992</x:v>
+        <x:v>18424.9274375002</x:v>
       </x:c>
       <x:c r="S28" s="12" t="n">
-        <x:v>14.9826666666195</x:v>
+        <x:v>16169.0318125003</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:146">
@@ -2472,10 +2472,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="11" t="n">
-        <x:v>10054.5716681547</x:v>
+        <x:v>10390.7244345238</x:v>
       </x:c>
       <x:c r="D29" s="11" t="n">
-        <x:v>501032.540687498</x:v>
+        <x:v>1482714.43310416</x:v>
       </x:c>
       <x:c r="E29" s="11" t="s"/>
       <x:c r="F29" s="12" t="n">
@@ -2485,40 +2485,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>732.299958333373</x:v>
       </x:c>
       <x:c r="I29" s="12" t="n">
-        <x:v>7984.75239583338</x:v>
+        <x:v>29702.8584166677</x:v>
       </x:c>
       <x:c r="J29" s="12" t="n">
-        <x:v>6012.50404166663</x:v>
+        <x:v>13841.3792083333</x:v>
       </x:c>
       <x:c r="K29" s="12" t="n">
-        <x:v>15156.3959791665</x:v>
+        <x:v>19664.8180833333</x:v>
       </x:c>
       <x:c r="L29" s="12" t="n">
-        <x:v>33639.4073958332</x:v>
+        <x:v>26146.9872083343</x:v>
       </x:c>
       <x:c r="M29" s="12" t="n">
-        <x:v>7135.15845833311</x:v>
+        <x:v>11308.5185833329</x:v>
       </x:c>
       <x:c r="N29" s="12" t="n">
-        <x:v>5953.95045833336</x:v>
+        <x:v>11182.9201458332</x:v>
       </x:c>
       <x:c r="O29" s="12" t="n">
-        <x:v>14811.1022500002</x:v>
+        <x:v>5290.98133333353</x:v>
       </x:c>
       <x:c r="P29" s="12" t="n">
-        <x:v>12428.9685416666</x:v>
+        <x:v>7589.39293750026</x:v>
       </x:c>
       <x:c r="Q29" s="12" t="n">
-        <x:v>16067.6930833333</x:v>
+        <x:v>7535.01660416671</x:v>
       </x:c>
       <x:c r="R29" s="12" t="n">
-        <x:v>21368.3802083333</x:v>
+        <x:v>10851.2200624992</x:v>
       </x:c>
       <x:c r="S29" s="12" t="n">
-        <x:v>205.690541666641</x:v>
+        <x:v>1623.74954166613</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:146">
@@ -2526,10 +2526,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C30" s="11" t="n">
-        <x:v>9529.95891517835</x:v>
+        <x:v>9676.53645089264</x:v>
       </x:c>
       <x:c r="D30" s="11" t="n">
-        <x:v>1265086.89641666</x:v>
+        <x:v>1267138.98191666</x:v>
       </x:c>
       <x:c r="E30" s="11" t="s"/>
       <x:c r="F30" s="12" t="n">
@@ -2572,7 +2572,7 @@
         <x:v>2377.53068749979</x:v>
       </x:c>
       <x:c r="S30" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2052.08550000004</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:146">
@@ -2580,10 +2580,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C31" s="11" t="n">
-        <x:v>9442.3648377975</x:v>
+        <x:v>9505.04037351179</x:v>
       </x:c>
       <x:c r="D31" s="11" t="n">
-        <x:v>803470.850833331</x:v>
+        <x:v>804348.308333331</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s"/>
       <x:c r="F31" s="12" t="n">
@@ -2626,7 +2626,7 @@
         <x:v>38184.9171041668</x:v>
       </x:c>
       <x:c r="S31" s="12" t="n">
-        <x:v>6407.56427083304</x:v>
+        <x:v>7285.02177083306</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:146">
@@ -2688,10 +2688,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="11" t="n">
-        <x:v>8891.41601636901</x:v>
+        <x:v>8903.52457291662</x:v>
       </x:c>
       <x:c r="D33" s="11" t="n">
-        <x:v>508887.427166666</x:v>
+        <x:v>509056.946958332</x:v>
       </x:c>
       <x:c r="E33" s="11" t="s"/>
       <x:c r="F33" s="12" t="n">
@@ -2734,7 +2734,7 @@
         <x:v>5430.17966666678</x:v>
       </x:c>
       <x:c r="S33" s="12" t="n">
-        <x:v>1841.97370833339</x:v>
+        <x:v>2011.49350000004</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:146">
@@ -2742,10 +2742,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C34" s="11" t="n">
-        <x:v>8561.03823363083</x:v>
+        <x:v>8614.8339925594</x:v>
       </x:c>
       <x:c r="D34" s="11" t="n">
-        <x:v>1545660.92718749</x:v>
+        <x:v>1546414.06781249</x:v>
       </x:c>
       <x:c r="E34" s="11" t="s"/>
       <x:c r="F34" s="12" t="n">
@@ -2788,7 +2788,7 @@
         <x:v>8094.94575000065</x:v>
       </x:c>
       <x:c r="S34" s="12" t="n">
-        <x:v>840.906916666776</x:v>
+        <x:v>1594.04754166678</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:146">
@@ -2796,10 +2796,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="11" t="n">
-        <x:v>7921.04721428567</x:v>
+        <x:v>8114.44901785698</x:v>
       </x:c>
       <x:c r="D35" s="11" t="n">
-        <x:v>563946.549229165</x:v>
+        <x:v>1473031.76491666</x:v>
       </x:c>
       <x:c r="E35" s="11" t="s"/>
       <x:c r="F35" s="12" t="n">
@@ -2809,40 +2809,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="12" t="n">
-        <x:v>8821.18995833339</x:v>
+        <x:v>394.713791666785</x:v>
       </x:c>
       <x:c r="I35" s="12" t="n">
-        <x:v>19912.4649791667</x:v>
+        <x:v>19348.1846666671</x:v>
       </x:c>
       <x:c r="J35" s="12" t="n">
-        <x:v>12462.2353541667</x:v>
+        <x:v>487.310000000056</x:v>
       </x:c>
       <x:c r="K35" s="12" t="n">
-        <x:v>17098.7373541667</x:v>
+        <x:v>8270.98072916619</x:v>
       </x:c>
       <x:c r="L35" s="12" t="n">
-        <x:v>15730.9890208332</x:v>
+        <x:v>16071.0310416662</x:v>
       </x:c>
       <x:c r="M35" s="12" t="n">
-        <x:v>4361.54710416635</x:v>
+        <x:v>18442.6275208336</x:v>
       </x:c>
       <x:c r="N35" s="12" t="n">
-        <x:v>12580.002</x:v>
+        <x:v>8553.54974999977</x:v>
       </x:c>
       <x:c r="O35" s="12" t="n">
-        <x:v>3857.58033333335</x:v>
+        <x:v>1184.04616666632</x:v>
       </x:c>
       <x:c r="P35" s="12" t="n">
-        <x:v>3746.72308333335</x:v>
+        <x:v>10576.9007916662</x:v>
       </x:c>
       <x:c r="Q35" s="12" t="n">
-        <x:v>7623.09368749976</x:v>
+        <x:v>18543.3049374998</x:v>
       </x:c>
       <x:c r="R35" s="12" t="n">
-        <x:v>829.620166666573</x:v>
+        <x:v>7812.0390624993</x:v>
       </x:c>
       <x:c r="S35" s="12" t="n">
-        <x:v>3870.47795833333</x:v>
+        <x:v>3917.5977916664</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:146">
@@ -2850,10 +2850,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C36" s="11" t="n">
-        <x:v>7897.89215773796</x:v>
+        <x:v>7981.27711755949</x:v>
       </x:c>
       <x:c r="D36" s="11" t="n">
-        <x:v>1469999.96887499</x:v>
+        <x:v>564789.767874999</x:v>
       </x:c>
       <x:c r="E36" s="11" t="s"/>
       <x:c r="F36" s="12" t="n">
@@ -2863,40 +2863,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="12" t="n">
-        <x:v>394.713791666785</x:v>
+        <x:v>8821.18995833339</x:v>
       </x:c>
       <x:c r="I36" s="12" t="n">
-        <x:v>19348.1846666671</x:v>
+        <x:v>19912.4649791667</x:v>
       </x:c>
       <x:c r="J36" s="12" t="n">
-        <x:v>487.310000000056</x:v>
+        <x:v>12462.2353541667</x:v>
       </x:c>
       <x:c r="K36" s="12" t="n">
-        <x:v>8270.98072916619</x:v>
+        <x:v>17098.7373541667</x:v>
       </x:c>
       <x:c r="L36" s="12" t="n">
-        <x:v>16071.0310416662</x:v>
+        <x:v>15730.9890208332</x:v>
       </x:c>
       <x:c r="M36" s="12" t="n">
-        <x:v>18442.6275208336</x:v>
+        <x:v>4361.54710416635</x:v>
       </x:c>
       <x:c r="N36" s="12" t="n">
-        <x:v>8553.54974999977</x:v>
+        <x:v>12580.002</x:v>
       </x:c>
       <x:c r="O36" s="12" t="n">
-        <x:v>1184.04616666632</x:v>
+        <x:v>3857.58033333335</x:v>
       </x:c>
       <x:c r="P36" s="12" t="n">
-        <x:v>10576.9007916662</x:v>
+        <x:v>3746.72308333335</x:v>
       </x:c>
       <x:c r="Q36" s="12" t="n">
-        <x:v>18543.3049374998</x:v>
+        <x:v>7623.09368749976</x:v>
       </x:c>
       <x:c r="R36" s="12" t="n">
-        <x:v>7812.0390624993</x:v>
+        <x:v>829.620166666573</x:v>
       </x:c>
       <x:c r="S36" s="12" t="n">
-        <x:v>885.801750000101</x:v>
+        <x:v>4713.69660416676</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:146">
@@ -2904,10 +2904,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="11" t="n">
-        <x:v>6556.67004017857</x:v>
+        <x:v>6643.88692113094</x:v>
       </x:c>
       <x:c r="D37" s="11" t="n">
-        <x:v>513915.549374998</x:v>
+        <x:v>515136.585708331</x:v>
       </x:c>
       <x:c r="E37" s="11" t="s"/>
       <x:c r="F37" s="12" t="n">
@@ -2950,7 +2950,7 @@
         <x:v>6642.97495833348</x:v>
       </x:c>
       <x:c r="S37" s="12" t="n">
-        <x:v>4248.56854166667</x:v>
+        <x:v>5469.6048749999</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:146">
@@ -2958,10 +2958,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C38" s="11" t="n">
-        <x:v>6145.68923363089</x:v>
+        <x:v>6155.15918601185</x:v>
       </x:c>
       <x:c r="D38" s="11" t="n">
-        <x:v>814985.07877083</x:v>
+        <x:v>815117.658104163</x:v>
       </x:c>
       <x:c r="E38" s="11" t="s"/>
       <x:c r="F38" s="12" t="n">
@@ -3004,7 +3004,7 @@
         <x:v>24556.1797916667</x:v>
       </x:c>
       <x:c r="S38" s="12" t="n">
-        <x:v>2544.39935416658</x:v>
+        <x:v>2676.9786875</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:146">
@@ -3066,10 +3066,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C40" s="11" t="n">
-        <x:v>5201.53858035713</x:v>
+        <x:v>5493.64166071427</x:v>
       </x:c>
       <x:c r="D40" s="11" t="n">
-        <x:v>558755.661562498</x:v>
+        <x:v>562845.104687498</x:v>
       </x:c>
       <x:c r="E40" s="11" t="s"/>
       <x:c r="F40" s="12" t="n">
@@ -3112,7 +3112,7 @@
         <x:v>8712.25245833327</x:v>
       </x:c>
       <x:c r="S40" s="12" t="n">
-        <x:v>1196.06395833334</x:v>
+        <x:v>5285.50708333333</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:146">
@@ -3120,10 +3120,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C41" s="11" t="n">
-        <x:v>4821.92648660711</x:v>
+        <x:v>5103.12201934517</x:v>
       </x:c>
       <x:c r="D41" s="11" t="n">
-        <x:v>905137.14447916</x:v>
+        <x:v>540805.401999997</x:v>
       </x:c>
       <x:c r="E41" s="11" t="s"/>
       <x:c r="F41" s="12" t="n">
@@ -3133,40 +3133,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="12" t="n">
-        <x:v>4217.42033333331</x:v>
+        <x:v>1474.48800000001</x:v>
       </x:c>
       <x:c r="I41" s="12" t="n">
-        <x:v>9760.5664583334</x:v>
+        <x:v>6813.03729166661</x:v>
       </x:c>
       <x:c r="J41" s="12" t="n">
-        <x:v>1939.350125</x:v>
+        <x:v>6223.26808333333</x:v>
       </x:c>
       <x:c r="K41" s="12" t="n">
-        <x:v>3908.71129166649</x:v>
+        <x:v>5170.74208333326</x:v>
       </x:c>
       <x:c r="L41" s="12" t="n">
-        <x:v>3521.75531249982</x:v>
+        <x:v>18346.7848958333</x:v>
       </x:c>
       <x:c r="M41" s="12" t="n">
-        <x:v>5742.9271458335</x:v>
+        <x:v>4483.2643333333</x:v>
       </x:c>
       <x:c r="N41" s="12" t="n">
-        <x:v>4616.2686458336</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="12" t="n">
-        <x:v>6466.98818750016</x:v>
+        <x:v>3884.5521666666</x:v>
       </x:c>
       <x:c r="P41" s="12" t="n">
-        <x:v>10872.2043541666</x:v>
+        <x:v>3006.8094583333</x:v>
       </x:c>
       <x:c r="Q41" s="12" t="n">
-        <x:v>3785.21712499973</x:v>
+        <x:v>2295.64174999995</x:v>
       </x:c>
       <x:c r="R41" s="12" t="n">
-        <x:v>8851.92035416642</x:v>
+        <x:v>12332.9350833331</x:v>
       </x:c>
       <x:c r="S41" s="12" t="n">
-        <x:v>3823.64147916657</x:v>
+        <x:v>7412.18512499961</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:146">
@@ -3174,10 +3174,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C42" s="11" t="n">
-        <x:v>4778.39543898805</x:v>
+        <x:v>4821.92648660711</x:v>
       </x:c>
       <x:c r="D42" s="11" t="n">
-        <x:v>536259.229874997</x:v>
+        <x:v>905137.14447916</x:v>
       </x:c>
       <x:c r="E42" s="11" t="s"/>
       <x:c r="F42" s="12" t="n">
@@ -3187,40 +3187,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="12" t="n">
-        <x:v>1474.48800000001</x:v>
+        <x:v>4217.42033333331</x:v>
       </x:c>
       <x:c r="I42" s="12" t="n">
-        <x:v>6813.03729166661</x:v>
+        <x:v>9760.5664583334</x:v>
       </x:c>
       <x:c r="J42" s="12" t="n">
-        <x:v>6223.26808333333</x:v>
+        <x:v>1939.350125</x:v>
       </x:c>
       <x:c r="K42" s="12" t="n">
-        <x:v>5170.74208333326</x:v>
+        <x:v>3908.71129166649</x:v>
       </x:c>
       <x:c r="L42" s="12" t="n">
-        <x:v>18346.7848958333</x:v>
+        <x:v>3521.75531249982</x:v>
       </x:c>
       <x:c r="M42" s="12" t="n">
-        <x:v>4483.2643333333</x:v>
+        <x:v>5742.9271458335</x:v>
       </x:c>
       <x:c r="N42" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4616.2686458336</x:v>
       </x:c>
       <x:c r="O42" s="12" t="n">
-        <x:v>3884.5521666666</x:v>
+        <x:v>6466.98818750016</x:v>
       </x:c>
       <x:c r="P42" s="12" t="n">
-        <x:v>3006.8094583333</x:v>
+        <x:v>10872.2043541666</x:v>
       </x:c>
       <x:c r="Q42" s="12" t="n">
-        <x:v>2295.64174999995</x:v>
+        <x:v>3785.21712499973</x:v>
       </x:c>
       <x:c r="R42" s="12" t="n">
-        <x:v>12332.9350833331</x:v>
+        <x:v>8851.92035416642</x:v>
       </x:c>
       <x:c r="S42" s="12" t="n">
-        <x:v>2866.01299999992</x:v>
+        <x:v>3823.64147916657</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:146">
@@ -3228,10 +3228,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C43" s="11" t="n">
-        <x:v>4340.75649851181</x:v>
+        <x:v>4532.64784226189</x:v>
       </x:c>
       <x:c r="D43" s="11" t="n">
-        <x:v>6189570.58768744</x:v>
+        <x:v>426975.733499998</x:v>
       </x:c>
       <x:c r="E43" s="11" t="s"/>
       <x:c r="F43" s="12" t="n">
@@ -3241,40 +3241,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="12" t="n">
-        <x:v>15312.1585208327</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I43" s="12" t="n">
-        <x:v>45458.4324583327</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3200.59910416673</x:v>
       </x:c>
       <x:c r="K43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>22668.8557708331</x:v>
       </x:c>
       <x:c r="L43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14514.1606874999</x:v>
       </x:c>
       <x:c r="M43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1072.33741666668</x:v>
       </x:c>
       <x:c r="N43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4472.2799583333</x:v>
       </x:c>
       <x:c r="O43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2900.29887500004</x:v>
       </x:c>
       <x:c r="P43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2679.18345833331</x:v>
       </x:c>
       <x:c r="Q43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2898.86552083329</x:v>
       </x:c>
       <x:c r="R43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2426.91949999996</x:v>
       </x:c>
       <x:c r="S43" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>6623.5695000001</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:146">
@@ -3282,10 +3282,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C44" s="11" t="n">
-        <x:v>4268.86220386907</x:v>
+        <x:v>4340.75649851181</x:v>
       </x:c>
       <x:c r="D44" s="11" t="n">
-        <x:v>426709.282270832</x:v>
+        <x:v>6189570.58768744</x:v>
       </x:c>
       <x:c r="E44" s="11" t="s"/>
       <x:c r="F44" s="12" t="n">
@@ -3295,37 +3295,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>15312.1585208327</x:v>
       </x:c>
       <x:c r="I44" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>45458.4324583327</x:v>
       </x:c>
       <x:c r="J44" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K44" s="12" t="n">
-        <x:v>1758.55950000009</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L44" s="12" t="n">
-        <x:v>30269.9976666665</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="12" t="n">
-        <x:v>2853.37645833328</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N44" s="12" t="n">
-        <x:v>9745.63645833347</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O44" s="12" t="n">
-        <x:v>4024.61216666701</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P44" s="12" t="n">
-        <x:v>8729.21985416661</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q44" s="12" t="n">
-        <x:v>691.838333333319</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R44" s="12" t="n">
-        <x:v>1690.83041666669</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S44" s="12" t="n">
         <x:v>0</x:v>
@@ -3336,10 +3336,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C45" s="11" t="n">
-        <x:v>4227.70369345236</x:v>
+        <x:v>4268.86220386907</x:v>
       </x:c>
       <x:c r="D45" s="11" t="n">
-        <x:v>422706.515416664</x:v>
+        <x:v>426709.282270832</x:v>
       </x:c>
       <x:c r="E45" s="11" t="s"/>
       <x:c r="F45" s="12" t="n">
@@ -3355,34 +3355,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="12" t="n">
-        <x:v>3200.59910416673</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K45" s="12" t="n">
-        <x:v>22668.8557708331</x:v>
+        <x:v>1758.55950000009</x:v>
       </x:c>
       <x:c r="L45" s="12" t="n">
-        <x:v>14514.1606874999</x:v>
+        <x:v>30269.9976666665</x:v>
       </x:c>
       <x:c r="M45" s="12" t="n">
-        <x:v>1072.33741666668</x:v>
+        <x:v>2853.37645833328</x:v>
       </x:c>
       <x:c r="N45" s="12" t="n">
-        <x:v>4472.2799583333</x:v>
+        <x:v>9745.63645833347</x:v>
       </x:c>
       <x:c r="O45" s="12" t="n">
-        <x:v>2900.29887500004</x:v>
+        <x:v>4024.61216666701</x:v>
       </x:c>
       <x:c r="P45" s="12" t="n">
-        <x:v>2679.18345833331</x:v>
+        <x:v>8729.21985416661</x:v>
       </x:c>
       <x:c r="Q45" s="12" t="n">
-        <x:v>2898.86552083329</x:v>
+        <x:v>691.838333333319</x:v>
       </x:c>
       <x:c r="R45" s="12" t="n">
-        <x:v>2426.91949999996</x:v>
+        <x:v>1690.83041666669</x:v>
       </x:c>
       <x:c r="S45" s="12" t="n">
-        <x:v>2354.35141666676</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:146">
@@ -3390,10 +3390,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C46" s="11" t="n">
-        <x:v>4020.90578571432</x:v>
+        <x:v>4062.91542857146</x:v>
       </x:c>
       <x:c r="D46" s="11" t="n">
-        <x:v>1059853.68695833</x:v>
+        <x:v>1060441.82195833</x:v>
       </x:c>
       <x:c r="E46" s="11" t="s"/>
       <x:c r="F46" s="12" t="n">
@@ -3436,7 +3436,7 @@
         <x:v>11975.0438749999</x:v>
       </x:c>
       <x:c r="S46" s="12" t="n">
-        <x:v>3548.87841666676</x:v>
+        <x:v>4137.01341666677</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:146">
@@ -3768,10 +3768,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C53" s="11" t="n">
-        <x:v>2831.39103422617</x:v>
+        <x:v>2970.10045684525</x:v>
       </x:c>
       <x:c r="D53" s="11" t="n">
-        <x:v>3591448.77118752</x:v>
+        <x:v>3593390.70310418</x:v>
       </x:c>
       <x:c r="E53" s="11" t="s"/>
       <x:c r="F53" s="12" t="n">
@@ -3814,7 +3814,7 @@
         <x:v>5863.5679999995</x:v>
       </x:c>
       <x:c r="S53" s="12" t="n">
-        <x:v>876.151833333075</x:v>
+        <x:v>2818.08375000022</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:146">
@@ -3822,10 +3822,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C54" s="11" t="n">
-        <x:v>2379.4382142857</x:v>
+        <x:v>2720.72034970238</x:v>
       </x:c>
       <x:c r="D54" s="11" t="n">
-        <x:v>767733.150208334</x:v>
+        <x:v>4265170.85218754</x:v>
       </x:c>
       <x:c r="E54" s="11" t="s"/>
       <x:c r="F54" s="12" t="n">
@@ -3835,40 +3835,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="12" t="n">
-        <x:v>114.908666666714</x:v>
+        <x:v>749.639541666023</x:v>
       </x:c>
       <x:c r="I54" s="12" t="n">
-        <x:v>1063.14233333315</x:v>
+        <x:v>1183.66108333226</x:v>
       </x:c>
       <x:c r="J54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1237.11166666634</x:v>
       </x:c>
       <x:c r="K54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3218.87862499617</x:v>
       </x:c>
       <x:c r="L54" s="12" t="n">
-        <x:v>9963.36512500001</x:v>
+        <x:v>4246.32658333518</x:v>
       </x:c>
       <x:c r="M54" s="12" t="n">
-        <x:v>5023.42937499995</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2097.00229166728</x:v>
       </x:c>
       <x:c r="O54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2543.6297083348</x:v>
       </x:c>
       <x:c r="P54" s="12" t="n">
-        <x:v>117.349666666705</x:v>
+        <x:v>1697.58633333538</x:v>
       </x:c>
       <x:c r="Q54" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4953.23870833311</x:v>
       </x:c>
       <x:c r="R54" s="12" t="n">
-        <x:v>11171.5588333332</x:v>
+        <x:v>5492.71999999974</x:v>
       </x:c>
       <x:c r="S54" s="12" t="n">
-        <x:v>5858.38100000005</x:v>
+        <x:v>10670.2903541671</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:146">
@@ -3876,10 +3876,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C55" s="11" t="n">
-        <x:v>1958.55675297616</x:v>
+        <x:v>2379.4382142857</x:v>
       </x:c>
       <x:c r="D55" s="11" t="n">
-        <x:v>4254500.56183338</x:v>
+        <x:v>767733.150208334</x:v>
       </x:c>
       <x:c r="E55" s="11" t="s"/>
       <x:c r="F55" s="12" t="n">
@@ -3889,40 +3889,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="12" t="n">
-        <x:v>749.639541666023</x:v>
+        <x:v>114.908666666714</x:v>
       </x:c>
       <x:c r="I55" s="12" t="n">
-        <x:v>1183.66108333226</x:v>
+        <x:v>1063.14233333315</x:v>
       </x:c>
       <x:c r="J55" s="12" t="n">
-        <x:v>1237.11166666634</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K55" s="12" t="n">
-        <x:v>3218.87862499617</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="12" t="n">
-        <x:v>4246.32658333518</x:v>
+        <x:v>9963.36512500001</x:v>
       </x:c>
       <x:c r="M55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5023.42937499995</x:v>
       </x:c>
       <x:c r="N55" s="12" t="n">
-        <x:v>2097.00229166728</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="12" t="n">
-        <x:v>2543.6297083348</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P55" s="12" t="n">
-        <x:v>1697.58633333538</x:v>
+        <x:v>117.349666666705</x:v>
       </x:c>
       <x:c r="Q55" s="12" t="n">
-        <x:v>4953.23870833311</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R55" s="12" t="n">
-        <x:v>5492.71999999974</x:v>
+        <x:v>11171.5588333332</x:v>
       </x:c>
       <x:c r="S55" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>5858.38100000005</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:146">
@@ -3930,10 +3930,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C56" s="11" t="n">
-        <x:v>1950.85884226185</x:v>
+        <x:v>2038.83674107138</x:v>
       </x:c>
       <x:c r="D56" s="11" t="n">
-        <x:v>1190842.56679166</x:v>
+        <x:v>1192074.257375</x:v>
       </x:c>
       <x:c r="E56" s="11" t="s"/>
       <x:c r="F56" s="12" t="n">
@@ -3976,7 +3976,7 @@
         <x:v>3767.42956250045</x:v>
       </x:c>
       <x:c r="S56" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1231.69058333337</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:146">
@@ -4038,10 +4038,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C58" s="11" t="n">
-        <x:v>1209.96719345239</x:v>
+        <x:v>1290.92024107143</x:v>
       </x:c>
       <x:c r="D58" s="11" t="n">
-        <x:v>754877.298708331</x:v>
+        <x:v>756010.641374997</x:v>
       </x:c>
       <x:c r="E58" s="11" t="s"/>
       <x:c r="F58" s="12" t="n">
@@ -4084,7 +4084,7 @@
         <x:v>1414.2062916666</x:v>
       </x:c>
       <x:c r="S58" s="12" t="n">
-        <x:v>966.250875000143</x:v>
+        <x:v>2099.59354166675</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:146">
@@ -4092,10 +4092,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C59" s="11" t="n">
-        <x:v>1188.44261160706</x:v>
+        <x:v>1288.39947916666</x:v>
       </x:c>
       <x:c r="D59" s="11" t="n">
-        <x:v>1658123.94097917</x:v>
+        <x:v>562257.846604165</x:v>
       </x:c>
       <x:c r="E59" s="11" t="s"/>
       <x:c r="F59" s="12" t="n">
@@ -4105,40 +4105,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="12" t="n">
-        <x:v>798.896999999881</x:v>
+        <x:v>3273.5189583333</x:v>
       </x:c>
       <x:c r="I59" s="12" t="n">
-        <x:v>388.553499999922</x:v>
+        <x:v>3333.82949999999</x:v>
       </x:c>
       <x:c r="J59" s="12" t="n">
-        <x:v>3005.84914583387</x:v>
+        <x:v>2197.52216666669</x:v>
       </x:c>
       <x:c r="K59" s="12" t="n">
-        <x:v>870.140208333265</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L59" s="12" t="n">
-        <x:v>2068.39558333275</x:v>
+        <x:v>876.691749999998</x:v>
       </x:c>
       <x:c r="M59" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N59" s="12" t="n">
-        <x:v>65.3000000000466</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O59" s="12" t="n">
-        <x:v>1534.8441666665</x:v>
+        <x:v>2452.61641666654</x:v>
       </x:c>
       <x:c r="P59" s="12" t="n">
-        <x:v>4158.85145833367</x:v>
+        <x:v>216.835833333316</x:v>
       </x:c>
       <x:c r="Q59" s="12" t="n">
-        <x:v>3747.36549999891</x:v>
+        <x:v>3659.83550000004</x:v>
       </x:c>
       <x:c r="R59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>380.670750000048</x:v>
       </x:c>
       <x:c r="S59" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1646.07183333335</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:146">
@@ -4146,10 +4146,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C60" s="11" t="n">
-        <x:v>1170.82291964285</x:v>
+        <x:v>1188.44261160706</x:v>
       </x:c>
       <x:c r="D60" s="11" t="n">
-        <x:v>560611.774770832</x:v>
+        <x:v>1658123.94097917</x:v>
       </x:c>
       <x:c r="E60" s="11" t="s"/>
       <x:c r="F60" s="12" t="n">
@@ -4159,37 +4159,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="12" t="n">
-        <x:v>3273.5189583333</x:v>
+        <x:v>798.896999999881</x:v>
       </x:c>
       <x:c r="I60" s="12" t="n">
-        <x:v>3333.82949999999</x:v>
+        <x:v>388.553499999922</x:v>
       </x:c>
       <x:c r="J60" s="12" t="n">
-        <x:v>2197.52216666669</x:v>
+        <x:v>3005.84914583387</x:v>
       </x:c>
       <x:c r="K60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>870.140208333265</x:v>
       </x:c>
       <x:c r="L60" s="12" t="n">
-        <x:v>876.691749999998</x:v>
+        <x:v>2068.39558333275</x:v>
       </x:c>
       <x:c r="M60" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N60" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>65.3000000000466</x:v>
       </x:c>
       <x:c r="O60" s="12" t="n">
-        <x:v>2452.61641666654</x:v>
+        <x:v>1534.8441666665</x:v>
       </x:c>
       <x:c r="P60" s="12" t="n">
-        <x:v>216.835833333316</x:v>
+        <x:v>4158.85145833367</x:v>
       </x:c>
       <x:c r="Q60" s="12" t="n">
-        <x:v>3659.83550000004</x:v>
+        <x:v>3747.36549999891</x:v>
       </x:c>
       <x:c r="R60" s="12" t="n">
-        <x:v>380.670750000048</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S60" s="12" t="n">
         <x:v>0</x:v>
@@ -4254,10 +4254,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C62" s="11" t="n">
-        <x:v>993.509016369004</x:v>
+        <x:v>1129.12750446431</x:v>
       </x:c>
       <x:c r="D62" s="11" t="n">
-        <x:v>2176064.39141666</x:v>
+        <x:v>377719.6685625</x:v>
       </x:c>
       <x:c r="E62" s="11" t="s"/>
       <x:c r="F62" s="12" t="n">
@@ -4270,37 +4270,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="12" t="n">
-        <x:v>8.64850000012666</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J62" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K62" s="12" t="n">
-        <x:v>807.938791666646</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="12" t="n">
-        <x:v>819.055291667115</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M62" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N62" s="12" t="n">
-        <x:v>2320.57379166642</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O62" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P62" s="12" t="n">
-        <x:v>2082.52014583349</x:v>
+        <x:v>2749.38083333336</x:v>
       </x:c>
       <x:c r="Q62" s="12" t="n">
-        <x:v>1344.68349999981</x:v>
+        <x:v>5288.98012500023</x:v>
       </x:c>
       <x:c r="R62" s="12" t="n">
-        <x:v>6315.53495833231</x:v>
+        <x:v>3842.81708333327</x:v>
       </x:c>
       <x:c r="S62" s="12" t="n">
-        <x:v>210.17125000013</x:v>
+        <x:v>3926.60702083341</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:146">
@@ -4308,10 +4308,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C63" s="11" t="n">
-        <x:v>982.224485119039</x:v>
+        <x:v>993.509016369004</x:v>
       </x:c>
       <x:c r="D63" s="11" t="n">
-        <x:v>406098.140708333</x:v>
+        <x:v>2176064.39141666</x:v>
       </x:c>
       <x:c r="E63" s="11" t="s"/>
       <x:c r="F63" s="12" t="n">
@@ -4324,37 +4324,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I63" s="12" t="n">
-        <x:v>2980.36706249998</x:v>
+        <x:v>8.64850000012666</x:v>
       </x:c>
       <x:c r="J63" s="12" t="n">
-        <x:v>20.8979999999865</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K63" s="12" t="n">
-        <x:v>492.727666666673</x:v>
+        <x:v>807.938791666646</x:v>
       </x:c>
       <x:c r="L63" s="12" t="n">
-        <x:v>147.542333333287</x:v>
+        <x:v>819.055291667115</x:v>
       </x:c>
       <x:c r="M63" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2320.57379166642</x:v>
       </x:c>
       <x:c r="O63" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P63" s="12" t="n">
-        <x:v>3262.37370833335</x:v>
+        <x:v>2082.52014583349</x:v>
       </x:c>
       <x:c r="Q63" s="12" t="n">
-        <x:v>2339.1045833333</x:v>
+        <x:v>1344.68349999981</x:v>
       </x:c>
       <x:c r="R63" s="12" t="n">
-        <x:v>4508.12943749997</x:v>
+        <x:v>6315.53495833231</x:v>
       </x:c>
       <x:c r="S63" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>210.17125000013</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:146">
@@ -4362,10 +4362,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C64" s="11" t="n">
-        <x:v>965.008184523987</x:v>
+        <x:v>982.224485119039</x:v>
       </x:c>
       <x:c r="D64" s="11" t="n">
-        <x:v>2881296.77422916</x:v>
+        <x:v>406098.140708333</x:v>
       </x:c>
       <x:c r="E64" s="11" t="s"/>
       <x:c r="F64" s="12" t="n">
@@ -4378,34 +4378,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I64" s="12" t="n">
-        <x:v>4331.95787500171</x:v>
+        <x:v>2980.36706249998</x:v>
       </x:c>
       <x:c r="J64" s="12" t="n">
-        <x:v>42.7213333332911</x:v>
+        <x:v>20.8979999999865</x:v>
       </x:c>
       <x:c r="K64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>492.727666666673</x:v>
       </x:c>
       <x:c r="L64" s="12" t="n">
-        <x:v>618.995666666888</x:v>
+        <x:v>147.542333333287</x:v>
       </x:c>
       <x:c r="M64" s="12" t="n">
-        <x:v>253.583000000101</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N64" s="12" t="n">
-        <x:v>699.325499999337</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O64" s="12" t="n">
-        <x:v>128.861666666809</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P64" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3262.37370833335</x:v>
       </x:c>
       <x:c r="Q64" s="12" t="n">
-        <x:v>96.3493333333172</x:v>
+        <x:v>2339.1045833333</x:v>
       </x:c>
       <x:c r="R64" s="12" t="n">
-        <x:v>7338.32020833436</x:v>
+        <x:v>4508.12943749997</x:v>
       </x:c>
       <x:c r="S64" s="12" t="n">
         <x:v>0</x:v>
@@ -4416,10 +4416,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C65" s="11" t="n">
-        <x:v>864.073238095252</x:v>
+        <x:v>982.064184523986</x:v>
       </x:c>
       <x:c r="D65" s="11" t="n">
-        <x:v>374008.908833333</x:v>
+        <x:v>2881535.55822916</x:v>
       </x:c>
       <x:c r="E65" s="11" t="s"/>
       <x:c r="F65" s="12" t="n">
@@ -4432,37 +4432,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>4331.95787500171</x:v>
       </x:c>
       <x:c r="J65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>42.7213333332911</x:v>
       </x:c>
       <x:c r="K65" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>618.995666666888</x:v>
       </x:c>
       <x:c r="M65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>253.583000000101</x:v>
       </x:c>
       <x:c r="N65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>699.325499999337</x:v>
       </x:c>
       <x:c r="O65" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>128.861666666809</x:v>
       </x:c>
       <x:c r="P65" s="12" t="n">
-        <x:v>2749.38083333336</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q65" s="12" t="n">
-        <x:v>5288.98012500023</x:v>
+        <x:v>96.3493333333172</x:v>
       </x:c>
       <x:c r="R65" s="12" t="n">
-        <x:v>3842.81708333327</x:v>
+        <x:v>7338.32020833436</x:v>
       </x:c>
       <x:c r="S65" s="12" t="n">
-        <x:v>215.847291666665</x:v>
+        <x:v>238.783999999985</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:146">
@@ -4578,10 +4578,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C68" s="11" t="n">
-        <x:v>623.76640327382</x:v>
+        <x:v>644.188193452362</x:v>
       </x:c>
       <x:c r="D68" s="11" t="n">
-        <x:v>366327.898250001</x:v>
+        <x:v>755482.953458334</x:v>
       </x:c>
       <x:c r="E68" s="11" t="s"/>
       <x:c r="F68" s="12" t="n">
@@ -4591,40 +4591,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>774.450083333417</x:v>
       </x:c>
       <x:c r="I68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>2719.86758333317</x:v>
       </x:c>
       <x:c r="J68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>257.400000000023</x:v>
       </x:c>
       <x:c r="K68" s="12" t="n">
-        <x:v>45.2963333333028</x:v>
+        <x:v>1130.72716666653</x:v>
       </x:c>
       <x:c r="L68" s="12" t="n">
-        <x:v>4476.70425000018</x:v>
+        <x:v>85.0074999999488</x:v>
       </x:c>
       <x:c r="M68" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1154.37474999996</x:v>
       </x:c>
       <x:c r="O68" s="12" t="n">
-        <x:v>3859.84606249997</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="12" t="n">
-        <x:v>350.883000000031</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>724.308624999947</x:v>
       </x:c>
       <x:c r="R68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1145.03233333328</x:v>
       </x:c>
       <x:c r="S68" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1027.46666666679</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:146">
@@ -4632,10 +4632,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C69" s="11" t="n">
-        <x:v>570.797717261877</x:v>
+        <x:v>623.76640327382</x:v>
       </x:c>
       <x:c r="D69" s="11" t="n">
-        <x:v>754455.486791667</x:v>
+        <x:v>366327.898250001</x:v>
       </x:c>
       <x:c r="E69" s="11" t="s"/>
       <x:c r="F69" s="12" t="n">
@@ -4645,37 +4645,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="12" t="n">
-        <x:v>774.450083333417</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="12" t="n">
-        <x:v>2719.86758333317</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J69" s="12" t="n">
-        <x:v>257.400000000023</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K69" s="12" t="n">
-        <x:v>1130.72716666653</x:v>
+        <x:v>45.2963333333028</x:v>
       </x:c>
       <x:c r="L69" s="12" t="n">
-        <x:v>85.0074999999488</x:v>
+        <x:v>4476.70425000018</x:v>
       </x:c>
       <x:c r="M69" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N69" s="12" t="n">
-        <x:v>1154.37474999996</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>3859.84606249997</x:v>
       </x:c>
       <x:c r="P69" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>350.883000000031</x:v>
       </x:c>
       <x:c r="Q69" s="12" t="n">
-        <x:v>724.308624999947</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R69" s="12" t="n">
-        <x:v>1145.03233333328</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S69" s="12" t="n">
         <x:v>0</x:v>
@@ -4794,10 +4794,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C72" s="11" t="n">
-        <x:v>403.433681547609</x:v>
+        <x:v>403.543133928574</x:v>
       </x:c>
       <x:c r="D72" s="11" t="n">
-        <x:v>3973570.2341875</x:v>
+        <x:v>3973571.76652084</x:v>
       </x:c>
       <x:c r="E72" s="11" t="s"/>
       <x:c r="F72" s="12" t="n">
@@ -4840,7 +4840,7 @@
         <x:v>63.6686666668393</x:v>
       </x:c>
       <x:c r="S72" s="12" t="n">
-        <x:v>654.393875000067</x:v>
+        <x:v>655.926208333578</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:146">
@@ -5766,10 +5766,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C90" s="11" t="n">
-        <x:v>16.315726190477</x:v>
+        <x:v>17.9736755952389</x:v>
       </x:c>
       <x:c r="D90" s="11" t="n">
-        <x:v>387099.9305</x:v>
+        <x:v>421775.395208333</x:v>
       </x:c>
       <x:c r="E90" s="11" t="s"/>
       <x:c r="F90" s="12" t="n">
@@ -5791,7 +5791,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L90" s="12" t="n">
-        <x:v>228.420166666678</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M90" s="12" t="n">
         <x:v>0</x:v>
@@ -5812,7 +5812,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S90" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>251.631458333344</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:146">
@@ -5820,10 +5820,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C91" s="11" t="n">
-        <x:v>14.4103452380971</x:v>
+        <x:v>16.315726190477</x:v>
       </x:c>
       <x:c r="D91" s="11" t="n">
-        <x:v>407829.776541665</x:v>
+        <x:v>387099.9305</x:v>
       </x:c>
       <x:c r="E91" s="11" t="s"/>
       <x:c r="F91" s="12" t="n">
@@ -5845,13 +5845,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L91" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>228.420166666678</x:v>
       </x:c>
       <x:c r="M91" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N91" s="12" t="n">
-        <x:v>201.74483333336</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O91" s="12" t="n">
         <x:v>0</x:v>
@@ -5874,10 +5874,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C92" s="11" t="n">
-        <x:v>3.94388095237914</x:v>
+        <x:v>14.4103452380971</x:v>
       </x:c>
       <x:c r="D92" s="11" t="n">
-        <x:v>1844692.98931251</x:v>
+        <x:v>407829.776541665</x:v>
       </x:c>
       <x:c r="E92" s="11" t="s"/>
       <x:c r="F92" s="12" t="n">
@@ -5905,10 +5905,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N92" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>201.74483333336</x:v>
       </x:c>
       <x:c r="O92" s="12" t="n">
-        <x:v>1.04600000008941</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P92" s="12" t="n">
         <x:v>0</x:v>
@@ -5917,7 +5917,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R92" s="12" t="n">
-        <x:v>54.1683333332185</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S92" s="12" t="n">
         <x:v>0</x:v>
@@ -5928,10 +5928,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C93" s="11" t="n">
-        <x:v>3.26822619047848</x:v>
+        <x:v>6.20265476191084</x:v>
       </x:c>
       <x:c r="D93" s="11" t="n">
-        <x:v>517145.847104166</x:v>
+        <x:v>1844724.61214584</x:v>
       </x:c>
       <x:c r="E93" s="11" t="s"/>
       <x:c r="F93" s="12" t="n">
@@ -5944,7 +5944,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I93" s="12" t="n">
-        <x:v>31.6833333333489</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J93" s="12" t="n">
         <x:v>0</x:v>
@@ -5953,7 +5953,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L93" s="12" t="n">
-        <x:v>14.0718333333498</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M93" s="12" t="n">
         <x:v>0</x:v>
@@ -5962,7 +5962,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>1.04600000008941</x:v>
       </x:c>
       <x:c r="P93" s="12" t="n">
         <x:v>0</x:v>
@@ -5971,10 +5971,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>54.1683333332185</x:v>
       </x:c>
       <x:c r="S93" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>31.6228333334439</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:146">
@@ -5982,10 +5982,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="C94" s="11" t="n">
-        <x:v>2.03842261905084</x:v>
+        <x:v>3.26822619047848</x:v>
       </x:c>
       <x:c r="D94" s="11" t="n">
-        <x:v>382952.942958333</x:v>
+        <x:v>517145.847104166</x:v>
       </x:c>
       <x:c r="E94" s="11" t="s"/>
       <x:c r="F94" s="12" t="n">
@@ -5998,16 +5998,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I94" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>31.6833333333489</x:v>
       </x:c>
       <x:c r="J94" s="12" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K94" s="12" t="n">
-        <x:v>28.5379166667117</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L94" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>14.0718333333498</x:v>
       </x:c>
       <x:c r="M94" s="12" t="n">
         <x:v>0</x:v>
@@ -6036,10 +6036,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="C95" s="11" t="n">
-        <x:v>0</x:v>
+        <x:v>2.03842261905084</x:v>
       </x:c>
       <x:c r="D95" s="11" t="n">
-        <x:v>169177.940208333</x:v>
+        <x:v>382952.942958333</x:v>
       </x:c>
       <x:c r="E95" s="11" t="s"/>
       <x:c r="F95" s="12" t="n">
@@ -6058,7 +6058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K95" s="12" t="n">
-        <x:v>0</x:v>
+        <x:v>28.5379166667117</x:v>
       </x:c>
       <x:c r="L95" s="12" t="n">
         <x:v>0</x:v>
@@ -6093,7 +6093,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D96" s="11" t="n">
-        <x:v>196295.306583333</x:v>
+        <x:v>169177.940208333</x:v>
       </x:c>
       <x:c r="E96" s="11" t="s"/>
       <x:c r="F96" s="12" t="n">
@@ -6471,7 +6471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D103" s="11" t="n">
-        <x:v>403038.964833334</x:v>
+        <x:v>179109.026041667</x:v>
       </x:c>
       <x:c r="E103" s="11" t="s"/>
       <x:c r="F103" s="12" t="n">
@@ -6795,7 +6795,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D109" s="11" t="n">
-        <x:v>213039.1185</x:v>
+        <x:v>403038.964833334</x:v>
       </x:c>
       <x:c r="E109" s="11" t="s"/>
       <x:c r="F109" s="12" t="n">
@@ -7443,7 +7443,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D121" s="11" t="n">
-        <x:v>193226.586125</x:v>
+        <x:v>174619.634833333</x:v>
       </x:c>
       <x:c r="E121" s="11" t="s"/>
       <x:c r="F121" s="12" t="n">
@@ -7929,7 +7929,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D130" s="11" t="n">
-        <x:v>240044.163416667</x:v>
+        <x:v>213039.1185</x:v>
       </x:c>
       <x:c r="E130" s="11" t="s"/>
       <x:c r="F130" s="12" t="n">
@@ -8091,7 +8091,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D133" s="11" t="n">
-        <x:v>440347.007958334</x:v>
+        <x:v>240044.163416667</x:v>
       </x:c>
       <x:c r="E133" s="11" t="s"/>
       <x:c r="F133" s="12" t="n">
@@ -8253,7 +8253,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D136" s="11" t="n">
-        <x:v>249042.324666667</x:v>
+        <x:v>440347.007958334</x:v>
       </x:c>
       <x:c r="E136" s="11" t="s"/>
       <x:c r="F136" s="12" t="n">
@@ -8415,7 +8415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D139" s="11" t="n">
-        <x:v>421523.763749999</x:v>
+        <x:v>249042.324666667</x:v>
       </x:c>
       <x:c r="E139" s="11" t="s"/>
       <x:c r="F139" s="12" t="n">
@@ -8523,7 +8523,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D141" s="11" t="n">
-        <x:v>174619.634833333</x:v>
+        <x:v>196295.306583333</x:v>
       </x:c>
       <x:c r="E141" s="11" t="s"/>
       <x:c r="F141" s="12" t="n">
@@ -9063,7 +9063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D151" s="11" t="n">
-        <x:v>179109.026041667</x:v>
+        <x:v>193226.586125</x:v>
       </x:c>
       <x:c r="E151" s="11" t="s"/>
       <x:c r="F151" s="12" t="n">
